--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Player</t>
   </si>
@@ -45,46 +45,58 @@
     <t>Overall value:</t>
   </si>
   <si>
-    <t>St Louis Cardinals lefties</t>
-  </si>
-  <si>
-    <t>Carpenter</t>
-  </si>
-  <si>
-    <t>Ozuna</t>
-  </si>
-  <si>
-    <t>Fowler</t>
-  </si>
-  <si>
-    <t>Wong</t>
-  </si>
-  <si>
-    <t>San Diego Padres righties</t>
-  </si>
-  <si>
-    <t>Margot</t>
-  </si>
-  <si>
-    <t>Villanueva</t>
-  </si>
-  <si>
-    <t>Pirela</t>
-  </si>
-  <si>
-    <t>Miami Marlins hitters</t>
-  </si>
-  <si>
-    <t>Castro</t>
-  </si>
-  <si>
-    <t>Dietrich</t>
-  </si>
-  <si>
-    <t>Maybin</t>
-  </si>
-  <si>
-    <t>Rojas</t>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Detroit Tigers hitters</t>
+  </si>
+  <si>
+    <t>Candelario</t>
+  </si>
+  <si>
+    <t>Castellanos</t>
+  </si>
+  <si>
+    <t>McCann</t>
+  </si>
+  <si>
+    <t>Albies</t>
+  </si>
+  <si>
+    <t>Acuna</t>
+  </si>
+  <si>
+    <t>Suzuki</t>
+  </si>
+  <si>
+    <t>Camargo</t>
+  </si>
+  <si>
+    <t>Atlanta Braves hitters</t>
+  </si>
+  <si>
+    <t>Pittsburgh Pirates lefties</t>
+  </si>
+  <si>
+    <t>Frazier</t>
+  </si>
+  <si>
+    <t>Polanco</t>
+  </si>
+  <si>
+    <t>Dickerson</t>
+  </si>
+  <si>
+    <t>Moran</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -134,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,12 +154,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -162,6 +189,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -453,33 +483,35 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="F1" s="9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="K1" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -525,92 +557,92 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="C3">
-        <v>24.7</v>
+        <v>13</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>7.967741935483871</v>
+        <v>3.8235294117647061</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="5">
-        <v>2900</v>
+        <v>4400</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>28.7</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>0</v>
+        <v>6.5227272727272725</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L3" s="5">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M3">
         <v>3</v>
       </c>
       <c r="N3" s="7">
         <f>(M3 / L3) * 1000</f>
-        <v>1</v>
+        <v>1.3636363636363638</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="C4">
-        <v>15.2</v>
+        <v>28.2</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ref="D4:D7" si="0">(C4 / B4) * 1000</f>
-        <v>4.6060606060606055</v>
+        <v>8.0571428571428569</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="5">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="H4">
-        <v>18.7</v>
+        <v>24.7</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" ref="I4:I7" si="1">(H4 / G4) * 1000</f>
-        <v>4.7948717948717947</v>
+        <v>6.5</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" s="5">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="N4" s="7">
         <f t="shared" ref="N4:N7" si="2">(M4 / L4) * 1000</f>
-        <v>0</v>
+        <v>3.2758620689655173</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -620,30 +652,30 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="5">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H5">
-        <v>3.5</v>
+        <v>25.2</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>9.3333333333333321</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5" s="5">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="M5">
-        <v>12.2</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
         <f t="shared" si="2"/>
-        <v>5.545454545454545</v>
+        <v>0.78947368421052633</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -651,32 +683,40 @@
         <v>10</v>
       </c>
       <c r="B6" s="5">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>1.25</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="I6" s="7" t="e">
+        <v>3.8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2100</v>
+      </c>
+      <c r="H6">
+        <v>6.2</v>
+      </c>
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.9523809523809526</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L6" s="5">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M6">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" si="2"/>
-        <v>3.75</v>
+        <v>2.0666666666666669</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -685,45 +725,56 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>42.9</v>
+        <v>50.7</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>3.5163934426229511</v>
+        <v>4.2250000000000005</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>9600</v>
+        <v>13000</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>22.2</v>
+        <v>84.8</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="1"/>
-        <v>2.3125</v>
+        <v>6.523076923076923</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6">
         <f>SUM(L3:L6)</f>
-        <v>10300</v>
+        <v>11900</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
-        <v>24.2</v>
+        <v>21.7</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="2"/>
-        <v>2.349514563106796</v>
+        <v>1.8235294117647058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -842,6 +893,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>5</v>
@@ -849,7 +908,7 @@
       <c r="B18" s="8"/>
       <c r="C18" s="3">
         <f>(SUM(C7,H7,M7, C15,H15) / SUM(B7,G7,L7,B15,G15)) * 1000</f>
-        <v>2.7819314641744546</v>
+        <v>4.2601626016260159</v>
       </c>
     </row>
   </sheetData>
@@ -871,7 +930,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,31 +940,31 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>CONCATENATE("|",Sheet1!A1,"|",Sheet1!A3,", ",Sheet1!A4,", ",Sheet1!A5,", ",Sheet1!A6,"|",TEXT(Sheet1!B7,"$#,##0"),"|",Sheet1!C7,"|",CONCATENATE(ROUND(Sheet1!D7,2),"x"),"|","???","|")</f>
-        <v>|St Louis Cardinals lefties|Carpenter, Ozuna, Fowler, Wong|$12,200|42.9|3.52x|???|</v>
+        <f>CONCATENATE("|",Sheet1!A1,"|",Sheet1!A3,", ",Sheet1!A4,", ",Sheet1!A5,", ",Sheet1!A6,"|",TEXT(Sheet1!B7,"$#,##0"),"|",Sheet1!C7,"|",CONCATENATE(ROUND(Sheet1!D7,2),"x"),"|",Sheet1!D8,"|")</f>
+        <v>|Detroit Tigers hitters|Candelario, Castellanos, Jones, McCann|$12,000|50.7|4.23x|Success|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>CONCATENATE("|",Sheet1!F1,"|",Sheet1!F3,", ",Sheet1!F4,", ",Sheet1!F5,", ",Sheet1!F6,"|",TEXT(Sheet1!G7,"$#,##0"),"|",Sheet1!H7,"|",CONCATENATE(ROUND(Sheet1!I7,2),"x"),"|","???","|")</f>
-        <v>|San Diego Padres righties|Margot, Villanueva, Pirela, |$9,600|22.2|2.31x|???|</v>
+        <f>CONCATENATE("|",Sheet1!F1,"|",Sheet1!F3,", ",Sheet1!F4,", ",Sheet1!F5,", ",Sheet1!F6,"|",TEXT(Sheet1!G7,"$#,##0"),"|",Sheet1!H7,"|",CONCATENATE(ROUND(Sheet1!I7,2),"x"),"|",Sheet1!I8,"|")</f>
+        <v>|Atlanta Braves hitters|Albies, Acuna, Suzuki, Camargo|$13,000|84.8|6.52x|Success|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>CONCATENATE("|",Sheet1!K1,"|",Sheet1!K3,", ",Sheet1!K4,", ",Sheet1!K5,", ",Sheet1!K6,"|",TEXT(Sheet1!L7,"$#,##0"),"|",Sheet1!M7,"|",CONCATENATE(ROUND(Sheet1!N7,2),"x"),"|","???","|")</f>
-        <v>|Miami Marlins hitters|Castro, Dietrich, Maybin, Rojas|$10,300|24.2|2.35x|???|</v>
+        <f>CONCATENATE("|",Sheet1!K1,"|",Sheet1!K3,", ",Sheet1!K4,", ",Sheet1!K5,", ",Sheet1!K6,"|",TEXT(Sheet1!L7,"$#,##0"),"|",Sheet1!M7,"|",CONCATENATE(ROUND(Sheet1!N7,2),"x"),"|",Sheet1!N8,"|")</f>
+        <v>|Pittsburgh Pirates lefties|Frazier, Polanco, Dickerson, Moran|$11,900|21.7|1.82x|Failure|</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="e">
-        <f>CONCATENATE("|",Sheet1!A9,"|",Sheet1!A11,", ",Sheet1!A12,", ",Sheet1!A13,", ",Sheet1!A14,"|",TEXT(Sheet1!B15,"$#,##0"),"|",Sheet1!C15,"|",CONCATENATE(ROUND(Sheet1!D15,2),"x"),"|","???","|")</f>
+        <f>CONCATENATE("|",Sheet1!A9,"|",Sheet1!A11,", ",Sheet1!A12,", ",Sheet1!A13,", ",Sheet1!A14,"|",TEXT(Sheet1!B15,"$#,##0"),"|",Sheet1!C15,"|",CONCATENATE(ROUND(Sheet1!D15,2),"x"),"|",Sheet1!D16,"|")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="e">
-        <f>CONCATENATE("|",Sheet1!F9,"|",Sheet1!F11,", ",Sheet1!F12,", ",Sheet1!F13,", ",Sheet1!F14,"|",TEXT(Sheet1!G15,"$#,##0"),"|",Sheet1!H15,"|",CONCATENATE(ROUND(Sheet1!I15,2),"x"),"|","???","|")</f>
+        <f>CONCATENATE("|",Sheet1!F9,"|",Sheet1!F11,", ",Sheet1!F12,", ",Sheet1!F13,", ",Sheet1!F14,"|",TEXT(Sheet1!G15,"$#,##0"),"|",Sheet1!H15,"|",CONCATENATE(ROUND(Sheet1!I15,2),"x"),"|",Sheet1!I16,"|")</f>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -45,51 +45,6 @@
     <t>Overall value:</t>
   </si>
   <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Detroit Tigers hitters</t>
-  </si>
-  <si>
-    <t>Candelario</t>
-  </si>
-  <si>
-    <t>Castellanos</t>
-  </si>
-  <si>
-    <t>McCann</t>
-  </si>
-  <si>
-    <t>Albies</t>
-  </si>
-  <si>
-    <t>Acuna</t>
-  </si>
-  <si>
-    <t>Suzuki</t>
-  </si>
-  <si>
-    <t>Camargo</t>
-  </si>
-  <si>
-    <t>Atlanta Braves hitters</t>
-  </si>
-  <si>
-    <t>Pittsburgh Pirates lefties</t>
-  </si>
-  <si>
-    <t>Frazier</t>
-  </si>
-  <si>
-    <t>Polanco</t>
-  </si>
-  <si>
-    <t>Dickerson</t>
-  </si>
-  <si>
-    <t>Moran</t>
-  </si>
-  <si>
     <t>Success</t>
   </si>
   <si>
@@ -97,6 +52,51 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Los Angeles Dodgers righties</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Verdugo</t>
+  </si>
+  <si>
+    <t>Kemp</t>
+  </si>
+  <si>
+    <t>Pederson</t>
+  </si>
+  <si>
+    <t>Minnesota Twins hitters</t>
+  </si>
+  <si>
+    <t>Mauer</t>
+  </si>
+  <si>
+    <t>Dozier</t>
+  </si>
+  <si>
+    <t>Garver</t>
+  </si>
+  <si>
+    <t>Morrison</t>
+  </si>
+  <si>
+    <t>Colorado Rockies righties</t>
+  </si>
+  <si>
+    <t>Desmond</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Iannetta</t>
+  </si>
+  <si>
+    <t>Cuevas</t>
   </si>
 </sst>
 </file>
@@ -185,13 +185,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -483,7 +483,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F9" sqref="F9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,24 +498,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="K1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="K1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -557,166 +557,166 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>3.8235294117647061</v>
+        <v>5.7575757575757578</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="5">
-        <v>4400</v>
+        <v>3200</v>
       </c>
       <c r="H3">
-        <v>28.7</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>6.5227272727272725</v>
+        <v>5.75</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L3" s="5">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <f>(M3 / L3) * 1000</f>
-        <v>1.3636363636363638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="C4">
-        <v>28.2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ref="D4:D7" si="0">(C4 / B4) * 1000</f>
-        <v>8.0571428571428569</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G4" s="5">
-        <v>3800</v>
+        <v>3300</v>
       </c>
       <c r="H4">
-        <v>24.7</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" ref="I4:I7" si="1">(H4 / G4) * 1000</f>
-        <v>6.5</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L4" s="5">
-        <v>2900</v>
+        <v>3600</v>
       </c>
       <c r="M4">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
         <f t="shared" ref="N4:N7" si="2">(M4 / L4) * 1000</f>
-        <v>3.2758620689655173</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>28.2</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.071428571428571</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" s="5">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="H5">
-        <v>25.2</v>
+        <v>9.5</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="1"/>
-        <v>9.3333333333333321</v>
+        <v>4.5238095238095237</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L5" s="5">
-        <v>3800</v>
+        <v>2300</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="N5" s="7">
         <f t="shared" si="2"/>
-        <v>0.78947368421052633</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="C6">
-        <v>9.5</v>
+        <v>12.2</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>3.8</v>
+        <v>5.545454545454545</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G6" s="5">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="H6">
         <v>6.2</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="1"/>
-        <v>2.9523809523809526</v>
+        <v>2.3846153846153846</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L6" s="5">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M6">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" si="2"/>
-        <v>2.0666666666666669</v>
+        <v>1.3636363636363638</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -725,67 +725,67 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>12000</v>
+        <v>10800</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>50.7</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>4.2250000000000005</v>
+        <v>5.5000000000000009</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>13000</v>
+        <v>11200</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>84.8</v>
+        <v>37.1</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="1"/>
-        <v>6.523076923076923</v>
+        <v>3.3125000000000004</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6">
         <f>SUM(L3:L6)</f>
-        <v>11900</v>
+        <v>10800</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
-        <v>21.7</v>
+        <v>21.2</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="2"/>
-        <v>1.8235294117647058</v>
+        <v>1.9629629629629628</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>22</v>
+      <c r="D8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -894,21 +894,21 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>23</v>
+      <c r="D16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="3">
         <f>(SUM(C7,H7,M7, C15,H15) / SUM(B7,G7,L7,B15,G15)) * 1000</f>
-        <v>4.2601626016260159</v>
+        <v>3.5884146341463414</v>
       </c>
     </row>
   </sheetData>
@@ -930,7 +930,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,19 +941,19 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Sheet1!A1,"|",Sheet1!A3,", ",Sheet1!A4,", ",Sheet1!A5,", ",Sheet1!A6,"|",TEXT(Sheet1!B7,"$#,##0"),"|",Sheet1!C7,"|",CONCATENATE(ROUND(Sheet1!D7,2),"x"),"|",Sheet1!D8,"|")</f>
-        <v>|Detroit Tigers hitters|Candelario, Castellanos, Jones, McCann|$12,000|50.7|4.23x|Success|</v>
+        <v>|Los Angeles Dodgers righties|Taylor, Verdugo, Kemp, Pederson|$10,800|59.4|5.5x|Success|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("|",Sheet1!F1,"|",Sheet1!F3,", ",Sheet1!F4,", ",Sheet1!F5,", ",Sheet1!F6,"|",TEXT(Sheet1!G7,"$#,##0"),"|",Sheet1!H7,"|",CONCATENATE(ROUND(Sheet1!I7,2),"x"),"|",Sheet1!I8,"|")</f>
-        <v>|Atlanta Braves hitters|Albies, Acuna, Suzuki, Camargo|$13,000|84.8|6.52x|Success|</v>
+        <v>|Minnesota Twins hitters|Mauer, Dozier, Garver, Morrison|$11,200|37.1|3.31x|Failure|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE("|",Sheet1!K1,"|",Sheet1!K3,", ",Sheet1!K4,", ",Sheet1!K5,", ",Sheet1!K6,"|",TEXT(Sheet1!L7,"$#,##0"),"|",Sheet1!M7,"|",CONCATENATE(ROUND(Sheet1!N7,2),"x"),"|",Sheet1!N8,"|")</f>
-        <v>|Pittsburgh Pirates lefties|Frazier, Polanco, Dickerson, Moran|$11,900|21.7|1.82x|Failure|</v>
+        <v>|Colorado Rockies righties|Desmond, Story, Iannetta, Cuevas|$10,800|21.2|1.96x|Failure|</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>Player</t>
   </si>
@@ -54,49 +54,46 @@
     <t>???</t>
   </si>
   <si>
-    <t>Los Angeles Dodgers righties</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Verdugo</t>
-  </si>
-  <si>
-    <t>Kemp</t>
-  </si>
-  <si>
-    <t>Pederson</t>
-  </si>
-  <si>
-    <t>Minnesota Twins hitters</t>
-  </si>
-  <si>
     <t>Mauer</t>
   </si>
   <si>
-    <t>Dozier</t>
-  </si>
-  <si>
-    <t>Garver</t>
-  </si>
-  <si>
-    <t>Morrison</t>
-  </si>
-  <si>
-    <t>Colorado Rockies righties</t>
-  </si>
-  <si>
-    <t>Desmond</t>
-  </si>
-  <si>
-    <t>Story</t>
-  </si>
-  <si>
-    <t>Iannetta</t>
-  </si>
-  <si>
-    <t>Cuevas</t>
+    <t>Toronto Blue Jays lefties</t>
+  </si>
+  <si>
+    <t>Solarte</t>
+  </si>
+  <si>
+    <t>Smoak</t>
+  </si>
+  <si>
+    <t>Morales</t>
+  </si>
+  <si>
+    <t>Tampa Bay Rays righties</t>
+  </si>
+  <si>
+    <t>Span</t>
+  </si>
+  <si>
+    <t>Cron</t>
+  </si>
+  <si>
+    <t>Duffy</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>Minnesota Twins lefties</t>
+  </si>
+  <si>
+    <t>Kepler</t>
+  </si>
+  <si>
+    <t>Rosario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morrison </t>
   </si>
 </sst>
 </file>
@@ -483,7 +480,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:I9"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +496,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -557,166 +554,158 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5">
-        <v>3300</v>
+        <v>3800</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>5.7575757575757578</v>
+        <v>1.5789473684210527</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="5">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="H3">
-        <v>18.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="L3" s="5">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="N3" s="7">
         <f>(M3 / L3) * 1000</f>
-        <v>0</v>
+        <v>1.9375</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ref="D4:D7" si="0">(C4 / B4) * 1000</f>
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="5">
-        <v>3300</v>
+        <v>2900</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" ref="I4:I7" si="1">(H4 / G4) * 1000</f>
-        <v>0.90909090909090906</v>
+        <v>2.0689655172413794</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4" s="5">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N4" s="7">
         <f t="shared" ref="N4:N7" si="2">(M4 / L4) * 1000</f>
-        <v>2.5</v>
+        <v>1.0606060606060608</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="C5">
-        <v>28.2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>10.071428571428571</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="5">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="H5">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="1"/>
-        <v>4.5238095238095237</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L5" s="5">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="M5">
-        <v>9.1999999999999993</v>
+        <v>34.4</v>
       </c>
       <c r="N5" s="7">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9.0526315789473681</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2200</v>
-      </c>
-      <c r="C6">
-        <v>12.2</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="B6" s="5"/>
+      <c r="D6" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>5.545454545454545</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="5">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H6">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="1"/>
-        <v>2.3846153846153846</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="5">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" si="2"/>
-        <v>1.3636363636363638</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -725,56 +714,56 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>10800</v>
+        <v>9900</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>59.400000000000006</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>5.5000000000000009</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>37.1</v>
+        <v>18</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="1"/>
-        <v>3.3125000000000004</v>
+        <v>1.5789473684210527</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6">
         <f>SUM(L3:L6)</f>
-        <v>10800</v>
+        <v>13300</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
-        <v>21.2</v>
+        <v>57.099999999999994</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="2"/>
-        <v>1.9629629629629628</v>
+        <v>4.2932330827067666</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -908,7 +897,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="3">
         <f>(SUM(C7,H7,M7, C15,H15) / SUM(B7,G7,L7,B15,G15)) * 1000</f>
-        <v>3.5884146341463414</v>
+        <v>2.4306358381502888</v>
       </c>
     </row>
   </sheetData>
@@ -941,19 +930,19 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Sheet1!A1,"|",Sheet1!A3,", ",Sheet1!A4,", ",Sheet1!A5,", ",Sheet1!A6,"|",TEXT(Sheet1!B7,"$#,##0"),"|",Sheet1!C7,"|",CONCATENATE(ROUND(Sheet1!D7,2),"x"),"|",Sheet1!D8,"|")</f>
-        <v>|Los Angeles Dodgers righties|Taylor, Verdugo, Kemp, Pederson|$10,800|59.4|5.5x|Success|</v>
+        <v>|Toronto Blue Jays lefties|Solarte, Smoak, Morales, |$9,900|9|0.91x|Failure|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("|",Sheet1!F1,"|",Sheet1!F3,", ",Sheet1!F4,", ",Sheet1!F5,", ",Sheet1!F6,"|",TEXT(Sheet1!G7,"$#,##0"),"|",Sheet1!H7,"|",CONCATENATE(ROUND(Sheet1!I7,2),"x"),"|",Sheet1!I8,"|")</f>
-        <v>|Minnesota Twins hitters|Mauer, Dozier, Garver, Morrison|$11,200|37.1|3.31x|Failure|</v>
+        <v>|Tampa Bay Rays righties|Span, Cron, Duffy, Ramos|$11,400|18|1.58x|Failure|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE("|",Sheet1!K1,"|",Sheet1!K3,", ",Sheet1!K4,", ",Sheet1!K5,", ",Sheet1!K6,"|",TEXT(Sheet1!L7,"$#,##0"),"|",Sheet1!M7,"|",CONCATENATE(ROUND(Sheet1!N7,2),"x"),"|",Sheet1!N8,"|")</f>
-        <v>|Colorado Rockies righties|Desmond, Story, Iannetta, Cuevas|$10,800|21.2|1.96x|Failure|</v>
+        <v>|Minnesota Twins lefties|Mauer, Kepler, Rosario, Morrison |$13,300|57.1|4.29x|Success|</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Player</t>
   </si>
@@ -54,46 +54,49 @@
     <t>???</t>
   </si>
   <si>
-    <t>Mauer</t>
-  </si>
-  <si>
-    <t>Toronto Blue Jays lefties</t>
-  </si>
-  <si>
-    <t>Solarte</t>
-  </si>
-  <si>
-    <t>Smoak</t>
-  </si>
-  <si>
-    <t>Morales</t>
-  </si>
-  <si>
-    <t>Tampa Bay Rays righties</t>
-  </si>
-  <si>
-    <t>Span</t>
-  </si>
-  <si>
-    <t>Cron</t>
-  </si>
-  <si>
-    <t>Duffy</t>
-  </si>
-  <si>
-    <t>Ramos</t>
-  </si>
-  <si>
-    <t>Minnesota Twins lefties</t>
-  </si>
-  <si>
-    <t>Kepler</t>
-  </si>
-  <si>
-    <t>Rosario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morrison </t>
+    <t>New York Mets hitters</t>
+  </si>
+  <si>
+    <t>Conforto</t>
+  </si>
+  <si>
+    <t>Cespedes</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Detroit Tigers hitters</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Hicks</t>
+  </si>
+  <si>
+    <t>McCann</t>
+  </si>
+  <si>
+    <t>San Francisco Giants lefties</t>
+  </si>
+  <si>
+    <t>Blanco</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>Hanson</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +499,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -554,17 +557,17 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5">
-        <v>3800</v>
+        <v>3100</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>21.7</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>1.5789473684210527</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -573,139 +576,147 @@
         <v>3000</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>0</v>
+        <v>11.466666666666667</v>
       </c>
       <c r="K3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L3" s="5">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="M3">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="N3" s="7">
         <f>(M3 / L3) * 1000</f>
-        <v>1.9375</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>18.7</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ref="D4:D7" si="0">(C4 / B4) * 1000</f>
-        <v>0.8571428571428571</v>
+        <v>4.6749999999999998</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="5">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" ref="I4:I7" si="1">(H4 / G4) * 1000</f>
-        <v>2.0689655172413794</v>
+        <v>3.8461538461538463</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L4" s="5">
-        <v>3300</v>
+        <v>3800</v>
       </c>
       <c r="M4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
         <f t="shared" ref="N4:N7" si="2">(M4 / L4) * 1000</f>
-        <v>1.0606060606060608</v>
+        <v>0.78947368421052633</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5">
-        <v>2600</v>
+        <v>3100</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.064516129032258</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="5">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="1"/>
-        <v>2.1428571428571428</v>
+        <v>1.153846153846154</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="5">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="M5">
-        <v>34.4</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
         <f t="shared" si="2"/>
-        <v>9.0526315789473681</v>
+        <v>1.0714285714285714</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="D6" s="7" t="e">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2500</v>
+      </c>
+      <c r="C6">
+        <v>43.6</v>
+      </c>
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="5">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="1"/>
-        <v>2.2222222222222223</v>
+        <v>1.25</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="5">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="M6">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" si="2"/>
-        <v>4.333333333333333</v>
+        <v>1.935483870967742</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -714,56 +725,56 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>9900</v>
+        <v>12700</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>9</v>
+        <v>115.19999999999999</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>0.90909090909090906</v>
+        <v>9.0708661417322833</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>11400</v>
+        <v>10600</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>18</v>
+        <v>50.4</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="1"/>
-        <v>1.5789473684210527</v>
+        <v>4.7547169811320753</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6">
         <f>SUM(L3:L6)</f>
-        <v>13300</v>
+        <v>12100</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
-        <v>57.099999999999994</v>
+        <v>15</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="2"/>
-        <v>4.2932330827067666</v>
+        <v>1.2396694214876034</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -897,7 +908,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="3">
         <f>(SUM(C7,H7,M7, C15,H15) / SUM(B7,G7,L7,B15,G15)) * 1000</f>
-        <v>2.4306358381502888</v>
+        <v>5.101694915254237</v>
       </c>
     </row>
   </sheetData>
@@ -930,19 +941,19 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Sheet1!A1,"|",Sheet1!A3,", ",Sheet1!A4,", ",Sheet1!A5,", ",Sheet1!A6,"|",TEXT(Sheet1!B7,"$#,##0"),"|",Sheet1!C7,"|",CONCATENATE(ROUND(Sheet1!D7,2),"x"),"|",Sheet1!D8,"|")</f>
-        <v>|Toronto Blue Jays lefties|Solarte, Smoak, Morales, |$9,900|9|0.91x|Failure|</v>
+        <v>|New York Mets hitters|Conforto, Cespedes, Bruce, Gonzalez|$12,700|115.2|9.07x|Success|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("|",Sheet1!F1,"|",Sheet1!F3,", ",Sheet1!F4,", ",Sheet1!F5,", ",Sheet1!F6,"|",TEXT(Sheet1!G7,"$#,##0"),"|",Sheet1!H7,"|",CONCATENATE(ROUND(Sheet1!I7,2),"x"),"|",Sheet1!I8,"|")</f>
-        <v>|Tampa Bay Rays righties|Span, Cron, Duffy, Ramos|$11,400|18|1.58x|Failure|</v>
+        <v>|Detroit Tigers hitters|Martin, Martinez, Hicks, McCann|$10,600|50.4|4.75x|Failure|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE("|",Sheet1!K1,"|",Sheet1!K3,", ",Sheet1!K4,", ",Sheet1!K5,", ",Sheet1!K6,"|",TEXT(Sheet1!L7,"$#,##0"),"|",Sheet1!M7,"|",CONCATENATE(ROUND(Sheet1!N7,2),"x"),"|",Sheet1!N8,"|")</f>
-        <v>|Minnesota Twins lefties|Mauer, Kepler, Rosario, Morrison |$13,300|57.1|4.29x|Success|</v>
+        <v>|San Francisco Giants lefties|Blanco, Belt, Crawford, Hanson|$12,100|15|1.24x|Failure|</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>Player</t>
   </si>
@@ -45,58 +45,55 @@
     <t>Overall value:</t>
   </si>
   <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Cincinnati Reds hitters</t>
+  </si>
+  <si>
+    <t>Peraza</t>
+  </si>
+  <si>
+    <t>Schebler</t>
+  </si>
+  <si>
+    <t>Suarez</t>
+  </si>
+  <si>
+    <t>Gennett</t>
+  </si>
+  <si>
+    <t>Baltimore Orioles righties</t>
+  </si>
+  <si>
+    <t>Mancini</t>
+  </si>
+  <si>
+    <t>Schoop</t>
+  </si>
+  <si>
+    <t>Trumbo</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Philadelphia Phillies righties</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>Hoskins</t>
+  </si>
+  <si>
+    <t>Altherr</t>
+  </si>
+  <si>
+    <t>Santana</t>
+  </si>
+  <si>
     <t>Success</t>
-  </si>
-  <si>
-    <t>Failure</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>New York Mets hitters</t>
-  </si>
-  <si>
-    <t>Conforto</t>
-  </si>
-  <si>
-    <t>Cespedes</t>
-  </si>
-  <si>
-    <t>Bruce</t>
-  </si>
-  <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
-    <t>Detroit Tigers hitters</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Martinez</t>
-  </si>
-  <si>
-    <t>Hicks</t>
-  </si>
-  <si>
-    <t>McCann</t>
-  </si>
-  <si>
-    <t>San Francisco Giants lefties</t>
-  </si>
-  <si>
-    <t>Blanco</t>
-  </si>
-  <si>
-    <t>Belt</t>
-  </si>
-  <si>
-    <t>Crawford</t>
-  </si>
-  <si>
-    <t>Hanson</t>
   </si>
 </sst>
 </file>
@@ -483,14 +480,14 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
@@ -499,19 +496,19 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="F1" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="K1" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
@@ -557,166 +554,166 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="C3">
-        <v>21.7</v>
+        <v>6.2</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>7</v>
+        <v>1.8787878787878789</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="H3">
-        <v>34.4</v>
+        <v>3</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>11.466666666666667</v>
+        <v>1.0344827586206897</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L3" s="5">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="N3" s="7">
         <f>(M3 / L3) * 1000</f>
-        <v>1.25</v>
+        <v>2.7058823529411766</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="C4">
-        <v>18.7</v>
+        <v>15.4</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ref="D4:D7" si="0">(C4 / B4) * 1000</f>
-        <v>4.6749999999999998</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" s="5">
         <v>2600</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>13.2</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" ref="I4:I7" si="1">(H4 / G4) * 1000</f>
-        <v>3.8461538461538463</v>
+        <v>5.0769230769230766</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L4" s="5">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="M4">
         <v>3</v>
       </c>
       <c r="N4" s="7">
         <f t="shared" ref="N4:N7" si="2">(M4 / L4) * 1000</f>
-        <v>0.78947368421052633</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="C5">
-        <v>31.2</v>
+        <v>32.4</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>10.064516129032258</v>
+        <v>8.3076923076923084</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="5">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="1"/>
-        <v>1.153846153846154</v>
+        <v>3.407407407407407</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L5" s="5">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>21.7</v>
       </c>
       <c r="N5" s="7">
         <f t="shared" si="2"/>
-        <v>1.0714285714285714</v>
+        <v>9.0416666666666661</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="C6">
-        <v>43.6</v>
+        <v>22.2</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>17.440000000000001</v>
+        <v>7.9285714285714288</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" s="5">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>28.2</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>12.260869565217391</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="5">
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>18.7</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" si="2"/>
-        <v>1.935483870967742</v>
+        <v>7.1923076923076925</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -725,56 +722,56 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>115.19999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>9.0708661417322833</v>
+        <v>5.8615384615384611</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>50.4</v>
+        <v>53.599999999999994</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="1"/>
-        <v>4.7547169811320753</v>
+        <v>5.1047619047619044</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6">
         <f>SUM(L3:L6)</f>
-        <v>12100</v>
+        <v>12400</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
-        <v>15</v>
+        <v>52.599999999999994</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="2"/>
-        <v>1.2396694214876034</v>
+        <v>4.2419354838709671</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" s="8" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -895,10 +892,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -908,7 +905,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="3">
         <f>(SUM(C7,H7,M7, C15,H15) / SUM(B7,G7,L7,B15,G15)) * 1000</f>
-        <v>5.101694915254237</v>
+        <v>5.0807799442896941</v>
       </c>
     </row>
   </sheetData>
@@ -941,19 +938,19 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Sheet1!A1,"|",Sheet1!A3,", ",Sheet1!A4,", ",Sheet1!A5,", ",Sheet1!A6,"|",TEXT(Sheet1!B7,"$#,##0"),"|",Sheet1!C7,"|",CONCATENATE(ROUND(Sheet1!D7,2),"x"),"|",Sheet1!D8,"|")</f>
-        <v>|New York Mets hitters|Conforto, Cespedes, Bruce, Gonzalez|$12,700|115.2|9.07x|Success|</v>
+        <v>|Cincinnati Reds hitters|Peraza, Schebler, Suarez, Gennett|$13,000|76.2|5.86x|Success|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("|",Sheet1!F1,"|",Sheet1!F3,", ",Sheet1!F4,", ",Sheet1!F5,", ",Sheet1!F6,"|",TEXT(Sheet1!G7,"$#,##0"),"|",Sheet1!H7,"|",CONCATENATE(ROUND(Sheet1!I7,2),"x"),"|",Sheet1!I8,"|")</f>
-        <v>|Detroit Tigers hitters|Martin, Martinez, Hicks, McCann|$10,600|50.4|4.75x|Failure|</v>
+        <v>|Baltimore Orioles righties|Mancini, Schoop, Trumbo, Valencia|$10,500|53.6|5.1x|Success|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE("|",Sheet1!K1,"|",Sheet1!K3,", ",Sheet1!K4,", ",Sheet1!K5,", ",Sheet1!K6,"|",TEXT(Sheet1!L7,"$#,##0"),"|",Sheet1!M7,"|",CONCATENATE(ROUND(Sheet1!N7,2),"x"),"|",Sheet1!N8,"|")</f>
-        <v>|San Francisco Giants lefties|Blanco, Belt, Crawford, Hanson|$12,100|15|1.24x|Failure|</v>
+        <v>|Philadelphia Phillies righties|Hernandez, Hoskins, Altherr, Santana|$12,400|52.6|4.24x|Success|</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Player</t>
   </si>
@@ -48,52 +48,55 @@
     <t>???</t>
   </si>
   <si>
-    <t>Cincinnati Reds hitters</t>
-  </si>
-  <si>
-    <t>Peraza</t>
-  </si>
-  <si>
-    <t>Schebler</t>
-  </si>
-  <si>
-    <t>Suarez</t>
-  </si>
-  <si>
-    <t>Gennett</t>
-  </si>
-  <si>
-    <t>Baltimore Orioles righties</t>
-  </si>
-  <si>
-    <t>Mancini</t>
-  </si>
-  <si>
-    <t>Schoop</t>
-  </si>
-  <si>
-    <t>Trumbo</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Philadelphia Phillies righties</t>
-  </si>
-  <si>
-    <t>Hernandez</t>
-  </si>
-  <si>
-    <t>Hoskins</t>
-  </si>
-  <si>
-    <t>Altherr</t>
-  </si>
-  <si>
-    <t>Santana</t>
-  </si>
-  <si>
     <t>Success</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Pham</t>
+  </si>
+  <si>
+    <t>Los Angeles Dodgers lefties</t>
+  </si>
+  <si>
+    <t>Pederson</t>
+  </si>
+  <si>
+    <t>Grandal</t>
+  </si>
+  <si>
+    <t>Bellinger</t>
+  </si>
+  <si>
+    <t>Puig</t>
+  </si>
+  <si>
+    <t>St. Louis Cardinals righties</t>
+  </si>
+  <si>
+    <t>Bader</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Ozuna</t>
+  </si>
+  <si>
+    <t>New York Yankees hitters</t>
+  </si>
+  <si>
+    <t>Gardner</t>
+  </si>
+  <si>
+    <t>Hicks</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Andujar</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,19 +499,19 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="F1" s="10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="K1" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
@@ -554,166 +557,167 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5">
-        <v>3300</v>
+        <v>2400</v>
       </c>
       <c r="C3">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>1.8787878787878789</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G3" s="5">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>28.2</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>1.0344827586206897</v>
+        <v>7.6216216216216219</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L3" s="5">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="M3">
-        <v>9.1999999999999993</v>
+        <v>15.2</v>
       </c>
       <c r="N3" s="7">
         <f>(M3 / L3) * 1000</f>
-        <v>2.7058823529411766</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="C4">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ref="D4:D7" si="0">(C4 / B4) * 1000</f>
-        <v>5.1333333333333337</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" s="5">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="H4">
-        <v>13.2</v>
+        <v>18.7</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" ref="I4:I7" si="1">(H4 / G4) * 1000</f>
-        <v>5.0769230769230766</v>
+        <v>6.6785714285714288</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L4" s="5">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
         <f t="shared" ref="N4:N7" si="2">(M4 / L4) * 1000</f>
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5">
-        <v>3900</v>
+        <v>3400</v>
       </c>
       <c r="C5">
-        <v>32.4</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>8.3076923076923084</v>
+        <v>2.6470588235294117</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" s="5">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="H5">
-        <v>9.1999999999999993</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="1"/>
-        <v>3.407407407407407</v>
+        <v>0.88235294117647067</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L5" s="5">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="M5">
-        <v>21.7</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
         <f t="shared" si="2"/>
-        <v>9.0416666666666661</v>
+        <v>1.153846153846154</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="C6">
-        <v>22.2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>7.9285714285714288</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G6" s="5">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="H6">
-        <v>28.2</v>
+        <f>18.7+6.2+6.2</f>
+        <v>31.099999999999998</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="1"/>
-        <v>12.260869565217391</v>
+        <v>11.107142857142858</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="5">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="M6">
-        <v>18.7</v>
+        <v>9.4</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" si="2"/>
-        <v>7.1923076923076925</v>
+        <v>3.4814814814814818</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -722,56 +726,56 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>13000</v>
+        <v>11600</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>76.2</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>5.8615384615384611</v>
+        <v>0.77586206896551724</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>10500</v>
+        <v>12700</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>53.599999999999994</v>
+        <v>81</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="1"/>
-        <v>5.1047619047619044</v>
+        <v>6.377952755905512</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6">
         <f>SUM(L3:L6)</f>
-        <v>12400</v>
+        <v>11500</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
-        <v>52.599999999999994</v>
+        <v>27.6</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="2"/>
-        <v>4.2419354838709671</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" s="8" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -905,7 +909,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="3">
         <f>(SUM(C7,H7,M7, C15,H15) / SUM(B7,G7,L7,B15,G15)) * 1000</f>
-        <v>5.0807799442896941</v>
+        <v>3.2849162011173183</v>
       </c>
     </row>
   </sheetData>
@@ -927,7 +931,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,19 +942,19 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Sheet1!A1,"|",Sheet1!A3,", ",Sheet1!A4,", ",Sheet1!A5,", ",Sheet1!A6,"|",TEXT(Sheet1!B7,"$#,##0"),"|",Sheet1!C7,"|",CONCATENATE(ROUND(Sheet1!D7,2),"x"),"|",Sheet1!D8,"|")</f>
-        <v>|Cincinnati Reds hitters|Peraza, Schebler, Suarez, Gennett|$13,000|76.2|5.86x|Success|</v>
+        <v>|Los Angeles Dodgers lefties|Pederson, Grandal, Bellinger, Puig|$11,600|9|0.78x|Failure|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("|",Sheet1!F1,"|",Sheet1!F3,", ",Sheet1!F4,", ",Sheet1!F5,", ",Sheet1!F6,"|",TEXT(Sheet1!G7,"$#,##0"),"|",Sheet1!H7,"|",CONCATENATE(ROUND(Sheet1!I7,2),"x"),"|",Sheet1!I8,"|")</f>
-        <v>|Baltimore Orioles righties|Mancini, Schoop, Trumbo, Valencia|$10,500|53.6|5.1x|Success|</v>
+        <v>|St. Louis Cardinals righties|Pham, Bader, Martinez, Ozuna|$12,700|81|6.38x|Success|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE("|",Sheet1!K1,"|",Sheet1!K3,", ",Sheet1!K4,", ",Sheet1!K5,", ",Sheet1!K6,"|",TEXT(Sheet1!L7,"$#,##0"),"|",Sheet1!M7,"|",CONCATENATE(ROUND(Sheet1!N7,2),"x"),"|",Sheet1!N8,"|")</f>
-        <v>|Philadelphia Phillies righties|Hernandez, Hoskins, Altherr, Santana|$12,400|52.6|4.24x|Success|</v>
+        <v>|New York Yankees hitters|Gardner, Hicks, Walker, Andujar|$11,500|27.6|2.4x|Failure|</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>Player</t>
   </si>
@@ -48,55 +48,52 @@
     <t>???</t>
   </si>
   <si>
-    <t>Success</t>
-  </si>
-  <si>
     <t>Failure</t>
   </si>
   <si>
-    <t>Pham</t>
-  </si>
-  <si>
-    <t>Los Angeles Dodgers lefties</t>
-  </si>
-  <si>
     <t>Pederson</t>
   </si>
   <si>
-    <t>Grandal</t>
-  </si>
-  <si>
     <t>Bellinger</t>
   </si>
   <si>
-    <t>Puig</t>
-  </si>
-  <si>
-    <t>St. Louis Cardinals righties</t>
-  </si>
-  <si>
-    <t>Bader</t>
-  </si>
-  <si>
-    <t>Martinez</t>
-  </si>
-  <si>
-    <t>Ozuna</t>
-  </si>
-  <si>
-    <t>New York Yankees hitters</t>
-  </si>
-  <si>
-    <t>Gardner</t>
-  </si>
-  <si>
-    <t>Hicks</t>
-  </si>
-  <si>
-    <t>Walker</t>
-  </si>
-  <si>
-    <t>Andujar</t>
+    <t>Pittsburgh Pirates lefties</t>
+  </si>
+  <si>
+    <t>Frazier</t>
+  </si>
+  <si>
+    <t>Polanco</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>Moran</t>
+  </si>
+  <si>
+    <t>Los Angeles Dodgers hitters</t>
+  </si>
+  <si>
+    <t>Utley</t>
+  </si>
+  <si>
+    <t>Muncy</t>
+  </si>
+  <si>
+    <t>Milwaukee Brewers righties</t>
+  </si>
+  <si>
+    <t>Cain</t>
+  </si>
+  <si>
+    <t>Braun</t>
+  </si>
+  <si>
+    <t>Santana</t>
+  </si>
+  <si>
+    <t>Perez</t>
   </si>
 </sst>
 </file>
@@ -483,7 +480,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,13 +502,13 @@
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="F1" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="K1" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
@@ -560,7 +557,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="5">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -570,30 +567,30 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G3" s="5">
-        <v>3700</v>
+        <v>4300</v>
       </c>
       <c r="H3">
-        <v>28.2</v>
+        <v>3</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>7.6216216216216219</v>
+        <v>0.69767441860465118</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L3" s="5">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="M3">
-        <v>15.2</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <f>(M3 / L3) * 1000</f>
-        <v>4.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -601,40 +598,41 @@
         <v>12</v>
       </c>
       <c r="B4" s="5">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <f>6.2+18.7</f>
+        <v>24.9</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ref="D4:D7" si="0">(C4 / B4) * 1000</f>
-        <v>0</v>
+        <v>7.1142857142857139</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G4" s="5">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="H4">
-        <v>18.7</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" ref="I4:I7" si="1">(H4 / G4) * 1000</f>
-        <v>6.6785714285714288</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L4" s="5">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="N4" s="7">
         <f t="shared" ref="N4:N7" si="2">(M4 / L4) * 1000</f>
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -642,40 +640,40 @@
         <v>13</v>
       </c>
       <c r="B5" s="5">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>2.6470588235294117</v>
+        <v>3.0312499999999996</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" s="5">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="1"/>
-        <v>0.88235294117647067</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="L5" s="5">
-        <v>2600</v>
+        <v>3300</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>18.7</v>
       </c>
       <c r="N5" s="7">
         <f t="shared" si="2"/>
-        <v>1.153846153846154</v>
+        <v>5.6666666666666661</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -683,41 +681,40 @@
         <v>14</v>
       </c>
       <c r="B6" s="5">
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G6" s="5">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="H6">
-        <f>18.7+6.2+6.2</f>
-        <v>31.099999999999998</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="1"/>
-        <v>11.107142857142858</v>
+        <v>0.9375</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L6" s="5">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M6">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" si="2"/>
-        <v>3.4814814814814818</v>
+        <v>4.3181818181818183</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -726,57 +723,53 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>9</v>
+        <v>37.599999999999994</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>0.77586206896551724</v>
+        <v>3.1333333333333329</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>12700</v>
+        <v>14100</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="1"/>
-        <v>6.377952755905512</v>
+        <v>0.85106382978723405</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6">
         <f>SUM(L3:L6)</f>
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
-        <v>27.6</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="2"/>
-        <v>2.4000000000000004</v>
+        <v>3.5904761904761906</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="D8" s="8"/>
       <c r="I8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
@@ -909,7 +902,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="3">
         <f>(SUM(C7,H7,M7, C15,H15) / SUM(B7,G7,L7,B15,G15)) * 1000</f>
-        <v>3.2849162011173183</v>
+        <v>2.3852459016393444</v>
       </c>
     </row>
   </sheetData>
@@ -942,19 +935,19 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Sheet1!A1,"|",Sheet1!A3,", ",Sheet1!A4,", ",Sheet1!A5,", ",Sheet1!A6,"|",TEXT(Sheet1!B7,"$#,##0"),"|",Sheet1!C7,"|",CONCATENATE(ROUND(Sheet1!D7,2),"x"),"|",Sheet1!D8,"|")</f>
-        <v>|Los Angeles Dodgers lefties|Pederson, Grandal, Bellinger, Puig|$11,600|9|0.78x|Failure|</v>
+        <v>|Pittsburgh Pirates lefties|Frazier, Polanco, Bell, Moran|$12,000|37.6|3.13x||</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("|",Sheet1!F1,"|",Sheet1!F3,", ",Sheet1!F4,", ",Sheet1!F5,", ",Sheet1!F6,"|",TEXT(Sheet1!G7,"$#,##0"),"|",Sheet1!H7,"|",CONCATENATE(ROUND(Sheet1!I7,2),"x"),"|",Sheet1!I8,"|")</f>
-        <v>|St. Louis Cardinals righties|Pham, Bader, Martinez, Ozuna|$12,700|81|6.38x|Success|</v>
+        <v>|Milwaukee Brewers righties|Cain, Braun, Santana, Perez|$14,100|12|0.85x|Failure|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE("|",Sheet1!K1,"|",Sheet1!K3,", ",Sheet1!K4,", ",Sheet1!K5,", ",Sheet1!K6,"|",TEXT(Sheet1!L7,"$#,##0"),"|",Sheet1!M7,"|",CONCATENATE(ROUND(Sheet1!N7,2),"x"),"|",Sheet1!N8,"|")</f>
-        <v>|New York Yankees hitters|Gardner, Hicks, Walker, Andujar|$11,500|27.6|2.4x|Failure|</v>
+        <v>|Los Angeles Dodgers hitters|Utley, Pederson, Bellinger, Muncy|$10,500|37.7|3.59x||</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Player</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Success</t>
   </si>
   <si>
     <t>Failure</t>
@@ -480,7 +483,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,19 +499,19 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="F1" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="K1" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
@@ -554,7 +557,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5">
         <v>2200</v>
@@ -567,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="5">
         <v>4300</v>
@@ -580,7 +583,7 @@
         <v>0.69767441860465118</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L3" s="5">
         <v>2500</v>
@@ -595,7 +598,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5">
         <v>3500</v>
@@ -609,7 +612,7 @@
         <v>7.1142857142857139</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="5">
         <v>3500</v>
@@ -622,7 +625,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L4" s="5">
         <v>2500</v>
@@ -637,20 +640,20 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5">
         <v>3200</v>
       </c>
       <c r="C5">
-        <v>9.6999999999999993</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>3.0312499999999996</v>
+        <v>5.9062499999999991</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="5">
         <v>3100</v>
@@ -663,7 +666,7 @@
         <v>0.967741935483871</v>
       </c>
       <c r="K5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L5" s="5">
         <v>3300</v>
@@ -678,7 +681,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5">
         <v>3100</v>
@@ -691,7 +694,7 @@
         <v>0.967741935483871</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="5">
         <v>3200</v>
@@ -704,17 +707,17 @@
         <v>0.9375</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6" s="5">
         <v>2200</v>
       </c>
       <c r="M6">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" si="2"/>
-        <v>4.3181818181818183</v>
+        <v>5.6818181818181817</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -727,11 +730,11 @@
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>37.599999999999994</v>
+        <v>46.8</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>3.1333333333333329</v>
+        <v>3.9</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
@@ -757,19 +760,23 @@
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
-        <v>37.700000000000003</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="2"/>
-        <v>3.5904761904761906</v>
+        <v>3.8761904761904766</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="I8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
@@ -902,7 +909,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="3">
         <f>(SUM(C7,H7,M7, C15,H15) / SUM(B7,G7,L7,B15,G15)) * 1000</f>
-        <v>2.3852459016393444</v>
+        <v>2.7185792349726778</v>
       </c>
     </row>
   </sheetData>
@@ -935,7 +942,7 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Sheet1!A1,"|",Sheet1!A3,", ",Sheet1!A4,", ",Sheet1!A5,", ",Sheet1!A6,"|",TEXT(Sheet1!B7,"$#,##0"),"|",Sheet1!C7,"|",CONCATENATE(ROUND(Sheet1!D7,2),"x"),"|",Sheet1!D8,"|")</f>
-        <v>|Pittsburgh Pirates lefties|Frazier, Polanco, Bell, Moran|$12,000|37.6|3.13x||</v>
+        <v>|Pittsburgh Pirates lefties|Frazier, Polanco, Bell, Moran|$12,000|46.8|3.9x|Success|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -947,7 +954,7 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE("|",Sheet1!K1,"|",Sheet1!K3,", ",Sheet1!K4,", ",Sheet1!K5,", ",Sheet1!K6,"|",TEXT(Sheet1!L7,"$#,##0"),"|",Sheet1!M7,"|",CONCATENATE(ROUND(Sheet1!N7,2),"x"),"|",Sheet1!N8,"|")</f>
-        <v>|Los Angeles Dodgers hitters|Utley, Pederson, Bellinger, Muncy|$10,500|37.7|3.59x||</v>
+        <v>|Los Angeles Dodgers hitters|Utley, Pederson, Bellinger, Muncy|$10,500|40.7|3.88x|Success|</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Player</t>
   </si>
@@ -48,55 +48,70 @@
     <t>???</t>
   </si>
   <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Los Angeles Dodgers hitters</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Pittsburgh Pirates lefties</t>
+  </si>
+  <si>
+    <t>Frazier</t>
+  </si>
+  <si>
+    <t>Polanco</t>
+  </si>
+  <si>
+    <t>Dickerson</t>
+  </si>
+  <si>
+    <t>Moran</t>
+  </si>
+  <si>
+    <t>Kansas City Royals righties</t>
+  </si>
+  <si>
+    <t>Merrifield</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>Escobar</t>
+  </si>
+  <si>
+    <t>Almonte</t>
+  </si>
+  <si>
+    <t>Detroit Tigers hitters</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Kozma</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Goodrum</t>
+  </si>
+  <si>
+    <t>Hernandez (INJ)</t>
+  </si>
+  <si>
+    <t>Barnes (INJ)</t>
+  </si>
+  <si>
     <t>Success</t>
-  </si>
-  <si>
-    <t>Failure</t>
-  </si>
-  <si>
-    <t>Pederson</t>
-  </si>
-  <si>
-    <t>Bellinger</t>
-  </si>
-  <si>
-    <t>Pittsburgh Pirates lefties</t>
-  </si>
-  <si>
-    <t>Frazier</t>
-  </si>
-  <si>
-    <t>Polanco</t>
-  </si>
-  <si>
-    <t>Bell</t>
-  </si>
-  <si>
-    <t>Moran</t>
-  </si>
-  <si>
-    <t>Los Angeles Dodgers hitters</t>
-  </si>
-  <si>
-    <t>Utley</t>
-  </si>
-  <si>
-    <t>Muncy</t>
-  </si>
-  <si>
-    <t>Milwaukee Brewers righties</t>
-  </si>
-  <si>
-    <t>Cain</t>
-  </si>
-  <si>
-    <t>Braun</t>
-  </si>
-  <si>
-    <t>Santana</t>
-  </si>
-  <si>
-    <t>Perez</t>
   </si>
 </sst>
 </file>
@@ -483,12 +498,12 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -499,13 +514,13 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="F1" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -557,167 +572,166 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5">
-        <v>2200</v>
+        <v>3600</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G3" s="5">
-        <v>4300</v>
+        <v>2100</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>24.9</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>0.69767441860465118</v>
+        <v>11.857142857142856</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
       </c>
       <c r="L3" s="5">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="N3" s="7">
         <f>(M3 / L3) * 1000</f>
-        <v>0</v>
+        <v>4.7142857142857144</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="C4">
-        <f>6.2+18.7</f>
-        <v>24.9</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ref="D4:D7" si="0">(C4 / B4) * 1000</f>
-        <v>7.1142857142857139</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G4" s="5">
         <v>3500</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>21.9</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" ref="I4:I7" si="1">(H4 / G4) * 1000</f>
-        <v>0.8571428571428571</v>
+        <v>6.2571428571428571</v>
       </c>
       <c r="K4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L4" s="5">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M4">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
         <f t="shared" ref="N4:N7" si="2">(M4 / L4) * 1000</f>
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="C5">
-        <v>18.899999999999999</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>5.9062499999999991</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G5" s="5">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="1"/>
-        <v>0.967741935483871</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L5" s="5">
-        <v>3300</v>
+        <v>2100</v>
       </c>
       <c r="M5">
-        <v>18.7</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
         <f t="shared" si="2"/>
-        <v>5.6666666666666661</v>
+        <v>2.8571428571428572</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5">
-        <v>3100</v>
+        <v>2200</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>0.967741935483871</v>
+        <v>1.3636363636363638</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G6" s="5">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>15.5</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="1"/>
-        <v>0.9375</v>
+        <v>5.5357142857142856</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L6" s="5">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="M6">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" si="2"/>
-        <v>5.6818181818181817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -726,45 +740,45 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>46.8</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>3.9</v>
+        <v>1.0714285714285714</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>14100</v>
+        <v>12300</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>12</v>
+        <v>65.3</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="1"/>
-        <v>0.85106382978723405</v>
+        <v>5.308943089430894</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6">
         <f>SUM(L3:L6)</f>
-        <v>10500</v>
+        <v>11200</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
-        <v>40.700000000000003</v>
+        <v>22.5</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="2"/>
-        <v>3.8761904761904766</v>
+        <v>2.0089285714285712</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -772,14 +786,16 @@
         <v>7</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -815,10 +831,18 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="D11" s="7" t="e">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2500</v>
+      </c>
+      <c r="C11">
+        <v>31.4</v>
+      </c>
+      <c r="D11" s="7">
         <f>(C11 / B11) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>12.56</v>
       </c>
       <c r="G11" s="5"/>
       <c r="I11" s="7" t="e">
@@ -827,10 +851,18 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="D12" s="7" t="e">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2600</v>
+      </c>
+      <c r="C12">
+        <v>12.7</v>
+      </c>
+      <c r="D12" s="7">
         <f t="shared" ref="D12:D13" si="3">(C12 / B12) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>4.8846153846153841</v>
       </c>
       <c r="G12" s="5"/>
       <c r="I12" s="7" t="e">
@@ -839,10 +871,18 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="D13" s="7" t="e">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2400</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.25</v>
       </c>
       <c r="G13" s="5"/>
       <c r="I13" s="7" t="e">
@@ -851,10 +891,18 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="D14" s="7" t="e">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2500</v>
+      </c>
+      <c r="C14">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D14" s="7">
         <f>(C14 / B14) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>3.6799999999999997</v>
       </c>
       <c r="G14" s="5"/>
       <c r="I14" s="7" t="e">
@@ -868,15 +916,15 @@
       </c>
       <c r="B15" s="6">
         <f>SUM(B11:B14)</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C15" s="1">
         <f>SUM(C11:C14)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="3" t="e">
+        <v>56.3</v>
+      </c>
+      <c r="D15" s="3">
         <f>(C15 / B15) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>5.63</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>4</v>
@@ -896,7 +944,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" s="8" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>6</v>
@@ -909,7 +957,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="3">
         <f>(SUM(C7,H7,M7, C15,H15) / SUM(B7,G7,L7,B15,G15)) * 1000</f>
-        <v>2.7185792349726778</v>
+        <v>3.4921700223713645</v>
       </c>
     </row>
   </sheetData>
@@ -942,25 +990,25 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Sheet1!A1,"|",Sheet1!A3,", ",Sheet1!A4,", ",Sheet1!A5,", ",Sheet1!A6,"|",TEXT(Sheet1!B7,"$#,##0"),"|",Sheet1!C7,"|",CONCATENATE(ROUND(Sheet1!D7,2),"x"),"|",Sheet1!D8,"|")</f>
-        <v>|Pittsburgh Pirates lefties|Frazier, Polanco, Bell, Moran|$12,000|46.8|3.9x|Success|</v>
+        <v>|Los Angeles Dodgers hitters|Taylor, Hernandez (INJ), Turner, Barnes (INJ)|$11,200|12|1.07x|Failure|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("|",Sheet1!F1,"|",Sheet1!F3,", ",Sheet1!F4,", ",Sheet1!F5,", ",Sheet1!F6,"|",TEXT(Sheet1!G7,"$#,##0"),"|",Sheet1!H7,"|",CONCATENATE(ROUND(Sheet1!I7,2),"x"),"|",Sheet1!I8,"|")</f>
-        <v>|Milwaukee Brewers righties|Cain, Braun, Santana, Perez|$14,100|12|0.85x|Failure|</v>
+        <v>|Pittsburgh Pirates lefties|Frazier, Polanco, Dickerson, Moran|$12,300|65.3|5.31x|Success|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE("|",Sheet1!K1,"|",Sheet1!K3,", ",Sheet1!K4,", ",Sheet1!K5,", ",Sheet1!K6,"|",TEXT(Sheet1!L7,"$#,##0"),"|",Sheet1!M7,"|",CONCATENATE(ROUND(Sheet1!N7,2),"x"),"|",Sheet1!N8,"|")</f>
-        <v>|Los Angeles Dodgers hitters|Utley, Pederson, Bellinger, Muncy|$10,500|40.7|3.88x|Success|</v>
+        <v>|Kansas City Royals righties|Merrifield, Perez, Escobar, Almonte|$11,200|22.5|2.01x|Failure|</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="e">
+      <c r="A4" t="str">
         <f>CONCATENATE("|",Sheet1!A9,"|",Sheet1!A11,", ",Sheet1!A12,", ",Sheet1!A13,", ",Sheet1!A14,"|",TEXT(Sheet1!B15,"$#,##0"),"|",Sheet1!C15,"|",CONCATENATE(ROUND(Sheet1!D15,2),"x"),"|",Sheet1!D16,"|")</f>
-        <v>#DIV/0!</v>
+        <v>|Detroit Tigers hitters|Jones, Kozma, Martinez, Goodrum|$10,000|56.3|5.63x|Success|</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="5">
   <si>
     <t>Player</t>
   </si>
@@ -40,78 +40,6 @@
   </si>
   <si>
     <t>Total:</t>
-  </si>
-  <si>
-    <t>Overall value:</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>Failure</t>
-  </si>
-  <si>
-    <t>Los Angeles Dodgers hitters</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Turner</t>
-  </si>
-  <si>
-    <t>Pittsburgh Pirates lefties</t>
-  </si>
-  <si>
-    <t>Frazier</t>
-  </si>
-  <si>
-    <t>Polanco</t>
-  </si>
-  <si>
-    <t>Dickerson</t>
-  </si>
-  <si>
-    <t>Moran</t>
-  </si>
-  <si>
-    <t>Kansas City Royals righties</t>
-  </si>
-  <si>
-    <t>Merrifield</t>
-  </si>
-  <si>
-    <t>Perez</t>
-  </si>
-  <si>
-    <t>Escobar</t>
-  </si>
-  <si>
-    <t>Almonte</t>
-  </si>
-  <si>
-    <t>Detroit Tigers hitters</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Kozma</t>
-  </si>
-  <si>
-    <t>Martinez</t>
-  </si>
-  <si>
-    <t>Goodrum</t>
-  </si>
-  <si>
-    <t>Hernandez (INJ)</t>
-  </si>
-  <si>
-    <t>Barnes (INJ)</t>
-  </si>
-  <si>
-    <t>Success</t>
   </si>
 </sst>
 </file>
@@ -203,10 +131,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -495,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,24 +441,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="K1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -571,167 +493,71 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5">
-        <v>3600</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="5"/>
+      <c r="D3" s="7" t="e">
         <f>(C3 / B3) * 1000</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2100</v>
-      </c>
-      <c r="H3">
-        <v>24.9</v>
-      </c>
-      <c r="I3" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="I3" s="7" t="e">
         <f>(H3 / G3) * 1000</f>
-        <v>11.857142857142856</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="5">
-        <v>3500</v>
-      </c>
-      <c r="M3">
-        <v>16.5</v>
-      </c>
-      <c r="N3" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="N3" s="7" t="e">
         <f>(M3 / L3) * 1000</f>
-        <v>4.7142857142857144</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2400</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="B4" s="5"/>
+      <c r="D4" s="7" t="e">
         <f t="shared" ref="D4:D7" si="0">(C4 / B4) * 1000</f>
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5">
-        <v>3500</v>
-      </c>
-      <c r="H4">
-        <v>21.9</v>
-      </c>
-      <c r="I4" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="I4" s="7" t="e">
         <f t="shared" ref="I4:I7" si="1">(H4 / G4) * 1000</f>
-        <v>6.2571428571428571</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="5">
-        <v>3500</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="N4" s="7" t="e">
         <f t="shared" ref="N4:N7" si="2">(M4 / L4) * 1000</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5">
-        <v>3000</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B5" s="5"/>
+      <c r="D5" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="5">
-        <v>3900</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="I5" s="7" t="e">
         <f t="shared" si="1"/>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="5">
-        <v>2100</v>
-      </c>
-      <c r="M5">
-        <v>6</v>
-      </c>
-      <c r="N5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="N5" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>2.8571428571428572</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2200</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="B6" s="5"/>
+      <c r="D6" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>1.3636363636363638</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="5">
-        <v>2800</v>
-      </c>
-      <c r="H6">
-        <v>15.5</v>
-      </c>
-      <c r="I6" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="I6" s="7" t="e">
         <f t="shared" si="1"/>
-        <v>5.5357142857142856</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="5">
-        <v>2100</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="N6" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -740,234 +566,237 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>11200</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>12</v>
-      </c>
-      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>1.0714285714285714</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>12300</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>65.3</v>
-      </c>
-      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="e">
         <f t="shared" si="1"/>
-        <v>5.308943089430894</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6">
         <f>SUM(L3:L6)</f>
-        <v>11200</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
-        <v>22.5</v>
-      </c>
-      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="e">
         <f t="shared" si="2"/>
-        <v>2.0089285714285712</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="D8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
       <c r="I9" s="10"/>
+      <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2500</v>
-      </c>
-      <c r="C11">
-        <v>31.4</v>
-      </c>
-      <c r="D11" s="7">
-        <f>(C11 / B11) * 1000</f>
-        <v>12.56</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="I11" s="7" t="e">
-        <f>(H11 / G11) * 1000</f>
-        <v>#DIV/0!</v>
+      <c r="K11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2600</v>
-      </c>
-      <c r="C12">
-        <v>12.7</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" ref="D12:D13" si="3">(C12 / B12) * 1000</f>
-        <v>4.8846153846153841</v>
+      <c r="B12" s="5"/>
+      <c r="D12" s="7" t="e">
+        <f>(C12 / B12) * 1000</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="G12" s="5"/>
       <c r="I12" s="7" t="e">
-        <f t="shared" ref="I12:I13" si="4">(H12 / G12) * 1000</f>
+        <f>(H12 / G12) * 1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="N12" s="7" t="e">
+        <f>(M12 / L12) * 1000</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2400</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7">
-        <f t="shared" si="3"/>
-        <v>1.25</v>
+      <c r="B13" s="5"/>
+      <c r="D13" s="7" t="e">
+        <f t="shared" ref="D13:D14" si="3">(C13 / B13) * 1000</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="G13" s="5"/>
       <c r="I13" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I13:I14" si="4">(H13 / G13) * 1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="N13" s="7" t="e">
+        <f t="shared" ref="N13:N14" si="5">(M13 / L13) * 1000</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="5">
-        <v>2500</v>
-      </c>
-      <c r="C14">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D14" s="7">
-        <f>(C14 / B14) * 1000</f>
-        <v>3.6799999999999997</v>
+      <c r="B14" s="5"/>
+      <c r="D14" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="G14" s="5"/>
       <c r="I14" s="7" t="e">
-        <f>(H14 / G14) * 1000</f>
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="N14" s="7" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="5"/>
+      <c r="D15" s="7" t="e">
+        <f>(C15 / B15) * 1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="I15" s="7" t="e">
+        <f>(H15 / G15) * 1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="N15" s="7" t="e">
+        <f>(M15 / L15) * 1000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="6">
-        <f>SUM(B11:B14)</f>
-        <v>10000</v>
-      </c>
-      <c r="C15" s="1">
-        <f>SUM(C11:C14)</f>
-        <v>56.3</v>
-      </c>
-      <c r="D15" s="3">
-        <f>(C15 / B15) * 1000</f>
-        <v>5.63</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="B16" s="6">
+        <f>SUM(B12:B15)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <f>SUM(C12:C15)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="e">
+        <f>(C16 / B16) * 1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="6">
-        <f>SUM(G11:G14)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <f>SUM(H11:H14)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="e">
-        <f>(H15 / G15) * 1000</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="3">
-        <f>(SUM(C7,H7,M7, C15,H15) / SUM(B7,G7,L7,B15,G15)) * 1000</f>
-        <v>3.4921700223713645</v>
-      </c>
+      <c r="G16" s="6">
+        <f>SUM(G12:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SUM(H12:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="e">
+        <f>(H16 / G16) * 1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="6">
+        <f>SUM(L12:L15)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <f>SUM(M12:M15)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="3" t="e">
+        <f>(M16 / L16) * 1000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="N17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="K10:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -976,10 +805,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,32 +817,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
+      <c r="A1" t="e">
         <f>CONCATENATE("|",Sheet1!A1,"|",Sheet1!A3,", ",Sheet1!A4,", ",Sheet1!A5,", ",Sheet1!A6,"|",TEXT(Sheet1!B7,"$#,##0"),"|",Sheet1!C7,"|",CONCATENATE(ROUND(Sheet1!D7,2),"x"),"|",Sheet1!D8,"|")</f>
-        <v>|Los Angeles Dodgers hitters|Taylor, Hernandez (INJ), Turner, Barnes (INJ)|$11,200|12|1.07x|Failure|</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2" t="e">
         <f>CONCATENATE("|",Sheet1!F1,"|",Sheet1!F3,", ",Sheet1!F4,", ",Sheet1!F5,", ",Sheet1!F6,"|",TEXT(Sheet1!G7,"$#,##0"),"|",Sheet1!H7,"|",CONCATENATE(ROUND(Sheet1!I7,2),"x"),"|",Sheet1!I8,"|")</f>
-        <v>|Pittsburgh Pirates lefties|Frazier, Polanco, Dickerson, Moran|$12,300|65.3|5.31x|Success|</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+      <c r="A3" t="e">
         <f>CONCATENATE("|",Sheet1!K1,"|",Sheet1!K3,", ",Sheet1!K4,", ",Sheet1!K5,", ",Sheet1!K6,"|",TEXT(Sheet1!L7,"$#,##0"),"|",Sheet1!M7,"|",CONCATENATE(ROUND(Sheet1!N7,2),"x"),"|",Sheet1!N8,"|")</f>
-        <v>|Kansas City Royals righties|Merrifield, Perez, Escobar, Almonte|$11,200|22.5|2.01x|Failure|</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>CONCATENATE("|",Sheet1!A9,"|",Sheet1!A11,", ",Sheet1!A12,", ",Sheet1!A13,", ",Sheet1!A14,"|",TEXT(Sheet1!B15,"$#,##0"),"|",Sheet1!C15,"|",CONCATENATE(ROUND(Sheet1!D15,2),"x"),"|",Sheet1!D16,"|")</f>
-        <v>|Detroit Tigers hitters|Jones, Kozma, Martinez, Goodrum|$10,000|56.3|5.63x|Success|</v>
+      <c r="A4" t="e">
+        <f>CONCATENATE("|",Sheet1!A10,"|",Sheet1!A12,", ",Sheet1!A13,", ",Sheet1!A14,", ",Sheet1!A15,"|",TEXT(Sheet1!B16,"$#,##0"),"|",Sheet1!C16,"|",CONCATENATE(ROUND(Sheet1!D16,2),"x"),"|",Sheet1!D17,"|")</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="e">
-        <f>CONCATENATE("|",Sheet1!F9,"|",Sheet1!F11,", ",Sheet1!F12,", ",Sheet1!F13,", ",Sheet1!F14,"|",TEXT(Sheet1!G15,"$#,##0"),"|",Sheet1!H15,"|",CONCATENATE(ROUND(Sheet1!I15,2),"x"),"|",Sheet1!I16,"|")</f>
+        <f>CONCATENATE("|",Sheet1!F10,"|",Sheet1!F12,", ",Sheet1!F13,", ",Sheet1!F14,", ",Sheet1!F15,"|",TEXT(Sheet1!G16,"$#,##0"),"|",Sheet1!H16,"|",CONCATENATE(ROUND(Sheet1!I16,2),"x"),"|",Sheet1!I17,"|")</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="e">
+        <f>CONCATENATE("|",Sheet1!K10,"|",Sheet1!K12,", ",Sheet1!K13,", ",Sheet1!K14,", ",Sheet1!K15,"|",TEXT(Sheet1!L16,"$#,##0"),"|",Sheet1!M16,"|",CONCATENATE(ROUND(Sheet1!N16,2),"x"),"|",Sheet1!N17,"|")</f>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>Player</t>
   </si>
@@ -40,6 +40,72 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Toronto Blue Jays hitters (FD)</t>
+  </si>
+  <si>
+    <t>Chicago White Sox hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Detroit Tigers righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Colorado Rockies lefties (FD)</t>
+  </si>
+  <si>
+    <t>Granderson</t>
+  </si>
+  <si>
+    <t>Smoak</t>
+  </si>
+  <si>
+    <t>Pillar</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Moncada</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Delmonico</t>
+  </si>
+  <si>
+    <t>Castillo</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Kozma</t>
+  </si>
+  <si>
+    <t>Castellanos</t>
+  </si>
+  <si>
+    <t>Mahtook</t>
+  </si>
+  <si>
+    <t>Blackmon</t>
+  </si>
+  <si>
+    <t>Parra</t>
+  </si>
+  <si>
+    <t>Wolters</t>
   </si>
 </sst>
 </file>
@@ -426,7 +492,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,15 +507,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
+      <c r="A1" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="F1" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
@@ -493,71 +565,167 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="D3" s="7" t="e">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2500</v>
+      </c>
+      <c r="C3">
+        <v>15.7</v>
+      </c>
+      <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="I3" s="7" t="e">
+        <v>6.28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3600</v>
+      </c>
+      <c r="H3">
+        <v>15.2</v>
+      </c>
+      <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="N3" s="7" t="e">
+        <v>4.2222222222222214</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2700</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
         <f>(M3 / L3) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="D4" s="7" t="e">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3400</v>
+      </c>
+      <c r="C4">
+        <v>15.7</v>
+      </c>
+      <c r="D4" s="7">
         <f t="shared" ref="D4:D7" si="0">(C4 / B4) * 1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="I4" s="7" t="e">
+        <v>4.617647058823529</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2800</v>
+      </c>
+      <c r="H4">
+        <v>3.2</v>
+      </c>
+      <c r="I4" s="7">
         <f t="shared" ref="I4:I7" si="1">(H4 / G4) * 1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="N4" s="7" t="e">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="5">
+        <v>2800</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
         <f t="shared" ref="N4:N7" si="2">(M4 / L4) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="D5" s="7" t="e">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2900</v>
+      </c>
+      <c r="C5">
+        <v>15.7</v>
+      </c>
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="I5" s="7" t="e">
+        <v>5.4137931034482749</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2500</v>
+      </c>
+      <c r="H5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I5" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="N5" s="7" t="e">
+        <v>3.88</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="5">
+        <v>3600</v>
+      </c>
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="N5" s="7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="D6" s="7" t="e">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2500</v>
+      </c>
+      <c r="C6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="I6" s="7" t="e">
+        <v>3.6799999999999997</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2300</v>
+      </c>
+      <c r="H6">
+        <v>10.5</v>
+      </c>
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="N6" s="7" t="e">
+        <v>4.5652173913043486</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="5">
+        <v>2200</v>
+      </c>
+      <c r="M6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N6" s="7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.1818181818181817</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -566,51 +734,57 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="e">
+        <v>56.3</v>
+      </c>
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4.9823008849557517</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>0</v>
+        <v>11200</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="e">
+        <v>38.599999999999994</v>
+      </c>
+      <c r="I7" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.4464285714285707</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6">
         <f>SUM(L3:L6)</f>
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="e">
+        <v>18.2</v>
+      </c>
+      <c r="N7" s="3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.6106194690265487</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D9" s="10"/>
@@ -618,7 +792,9 @@
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -670,10 +846,18 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="D12" s="7" t="e">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4300</v>
+      </c>
+      <c r="C12">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D12" s="7">
         <f>(C12 / B12) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>2.13953488372093</v>
       </c>
       <c r="G12" s="5"/>
       <c r="I12" s="7" t="e">
@@ -687,10 +871,18 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="D13" s="7" t="e">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2600</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
         <f t="shared" ref="D13:D14" si="3">(C13 / B13) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>2.3076923076923079</v>
       </c>
       <c r="G13" s="5"/>
       <c r="I13" s="7" t="e">
@@ -704,10 +896,18 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="D14" s="7" t="e">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2700</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>4.8148148148148149</v>
       </c>
       <c r="G14" s="5"/>
       <c r="I14" s="7" t="e">
@@ -721,10 +921,18 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="D15" s="7" t="e">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
         <f>(C15 / B15) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G15" s="5"/>
       <c r="I15" s="7" t="e">
@@ -743,15 +951,15 @@
       </c>
       <c r="B16" s="6">
         <f>SUM(B12:B15)</f>
-        <v>0</v>
+        <v>11600</v>
       </c>
       <c r="C16" s="1">
         <f>SUM(C12:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="3" t="e">
+        <v>28.2</v>
+      </c>
+      <c r="D16" s="3">
         <f>(C16 / B16) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>2.4310344827586206</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>4</v>
@@ -785,7 +993,9 @@
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="I17" s="8"/>
       <c r="N17" s="8"/>
     </row>
@@ -817,27 +1027,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="e">
+      <c r="A1" t="str">
         <f>CONCATENATE("|",Sheet1!A1,"|",Sheet1!A3,", ",Sheet1!A4,", ",Sheet1!A5,", ",Sheet1!A6,"|",TEXT(Sheet1!B7,"$#,##0"),"|",Sheet1!C7,"|",CONCATENATE(ROUND(Sheet1!D7,2),"x"),"|",Sheet1!D8,"|")</f>
-        <v>#DIV/0!</v>
+        <v>|Toronto Blue Jays hitters (FD)|Granderson, Smoak, Pillar, Martin|$11,300|56.3|4.98x|Success|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="e">
+      <c r="A2" t="str">
         <f>CONCATENATE("|",Sheet1!F1,"|",Sheet1!F3,", ",Sheet1!F4,", ",Sheet1!F5,", ",Sheet1!F6,"|",TEXT(Sheet1!G7,"$#,##0"),"|",Sheet1!H7,"|",CONCATENATE(ROUND(Sheet1!I7,2),"x"),"|",Sheet1!I8,"|")</f>
-        <v>#DIV/0!</v>
+        <v>|Chicago White Sox hitters (FD, DK)|Moncada, Sanchez, Delmonico, Castillo|$11,200|38.6|3.45x|Failure|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="e">
+      <c r="A3" t="str">
         <f>CONCATENATE("|",Sheet1!K1,"|",Sheet1!K3,", ",Sheet1!K4,", ",Sheet1!K5,", ",Sheet1!K6,"|",TEXT(Sheet1!L7,"$#,##0"),"|",Sheet1!M7,"|",CONCATENATE(ROUND(Sheet1!N7,2),"x"),"|",Sheet1!N8,"|")</f>
-        <v>#DIV/0!</v>
+        <v>|Detroit Tigers righties (FD, DK)|Jones, Kozma, Castellanos, Mahtook|$11,300|18.2|1.61x|Failure|</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="e">
+      <c r="A4" t="str">
         <f>CONCATENATE("|",Sheet1!A10,"|",Sheet1!A12,", ",Sheet1!A13,", ",Sheet1!A14,", ",Sheet1!A15,"|",TEXT(Sheet1!B16,"$#,##0"),"|",Sheet1!C16,"|",CONCATENATE(ROUND(Sheet1!D16,2),"x"),"|",Sheet1!D17,"|")</f>
-        <v>#DIV/0!</v>
+        <v>|Colorado Rockies lefties (FD)|Blackmon, Parra, Gonzalez, Wolters|$11,600|28.2|2.43x|Failure|</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Player</t>
   </si>
@@ -48,64 +48,61 @@
     <t>Success</t>
   </si>
   <si>
+    <t>Palka</t>
+  </si>
+  <si>
+    <t>DeShields</t>
+  </si>
+  <si>
+    <t>Kiner-Falefa</t>
+  </si>
+  <si>
+    <t>Choo</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Blackmon</t>
+  </si>
+  <si>
+    <t>Dahl</t>
+  </si>
+  <si>
+    <t>Milwaukee Brewers lefties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Yelich</t>
+  </si>
+  <si>
+    <t>Shaw</t>
+  </si>
+  <si>
+    <t>Villar</t>
+  </si>
+  <si>
+    <t>Texas Rangers hitters (DK)</t>
+  </si>
+  <si>
+    <t>Gallo</t>
+  </si>
+  <si>
+    <t>Colorado Rockies lefties (DK)</t>
+  </si>
+  <si>
     <t>Gonzalez</t>
   </si>
   <si>
-    <t>Toronto Blue Jays hitters (FD)</t>
-  </si>
-  <si>
     <t>Chicago White Sox hitters (FD, DK)</t>
   </si>
   <si>
-    <t>Detroit Tigers righties (FD, DK)</t>
-  </si>
-  <si>
-    <t>Colorado Rockies lefties (FD)</t>
-  </si>
-  <si>
-    <t>Granderson</t>
-  </si>
-  <si>
-    <t>Smoak</t>
-  </si>
-  <si>
-    <t>Pillar</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Moncada</t>
-  </si>
-  <si>
-    <t>Sanchez</t>
-  </si>
-  <si>
-    <t>Delmonico</t>
-  </si>
-  <si>
-    <t>Castillo</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Kozma</t>
-  </si>
-  <si>
-    <t>Castellanos</t>
-  </si>
-  <si>
-    <t>Mahtook</t>
-  </si>
-  <si>
-    <t>Blackmon</t>
-  </si>
-  <si>
-    <t>Parra</t>
-  </si>
-  <si>
-    <t>Wolters</t>
+    <t>Abreu</t>
+  </si>
+  <si>
+    <t>Rondon</t>
   </si>
 </sst>
 </file>
@@ -197,10 +194,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -489,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,24 +504,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="K1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="K1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -566,166 +563,150 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="C3">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>6.28</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5">
-        <v>3600</v>
+        <v>5600</v>
       </c>
       <c r="H3">
-        <v>15.2</v>
+        <v>10</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>4.2222222222222214</v>
+        <v>1.7857142857142856</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L3" s="5">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N3" s="7">
         <f>(M3 / L3) * 1000</f>
-        <v>0</v>
+        <v>3.0303030303030303</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="C4">
-        <v>15.7</v>
+        <v>12.7</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ref="D4:D7" si="0">(C4 / B4) * 1000</f>
-        <v>4.617647058823529</v>
+        <v>3.4324324324324325</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" s="5">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="H4">
-        <v>3.2</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" ref="I4:I7" si="1">(H4 / G4) * 1000</f>
-        <v>1.142857142857143</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L4" s="5">
-        <v>2800</v>
+        <v>4100</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
         <f t="shared" ref="N4:N7" si="2">(M4 / L4) * 1000</f>
-        <v>0</v>
+        <v>1.7073170731707317</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="C5">
-        <v>15.7</v>
+        <v>9.5</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>5.4137931034482749</v>
+        <v>3.9583333333333335</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="5">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="H5">
-        <v>9.6999999999999993</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="1"/>
-        <v>3.88</v>
+        <v>7.5</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="L5" s="5">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="M5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2500</v>
-      </c>
-      <c r="C6">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="B6" s="5"/>
+      <c r="D6" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>3.6799999999999997</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="5">
-        <v>2300</v>
-      </c>
-      <c r="H6">
-        <v>10.5</v>
-      </c>
-      <c r="I6" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="I6" s="7" t="e">
         <f t="shared" si="1"/>
-        <v>4.5652173913043486</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L6" s="5">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="M6">
-        <v>9.1999999999999993</v>
+        <v>14</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" si="2"/>
-        <v>4.1818181818181817</v>
+        <v>3.6842105263157894</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -734,45 +715,45 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>11300</v>
+        <v>9400</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>56.3</v>
+        <v>37.6</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>4.9823008849557517</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>11200</v>
+        <v>13200</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>38.599999999999994</v>
+        <v>51</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="1"/>
-        <v>3.4464285714285707</v>
+        <v>3.8636363636363638</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6">
         <f>SUM(L3:L6)</f>
-        <v>11300</v>
+        <v>14700</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
-        <v>18.2</v>
+        <v>34</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="2"/>
-        <v>1.6106194690265487</v>
+        <v>2.3129251700680271</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -780,32 +761,32 @@
         <v>6</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
+      <c r="A10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -847,17 +828,17 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5">
-        <v>4300</v>
+        <v>3000</v>
       </c>
       <c r="C12">
-        <v>9.1999999999999993</v>
+        <v>6.2</v>
       </c>
       <c r="D12" s="7">
         <f>(C12 / B12) * 1000</f>
-        <v>2.13953488372093</v>
+        <v>2.0666666666666669</v>
       </c>
       <c r="G12" s="5"/>
       <c r="I12" s="7" t="e">
@@ -872,17 +853,17 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5">
-        <v>2600</v>
+        <v>3800</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" ref="D13:D14" si="3">(C13 / B13) * 1000</f>
-        <v>2.3076923076923079</v>
+        <v>0</v>
       </c>
       <c r="G13" s="5"/>
       <c r="I13" s="7" t="e">
@@ -897,17 +878,17 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B14" s="5">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>18.7</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="3"/>
-        <v>4.8148148148148149</v>
+        <v>6.4482758620689653</v>
       </c>
       <c r="G14" s="5"/>
       <c r="I14" s="7" t="e">
@@ -922,17 +903,17 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B15" s="5">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D15" s="7">
         <f>(C15 / B15) * 1000</f>
-        <v>0</v>
+        <v>4.1379310344827589</v>
       </c>
       <c r="G15" s="5"/>
       <c r="I15" s="7" t="e">
@@ -951,27 +932,19 @@
       </c>
       <c r="B16" s="6">
         <f>SUM(B12:B15)</f>
-        <v>11600</v>
+        <v>12600</v>
       </c>
       <c r="C16" s="1">
         <f>SUM(C12:C15)</f>
-        <v>28.2</v>
+        <v>36.9</v>
       </c>
       <c r="D16" s="3">
         <f>(C16 / B16) * 1000</f>
-        <v>2.4310344827586206</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="6">
-        <f>SUM(G12:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <f>SUM(H12:H15)</f>
-        <v>0</v>
-      </c>
+        <v>2.9285714285714284</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="3" t="e">
         <f>(H16 / G16) * 1000</f>
         <v>#DIV/0!</v>
@@ -998,6 +971,11 @@
       </c>
       <c r="I17" s="8"/>
       <c r="N17" s="8"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1018,7 +996,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,25 +1007,25 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Sheet1!A1,"|",Sheet1!A3,", ",Sheet1!A4,", ",Sheet1!A5,", ",Sheet1!A6,"|",TEXT(Sheet1!B7,"$#,##0"),"|",Sheet1!C7,"|",CONCATENATE(ROUND(Sheet1!D7,2),"x"),"|",Sheet1!D8,"|")</f>
-        <v>|Toronto Blue Jays hitters (FD)|Granderson, Smoak, Pillar, Martin|$11,300|56.3|4.98x|Success|</v>
+        <v>|Milwaukee Brewers lefties (FD, DK)|Yelich, Shaw, Villar, |$9,400|37.6|4x|Success|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("|",Sheet1!F1,"|",Sheet1!F3,", ",Sheet1!F4,", ",Sheet1!F5,", ",Sheet1!F6,"|",TEXT(Sheet1!G7,"$#,##0"),"|",Sheet1!H7,"|",CONCATENATE(ROUND(Sheet1!I7,2),"x"),"|",Sheet1!I8,"|")</f>
-        <v>|Chicago White Sox hitters (FD, DK)|Moncada, Sanchez, Delmonico, Castillo|$11,200|38.6|3.45x|Failure|</v>
+        <v>|Colorado Rockies lefties (DK)|Blackmon, Dahl, Gonzalez, |$13,200|51|3.86x|Success|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE("|",Sheet1!K1,"|",Sheet1!K3,", ",Sheet1!K4,", ",Sheet1!K5,", ",Sheet1!K6,"|",TEXT(Sheet1!L7,"$#,##0"),"|",Sheet1!M7,"|",CONCATENATE(ROUND(Sheet1!N7,2),"x"),"|",Sheet1!N8,"|")</f>
-        <v>|Detroit Tigers righties (FD, DK)|Jones, Kozma, Castellanos, Mahtook|$11,300|18.2|1.61x|Failure|</v>
+        <v>|Texas Rangers hitters (DK)|DeShields, Choo, Kiner-Falefa, Gallo|$14,700|34|2.31x|Success|</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE("|",Sheet1!A10,"|",Sheet1!A12,", ",Sheet1!A13,", ",Sheet1!A14,", ",Sheet1!A15,"|",TEXT(Sheet1!B16,"$#,##0"),"|",Sheet1!C16,"|",CONCATENATE(ROUND(Sheet1!D16,2),"x"),"|",Sheet1!D17,"|")</f>
-        <v>|Colorado Rockies lefties (FD)|Blackmon, Parra, Gonzalez, Wolters|$11,600|28.2|2.43x|Failure|</v>
+        <v>|Chicago White Sox hitters (FD, DK)|Anderson, Abreu, Rondon, Palka|$12,600|36.9|2.93x|Failure|</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>Player</t>
   </si>
@@ -45,64 +45,52 @@
     <t>Failure</t>
   </si>
   <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Palka</t>
-  </si>
-  <si>
-    <t>DeShields</t>
-  </si>
-  <si>
-    <t>Kiner-Falefa</t>
-  </si>
-  <si>
-    <t>Choo</t>
-  </si>
-  <si>
-    <t>Anderson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    </t>
   </si>
   <si>
-    <t>Blackmon</t>
-  </si>
-  <si>
-    <t>Dahl</t>
-  </si>
-  <si>
-    <t>Milwaukee Brewers lefties (FD, DK)</t>
-  </si>
-  <si>
-    <t>Yelich</t>
-  </si>
-  <si>
-    <t>Shaw</t>
-  </si>
-  <si>
-    <t>Villar</t>
-  </si>
-  <si>
-    <t>Texas Rangers hitters (DK)</t>
-  </si>
-  <si>
-    <t>Gallo</t>
-  </si>
-  <si>
-    <t>Colorado Rockies lefties (DK)</t>
-  </si>
-  <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
-    <t>Chicago White Sox hitters (FD, DK)</t>
-  </si>
-  <si>
-    <t>Abreu</t>
-  </si>
-  <si>
-    <t>Rondon</t>
+    <t>Colorado Rockies righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Desmond</t>
+  </si>
+  <si>
+    <t>Arenado</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Cuevas</t>
+  </si>
+  <si>
+    <t>Seattle Mariners hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Atlanta Braves hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Segura</t>
+  </si>
+  <si>
+    <t>Heredia</t>
+  </si>
+  <si>
+    <t>Haniger</t>
+  </si>
+  <si>
+    <t>Healy</t>
+  </si>
+  <si>
+    <t>Inciarte</t>
+  </si>
+  <si>
+    <t>Freeman</t>
+  </si>
+  <si>
+    <t>Markakis</t>
+  </si>
+  <si>
+    <t>Suzuki</t>
   </si>
 </sst>
 </file>
@@ -489,7 +477,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,19 +493,19 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="F1" s="10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="K1" s="10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
@@ -563,150 +551,166 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5">
         <v>3300</v>
       </c>
       <c r="C3">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>4.666666666666667</v>
+        <v>4.7575757575757569</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G3" s="5">
-        <v>5600</v>
+        <v>2800</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>1.7857142857142856</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L3" s="5">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>6.2</v>
       </c>
       <c r="N3" s="7">
         <f>(M3 / L3) * 1000</f>
-        <v>3.0303030303030303</v>
+        <v>2.0666666666666669</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5">
-        <v>3700</v>
+        <v>2200</v>
       </c>
       <c r="C4">
-        <v>12.7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ref="D4:D7" si="0">(C4 / B4) * 1000</f>
-        <v>3.4324324324324325</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" ref="I4:I7" si="1">(H4 / G4) * 1000</f>
-        <v>3.5</v>
+        <v>1.3953488372093024</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L4" s="5">
-        <v>4100</v>
+        <v>5400</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>28.7</v>
       </c>
       <c r="N4" s="7">
         <f t="shared" ref="N4:N7" si="2">(M4 / L4) * 1000</f>
-        <v>1.7073170731707317</v>
+        <v>5.3148148148148149</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="C5">
         <v>9.5</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>3.9583333333333335</v>
+        <v>2.7142857142857144</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" s="5">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="H5">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L5" s="5">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
         <f t="shared" si="2"/>
-        <v>0.8571428571428571</v>
+        <v>1.3636363636363638</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="D6" s="7" t="e">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2800</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="I6" s="7" t="e">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2500</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L6" s="5">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="M6">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" si="2"/>
-        <v>3.6842105263157894</v>
+        <v>1.6216216216216215</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -715,56 +719,56 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>9400</v>
+        <v>11800</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>37.6</v>
+        <v>25.2</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2.1355932203389831</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="1"/>
-        <v>3.8636363636363638</v>
+        <v>0.46153846153846151</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6">
         <f>SUM(L3:L6)</f>
-        <v>14700</v>
+        <v>16500</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
-        <v>34</v>
+        <v>46.9</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="2"/>
-        <v>2.3129251700680271</v>
+        <v>2.8424242424242423</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -773,9 +777,7 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -827,18 +829,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>3000</v>
-      </c>
-      <c r="C12">
-        <v>6.2</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="B12" s="5"/>
+      <c r="D12" s="7" t="e">
         <f>(C12 / B12) * 1000</f>
-        <v>2.0666666666666669</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G12" s="5"/>
       <c r="I12" s="7" t="e">
@@ -852,18 +846,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="5">
-        <v>3800</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="B13" s="5"/>
+      <c r="D13" s="7" t="e">
         <f t="shared" ref="D13:D14" si="3">(C13 / B13) * 1000</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G13" s="5"/>
       <c r="I13" s="7" t="e">
@@ -877,18 +863,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="5">
-        <v>2900</v>
-      </c>
-      <c r="C14">
-        <v>18.7</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="B14" s="5"/>
+      <c r="D14" s="7" t="e">
         <f t="shared" si="3"/>
-        <v>6.4482758620689653</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G14" s="5"/>
       <c r="I14" s="7" t="e">
@@ -902,18 +880,10 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2900</v>
-      </c>
-      <c r="C15">
-        <v>12</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="B15" s="5"/>
+      <c r="D15" s="7" t="e">
         <f>(C15 / B15) * 1000</f>
-        <v>4.1379310344827589</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G15" s="5"/>
       <c r="I15" s="7" t="e">
@@ -932,19 +902,27 @@
       </c>
       <c r="B16" s="6">
         <f>SUM(B12:B15)</f>
-        <v>12600</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
         <f>SUM(C12:C15)</f>
-        <v>36.9</v>
-      </c>
-      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="e">
         <f>(C16 / B16) * 1000</f>
-        <v>2.9285714285714284</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="6">
+        <f>SUM(G12:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SUM(H12:H15)</f>
+        <v>0</v>
+      </c>
       <c r="I16" s="3" t="e">
         <f>(H16 / G16) * 1000</f>
         <v>#DIV/0!</v>
@@ -966,15 +944,13 @@
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="D17" s="8"/>
       <c r="I17" s="8"/>
       <c r="N17" s="8"/>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -996,7 +972,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,25 +983,25 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Sheet1!A1,"|",Sheet1!A3,", ",Sheet1!A4,", ",Sheet1!A5,", ",Sheet1!A6,"|",TEXT(Sheet1!B7,"$#,##0"),"|",Sheet1!C7,"|",CONCATENATE(ROUND(Sheet1!D7,2),"x"),"|",Sheet1!D8,"|")</f>
-        <v>|Milwaukee Brewers lefties (FD, DK)|Yelich, Shaw, Villar, |$9,400|37.6|4x|Success|</v>
+        <v>|Seattle Mariners hitters (FD, DK)|Segura, Heredia, Haniger, Healy|$11,800|25.2|2.14x|Failure|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("|",Sheet1!F1,"|",Sheet1!F3,", ",Sheet1!F4,", ",Sheet1!F5,", ",Sheet1!F6,"|",TEXT(Sheet1!G7,"$#,##0"),"|",Sheet1!H7,"|",CONCATENATE(ROUND(Sheet1!I7,2),"x"),"|",Sheet1!I8,"|")</f>
-        <v>|Colorado Rockies lefties (DK)|Blackmon, Dahl, Gonzalez, |$13,200|51|3.86x|Success|</v>
+        <v>|Atlanta Braves hitters (FD, DK)|Inciarte, Freeman, Markakis, Suzuki|$13,000|6|0.46x|Failure|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE("|",Sheet1!K1,"|",Sheet1!K3,", ",Sheet1!K4,", ",Sheet1!K5,", ",Sheet1!K6,"|",TEXT(Sheet1!L7,"$#,##0"),"|",Sheet1!M7,"|",CONCATENATE(ROUND(Sheet1!N7,2),"x"),"|",Sheet1!N8,"|")</f>
-        <v>|Texas Rangers hitters (DK)|DeShields, Choo, Kiner-Falefa, Gallo|$14,700|34|2.31x|Success|</v>
+        <v>|Colorado Rockies righties (FD, DK)|Cuevas, Arenado, Story, Desmond|$16,500|46.9|2.84x|Failure|</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+      <c r="A4" t="e">
         <f>CONCATENATE("|",Sheet1!A10,"|",Sheet1!A12,", ",Sheet1!A13,", ",Sheet1!A14,", ",Sheet1!A15,"|",TEXT(Sheet1!B16,"$#,##0"),"|",Sheet1!C16,"|",CONCATENATE(ROUND(Sheet1!D16,2),"x"),"|",Sheet1!D17,"|")</f>
-        <v>|Chicago White Sox hitters (FD, DK)|Anderson, Abreu, Rondon, Palka|$12,600|36.9|2.93x|Failure|</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Current" sheetId="1" r:id="rId1"/>
+    <sheet name="RG table" sheetId="2" r:id="rId2"/>
+    <sheet name="Season Log" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
   <si>
     <t>Player</t>
   </si>
@@ -42,64 +43,104 @@
     <t>Total:</t>
   </si>
   <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
     <t>Failure</t>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t>Colorado Rockies righties (FD, DK)</t>
-  </si>
-  <si>
-    <t>Desmond</t>
-  </si>
-  <si>
-    <t>Arenado</t>
-  </si>
-  <si>
-    <t>Story</t>
-  </si>
-  <si>
-    <t>Cuevas</t>
-  </si>
-  <si>
-    <t>Seattle Mariners hitters (FD, DK)</t>
-  </si>
-  <si>
-    <t>Atlanta Braves hitters (FD, DK)</t>
-  </si>
-  <si>
-    <t>Segura</t>
-  </si>
-  <si>
-    <t>Heredia</t>
-  </si>
-  <si>
-    <t>Haniger</t>
-  </si>
-  <si>
-    <t>Healy</t>
-  </si>
-  <si>
-    <t>Inciarte</t>
-  </si>
-  <si>
-    <t>Freeman</t>
-  </si>
-  <si>
-    <t>Markakis</t>
-  </si>
-  <si>
-    <t>Suzuki</t>
+    <t>Los Angeles Angels righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Boston Red Sox hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Detroit Tigers hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Chicago Cubs hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Blog Site</t>
+  </si>
+  <si>
+    <t>Draftshot</t>
+  </si>
+  <si>
+    <t>New York Yankees hitters (FD)</t>
+  </si>
+  <si>
+    <t>Toronto Blue Jays hitters (FD)</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Los Angeles Dodgers righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Houston Astros hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Toronto Blue Jays hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>McKinney</t>
+  </si>
+  <si>
+    <t>Drury</t>
+  </si>
+  <si>
+    <t>Smoak</t>
+  </si>
+  <si>
+    <t>Successes</t>
+  </si>
+  <si>
+    <t>Failures</t>
+  </si>
+  <si>
+    <t>Success Rate</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>Bregman</t>
+  </si>
+  <si>
+    <t>Correa</t>
+  </si>
+  <si>
+    <t>Gurriel</t>
+  </si>
+  <si>
+    <t>Brantley</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -164,11 +205,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -188,10 +230,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -476,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,19 +541,19 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="F1" s="10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="K1" s="10" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
@@ -551,51 +599,43 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5">
-        <v>3300</v>
+        <v>2200</v>
       </c>
       <c r="C3">
-        <v>15.7</v>
+        <v>3</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>4.7575757575757569</v>
+        <v>1.3636363636363638</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G3" s="5">
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="5">
-        <v>3000</v>
-      </c>
-      <c r="M3">
-        <v>6.2</v>
-      </c>
-      <c r="N3" s="7">
+        <v>5.7619047619047619</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="N3" s="7" t="e">
         <f>(M3 / L3) * 1000</f>
-        <v>2.0666666666666669</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -605,112 +645,88 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G4" s="5">
-        <v>4300</v>
+        <v>3700</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" ref="I4:I7" si="1">(H4 / G4) * 1000</f>
-        <v>1.3953488372093024</v>
-      </c>
-      <c r="K4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="5">
-        <v>5400</v>
-      </c>
-      <c r="M4">
-        <v>28.7</v>
-      </c>
-      <c r="N4" s="7">
+        <v>3.3783783783783785</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="N4" s="7" t="e">
         <f t="shared" ref="N4:N7" si="2">(M4 / L4) * 1000</f>
-        <v>5.3148148148148149</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="C5">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>2.7142857142857144</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G5" s="5">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="5">
-        <v>4400</v>
-      </c>
-      <c r="M5">
-        <v>6</v>
-      </c>
-      <c r="N5" s="7">
-        <f t="shared" si="2"/>
-        <v>1.3636363636363638</v>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="N5" s="7" t="e">
+        <f>(M5 / L5) * 1000</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B6" s="5">
-        <v>2800</v>
+        <v>3600</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G6" s="5">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="5">
-        <v>3700</v>
-      </c>
-      <c r="M6">
-        <v>6</v>
-      </c>
-      <c r="N6" s="7">
-        <f t="shared" si="2"/>
-        <v>1.6216216216216215</v>
+        <v>2.2962962962962963</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="N6" s="7" t="e">
+        <f>(M6 / L6) * 1000</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -719,57 +735,55 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>11800</v>
+        <v>11100</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>25.2</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>2.1355932203389831</v>
+        <v>1.3513513513513513</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>6</v>
+        <v>55.400000000000006</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="1"/>
-        <v>0.46153846153846151</v>
+        <v>4.0735294117647056</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6">
         <f>SUM(L3:L6)</f>
-        <v>16500</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
-        <v>46.9</v>
-      </c>
-      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="e">
         <f t="shared" si="2"/>
-        <v>2.8424242424242423</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>5</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D9" s="9"/>
@@ -950,7 +964,7 @@
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -982,41 +996,350 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>CONCATENATE("|",Sheet1!A1,"|",Sheet1!A3,", ",Sheet1!A4,", ",Sheet1!A5,", ",Sheet1!A6,"|",TEXT(Sheet1!B7,"$#,##0"),"|",Sheet1!C7,"|",CONCATENATE(ROUND(Sheet1!D7,2),"x"),"|",Sheet1!D8,"|")</f>
-        <v>|Seattle Mariners hitters (FD, DK)|Segura, Heredia, Haniger, Healy|$11,800|25.2|2.14x|Failure|</v>
+        <f>CONCATENATE("|",Current!A1,"|",Current!A3,", ",Current!A4,", ",Current!A5,", ",Current!A6,"|",TEXT(Current!B7,"$#,##0"),"|",Current!C7,"|",CONCATENATE(ROUND(Current!D7,2),"x"),"|",Current!D8,"|")</f>
+        <v>|Toronto Blue Jays hitters (FD, DK)|Drury, McKinney, Hernandez, Smoak|$11,100|15|1.35x|Failure|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>CONCATENATE("|",Sheet1!F1,"|",Sheet1!F3,", ",Sheet1!F4,", ",Sheet1!F5,", ",Sheet1!F6,"|",TEXT(Sheet1!G7,"$#,##0"),"|",Sheet1!H7,"|",CONCATENATE(ROUND(Sheet1!I7,2),"x"),"|",Sheet1!I8,"|")</f>
-        <v>|Atlanta Braves hitters (FD, DK)|Inciarte, Freeman, Markakis, Suzuki|$13,000|6|0.46x|Failure|</v>
+        <f>CONCATENATE("|",Current!F1,"|",Current!F3,", ",Current!F4,", ",Current!F5,", ",Current!F6,"|",TEXT(Current!G7,"$#,##0"),"|",Current!H7,"|",CONCATENATE(ROUND(Current!I7,2),"x"),"|",Current!I8,"|")</f>
+        <v>|Houston Astros hitters (FD, DK)|Bregman, Brantley, Correa, Gurriel|$13,600|55.4|4.07x|Success|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>CONCATENATE("|",Sheet1!K1,"|",Sheet1!K3,", ",Sheet1!K4,", ",Sheet1!K5,", ",Sheet1!K6,"|",TEXT(Sheet1!L7,"$#,##0"),"|",Sheet1!M7,"|",CONCATENATE(ROUND(Sheet1!N7,2),"x"),"|",Sheet1!N8,"|")</f>
-        <v>|Colorado Rockies righties (FD, DK)|Cuevas, Arenado, Story, Desmond|$16,500|46.9|2.84x|Failure|</v>
+      <c r="A3" t="e">
+        <f>CONCATENATE("|",Current!K1,"|",Current!K3,", ",Current!K4,", ",Current!K5,", ",Current!K6,"|",TEXT(Current!L7,"$#,##0"),"|",Current!M7,"|",CONCATENATE(ROUND(Current!N7,2),"x"),"|",Current!N8,"|")</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="e">
-        <f>CONCATENATE("|",Sheet1!A10,"|",Sheet1!A12,", ",Sheet1!A13,", ",Sheet1!A14,", ",Sheet1!A15,"|",TEXT(Sheet1!B16,"$#,##0"),"|",Sheet1!C16,"|",CONCATENATE(ROUND(Sheet1!D16,2),"x"),"|",Sheet1!D17,"|")</f>
+        <f>CONCATENATE("|",Current!A10,"|",Current!A12,", ",Current!A13,", ",Current!A14,", ",Current!A15,"|",TEXT(Current!B16,"$#,##0"),"|",Current!C16,"|",CONCATENATE(ROUND(Current!D16,2),"x"),"|",Current!D17,"|")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="e">
-        <f>CONCATENATE("|",Sheet1!F10,"|",Sheet1!F12,", ",Sheet1!F13,", ",Sheet1!F14,", ",Sheet1!F15,"|",TEXT(Sheet1!G16,"$#,##0"),"|",Sheet1!H16,"|",CONCATENATE(ROUND(Sheet1!I16,2),"x"),"|",Sheet1!I17,"|")</f>
+        <f>CONCATENATE("|",Current!F10,"|",Current!F12,", ",Current!F13,", ",Current!F14,", ",Current!F15,"|",TEXT(Current!G16,"$#,##0"),"|",Current!H16,"|",CONCATENATE(ROUND(Current!I16,2),"x"),"|",Current!I17,"|")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="e">
-        <f>CONCATENATE("|",Sheet1!K10,"|",Sheet1!K12,", ",Sheet1!K13,", ",Sheet1!K14,", ",Sheet1!K15,"|",TEXT(Sheet1!L16,"$#,##0"),"|",Sheet1!M16,"|",CONCATENATE(ROUND(Sheet1!N16,2),"x"),"|",Sheet1!N17,"|")</f>
+        <f>CONCATENATE("|",Current!K10,"|",Current!K12,", ",Current!K13,", ",Current!K14,", ",Current!K15,"|",TEXT(Current!L16,"$#,##0"),"|",Current!M16,"|",CONCATENATE(ROUND(Current!N16,2),"x"),"|",Current!N17,"|")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>43552</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>7.36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="14">
+        <f>COUNTIFS(B:B,"Draftshot",E:E,"Success")</f>
+        <v>3</v>
+      </c>
+      <c r="I2" s="14">
+        <f>COUNTIFS(B:B,"Draftshot",E:E,"Failure")</f>
+        <v>2</v>
+      </c>
+      <c r="J2" s="15">
+        <f>H2 / (H2+I2)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>43552</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>5.18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="14">
+        <f>COUNTIFS(B:B,"RG",E:E,"Success")</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="14">
+        <f>COUNTIFS(B:B,"RG",E:E,"Failure")</f>
+        <v>5</v>
+      </c>
+      <c r="J3" s="15">
+        <f>H3 / (H3+I3)</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>43552</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>43553</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>2.96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>43553</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1.99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>43553</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1.46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>43554</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>5.93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>43554</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>43556</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>0.93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>43556</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>3.22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>43556</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>3.82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>43557</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>1.35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>43557</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>4.07</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="46">
   <si>
     <t>Player</t>
   </si>
@@ -88,9 +88,6 @@
     <t>RG</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Los Angeles Dodgers righties (FD, DK)</t>
   </si>
   <si>
@@ -100,15 +97,6 @@
     <t>Toronto Blue Jays hitters (FD, DK)</t>
   </si>
   <si>
-    <t>McKinney</t>
-  </si>
-  <si>
-    <t>Drury</t>
-  </si>
-  <si>
-    <t>Smoak</t>
-  </si>
-  <si>
     <t>Successes</t>
   </si>
   <si>
@@ -118,19 +106,64 @@
     <t>Success Rate</t>
   </si>
   <si>
-    <t>Hernandez</t>
-  </si>
-  <si>
-    <t>Bregman</t>
-  </si>
-  <si>
-    <t>Correa</t>
-  </si>
-  <si>
-    <t>Gurriel</t>
-  </si>
-  <si>
-    <t>Brantley</t>
+    <t>Boston Red Sox righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Los Angeles Angels hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Texas Rangers lefties (FD, DK)</t>
+  </si>
+  <si>
+    <t>New York Yankees hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Oakland A’s hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Los Angeles Angels lefties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Seattle Mariners hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Boston Red Sox lefties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Milwaukee Brewers lefties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Los Angeles Dodgers lefties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Washington Nationals lefties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Pittsburgh Pirates righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Marte</t>
+  </si>
+  <si>
+    <t>Cervelli</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>Cabrera</t>
+  </si>
+  <si>
+    <t>Arizona Diamondbacks lefties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Dyson</t>
+  </si>
+  <si>
+    <t>Escobar</t>
+  </si>
+  <si>
+    <t>Peralta</t>
   </si>
 </sst>
 </file>
@@ -140,7 +173,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -227,14 +260,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -525,7 +558,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,24 +573,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="K1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="A1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="F1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -599,30 +630,30 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>15.4</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>1.3636363636363638</v>
+        <v>5.7037037037037042</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G3" s="5">
-        <v>4200</v>
+        <v>3400</v>
       </c>
       <c r="H3">
-        <v>24.2</v>
+        <v>6</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>5.7619047619047619</v>
+        <v>1.7647058823529413</v>
       </c>
       <c r="L3" s="5"/>
       <c r="N3" s="7" t="e">
@@ -632,63 +663,63 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5">
+        <v>2700</v>
+      </c>
+      <c r="C4">
+        <v>31.7</v>
+      </c>
+      <c r="D4" s="7">
+        <f>(C4 / B4) * 1000</f>
+        <v>11.74074074074074</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="5">
         <v>2500</v>
       </c>
-      <c r="C4">
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
-        <f t="shared" ref="D4:D7" si="0">(C4 / B4) * 1000</f>
+      <c r="I4" s="7">
+        <f>(H4 / G4) * 1000</f>
         <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="5">
-        <v>3700</v>
-      </c>
-      <c r="H4">
-        <v>12.5</v>
-      </c>
-      <c r="I4" s="7">
-        <f t="shared" ref="I4:I7" si="1">(H4 / G4) * 1000</f>
-        <v>3.3783783783783785</v>
       </c>
       <c r="L4" s="5"/>
       <c r="N4" s="7" t="e">
-        <f t="shared" ref="N4:N7" si="2">(M4 / L4) * 1000</f>
+        <f>(M4 / L4) * 1000</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B5" s="5">
-        <v>2800</v>
+        <v>3700</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>16.2</v>
       </c>
       <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>2.1428571428571428</v>
+        <f>(C5 / B5) * 1000</f>
+        <v>4.378378378378379</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G5" s="5">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="H5">
-        <v>12.5</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" si="1"/>
-        <v>4.166666666666667</v>
+        <f>(H5 / G5) * 1000</f>
+        <v>1.7647058823529413</v>
       </c>
       <c r="L5" s="5"/>
       <c r="N5" s="7" t="e">
@@ -697,31 +728,23 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="5">
-        <v>3600</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
+      <c r="B6" s="5"/>
+      <c r="D6" s="7" t="e">
+        <f>(C6 / B6) * 1000</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G6" s="5">
         <v>2700</v>
       </c>
       <c r="H6">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" si="1"/>
-        <v>2.2962962962962963</v>
+        <f>(H6 / G6) * 1000</f>
+        <v>1.1111111111111112</v>
       </c>
       <c r="L6" s="5"/>
       <c r="N6" s="7" t="e">
@@ -735,30 +758,30 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>11100</v>
+        <v>9100</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>15</v>
+        <v>63.3</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3513513513513513</v>
+        <f>(C7 / B7) * 1000</f>
+        <v>6.9560439560439562</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>13600</v>
+        <v>12000</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>55.400000000000006</v>
+        <v>15</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="1"/>
-        <v>4.0735294117647056</v>
+        <f>(H7 / G7) * 1000</f>
+        <v>1.25</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
@@ -772,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="N7" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>(M7 / L7) * 1000</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N8" s="8"/>
     </row>
@@ -791,18 +814,18 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -862,34 +885,34 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="D13" s="7" t="e">
-        <f t="shared" ref="D13:D14" si="3">(C13 / B13) * 1000</f>
+        <f>(C13 / B13) * 1000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G13" s="5"/>
       <c r="I13" s="7" t="e">
-        <f t="shared" ref="I13:I14" si="4">(H13 / G13) * 1000</f>
+        <f>(H13 / G13) * 1000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L13" s="5"/>
       <c r="N13" s="7" t="e">
-        <f t="shared" ref="N13:N14" si="5">(M13 / L13) * 1000</f>
+        <f>(M13 / L13) * 1000</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="D14" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f>(C14 / B14) * 1000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G14" s="5"/>
       <c r="I14" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f>(H14 / G14) * 1000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L14" s="5"/>
       <c r="N14" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f>(M14 / L14) * 1000</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -986,7 +1009,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="A3" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,13 +1020,13 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Current!A1,"|",Current!A3,", ",Current!A4,", ",Current!A5,", ",Current!A6,"|",TEXT(Current!B7,"$#,##0"),"|",Current!C7,"|",CONCATENATE(ROUND(Current!D7,2),"x"),"|",Current!D8,"|")</f>
-        <v>|Toronto Blue Jays hitters (FD, DK)|Drury, McKinney, Hernandez, Smoak|$11,100|15|1.35x|Failure|</v>
+        <v>|Arizona Diamondbacks lefties (FD, DK)|Dyson, Escobar, Peralta, |$9,100|63.3|6.96x|Success|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("|",Current!F1,"|",Current!F3,", ",Current!F4,", ",Current!F5,", ",Current!F6,"|",TEXT(Current!G7,"$#,##0"),"|",Current!H7,"|",CONCATENATE(ROUND(Current!I7,2),"x"),"|",Current!I8,"|")</f>
-        <v>|Houston Astros hitters (FD, DK)|Bregman, Brantley, Correa, Gurriel|$13,600|55.4|4.07x|Success|</v>
+        <v>|Pittsburgh Pirates righties (FD, DK)|Marte, Cervelli, Bell, Cabrera|$12,000|15|1.25x|Failure|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1040,10 +1063,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,24 +1097,24 @@
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>29</v>
+      <c r="H1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>43552</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
@@ -1103,27 +1126,27 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Success")</f>
-        <v>3</v>
-      </c>
-      <c r="I2" s="14">
+        <v>6</v>
+      </c>
+      <c r="I2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Failure")</f>
-        <v>2</v>
-      </c>
-      <c r="J2" s="15">
+        <v>5</v>
+      </c>
+      <c r="J2" s="14">
         <f>H2 / (H2+I2)</f>
-        <v>0.6</v>
+        <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>43552</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
@@ -1135,27 +1158,27 @@
       <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="14">
+      <c r="G3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Success")</f>
-        <v>3</v>
-      </c>
-      <c r="I3" s="14">
+        <v>11</v>
+      </c>
+      <c r="I3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Failure")</f>
-        <v>5</v>
-      </c>
-      <c r="J3" s="15">
+        <v>10</v>
+      </c>
+      <c r="J3" s="14">
         <f>H3 / (H3+I3)</f>
-        <v>0.375</v>
+        <v>0.52380952380952384</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>43552</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
@@ -1169,10 +1192,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>43553</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
@@ -1186,10 +1209,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>43553</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
@@ -1203,10 +1226,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>43553</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
@@ -1220,10 +1243,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>43554</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
@@ -1237,10 +1260,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>43554</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
@@ -1254,14 +1277,14 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>43556</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>0.93</v>
@@ -1271,14 +1294,14 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>43556</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>3.22</v>
@@ -1288,14 +1311,14 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>43556</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>3.82</v>
@@ -1305,14 +1328,14 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>43557</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>1.35</v>
@@ -1322,20 +1345,356 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>43557</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>4.07</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>43558</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>4.24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>43558</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>1.06</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>43559</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>7.04</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>43559</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>3.88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>43559</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>5.74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>43559</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>3.54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>43560</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>7.23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>43560</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>1.89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>43561</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>3.06</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>43561</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24">
+        <v>3.81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>43563</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>6.48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>43563</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>1.38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>43564</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <v>4.33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>43564</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>1.75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>43565</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>10.37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>43565</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>1.57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>43565</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31">
+        <v>7.38</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>43566</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>43566</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33">
+        <v>1.25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>43567</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>43567</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="60">
   <si>
     <t>Player</t>
   </si>
@@ -133,37 +133,79 @@
     <t>Milwaukee Brewers lefties (FD, DK)</t>
   </si>
   <si>
+    <t>Yelich</t>
+  </si>
+  <si>
+    <t>Shaw</t>
+  </si>
+  <si>
+    <t>Moustakas</t>
+  </si>
+  <si>
     <t>Los Angeles Dodgers lefties (FD, DK)</t>
   </si>
   <si>
+    <t>Calhoun</t>
+  </si>
+  <si>
     <t>Washington Nationals lefties (FD, DK)</t>
   </si>
   <si>
     <t>Pittsburgh Pirates righties (FD, DK)</t>
   </si>
   <si>
-    <t>Marte</t>
-  </si>
-  <si>
-    <t>Cervelli</t>
-  </si>
-  <si>
-    <t>Bell</t>
-  </si>
-  <si>
-    <t>Cabrera</t>
-  </si>
-  <si>
     <t>Arizona Diamondbacks lefties (FD, DK)</t>
   </si>
   <si>
-    <t>Dyson</t>
-  </si>
-  <si>
-    <t>Escobar</t>
-  </si>
-  <si>
-    <t>Peralta</t>
+    <t>Oakland A’s righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Colorado Rockies righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Arenado</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Desmond</t>
+  </si>
+  <si>
+    <t>Baltimore Orioles lefties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Cleveland Indians hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Atlanta Braves hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>McKinney</t>
+  </si>
+  <si>
+    <t>Galvis</t>
+  </si>
+  <si>
+    <t>Grichuk</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>Trout</t>
+  </si>
+  <si>
+    <t>Simmons</t>
+  </si>
+  <si>
+    <t>Pujols</t>
+  </si>
+  <si>
+    <t>Reynolds</t>
+  </si>
+  <si>
+    <t>Thames</t>
   </si>
 </sst>
 </file>
@@ -558,7 +600,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,18 +616,20 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="F1" s="15" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="K1" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
@@ -630,126 +674,130 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5">
-        <v>2700</v>
-      </c>
-      <c r="C3">
-        <v>15.4</v>
+        <v>2200</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>5.7037037037037042</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="5">
-        <v>3400</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
+        <v>2500</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>1.7647058823529413</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="N3" s="7" t="e">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="5">
+        <v>3700</v>
+      </c>
+      <c r="N3" s="7">
         <f>(M3 / L3) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5">
-        <v>2700</v>
-      </c>
-      <c r="C4">
-        <v>31.7</v>
+        <v>3300</v>
       </c>
       <c r="D4" s="7">
         <f>(C4 / B4) * 1000</f>
-        <v>11.74074074074074</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G4" s="5">
-        <v>2500</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I4" s="7">
         <f>(H4 / G4) * 1000</f>
         <v>0</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="N4" s="7" t="e">
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="5">
+        <v>3500</v>
+      </c>
+      <c r="N4" s="7">
         <f>(M4 / L4) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5">
-        <v>3700</v>
-      </c>
-      <c r="C5">
-        <v>16.2</v>
+        <v>2600</v>
       </c>
       <c r="D5" s="7">
         <f>(C5 / B5) * 1000</f>
-        <v>4.378378378378379</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G5" s="5">
-        <v>3400</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="I5" s="7">
         <f>(H5 / G5) * 1000</f>
-        <v>1.7647058823529413</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="N5" s="7" t="e">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="5">
+        <v>2500</v>
+      </c>
+      <c r="N5" s="7">
         <f>(M5 / L5) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="D6" s="7" t="e">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D6" s="7">
         <f>(C6 / B6) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G6" s="5">
-        <v>2700</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
+        <v>3100</v>
       </c>
       <c r="I6" s="7">
         <f>(H6 / G6) * 1000</f>
-        <v>1.1111111111111112</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="N6" s="7" t="e">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="5">
+        <v>2300</v>
+      </c>
+      <c r="N6" s="7">
         <f>(M6 / L6) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -758,54 +806,50 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>9100</v>
+        <v>10600</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>63.3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
         <f>(C7 / B7) * 1000</f>
-        <v>6.9560439560439562</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>12000</v>
+        <v>13600</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
         <f>(H7 / G7) * 1000</f>
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6">
         <f>SUM(L3:L6)</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="3" t="e">
+      <c r="N7" s="3">
         <f>(M7 / L7) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="D8" s="8"/>
+      <c r="I8" s="8"/>
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -814,7 +858,9 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -866,10 +912,15 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="D12" s="7" t="e">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4800</v>
+      </c>
+      <c r="D12" s="7">
         <f>(C12 / B12) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G12" s="5"/>
       <c r="I12" s="7" t="e">
@@ -883,10 +934,15 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="D13" s="7" t="e">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D13" s="7">
         <f>(C13 / B13) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G13" s="5"/>
       <c r="I13" s="7" t="e">
@@ -900,10 +956,15 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="D14" s="7" t="e">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5">
+        <v>3900</v>
+      </c>
+      <c r="D14" s="7">
         <f>(C14 / B14) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G14" s="5"/>
       <c r="I14" s="7" t="e">
@@ -917,10 +978,15 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="D15" s="7" t="e">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2400</v>
+      </c>
+      <c r="D15" s="7">
         <f>(C15 / B15) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G15" s="5"/>
       <c r="I15" s="7" t="e">
@@ -939,15 +1005,15 @@
       </c>
       <c r="B16" s="6">
         <f>SUM(B12:B15)</f>
-        <v>0</v>
+        <v>14100</v>
       </c>
       <c r="C16" s="1">
         <f>SUM(C12:C15)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="3" t="e">
+      <c r="D16" s="3">
         <f>(C16 / B16) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>4</v>
@@ -1009,7 +1075,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A3"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,25 +1086,25 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Current!A1,"|",Current!A3,", ",Current!A4,", ",Current!A5,", ",Current!A6,"|",TEXT(Current!B7,"$#,##0"),"|",Current!C7,"|",CONCATENATE(ROUND(Current!D7,2),"x"),"|",Current!D8,"|")</f>
-        <v>|Arizona Diamondbacks lefties (FD, DK)|Dyson, Escobar, Peralta, |$9,100|63.3|6.96x|Success|</v>
+        <v>|Toronto Blue Jays hitters (FD, DK)|McKinney, Galvis, Grichuk, Hernandez|$10,600|0|0x||</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("|",Current!F1,"|",Current!F3,", ",Current!F4,", ",Current!F5,", ",Current!F6,"|",TEXT(Current!G7,"$#,##0"),"|",Current!H7,"|",CONCATENATE(ROUND(Current!I7,2),"x"),"|",Current!I8,"|")</f>
-        <v>|Pittsburgh Pirates righties (FD, DK)|Marte, Cervelli, Bell, Cabrera|$12,000|15|1.25x|Failure|</v>
+        <v>|Los Angeles Angels hitters (FD, DK)|Calhoun, Trout, Simmons, Pujols|$13,600|0|0x||</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="e">
+      <c r="A3" t="str">
         <f>CONCATENATE("|",Current!K1,"|",Current!K3,", ",Current!K4,", ",Current!K5,", ",Current!K6,"|",TEXT(Current!L7,"$#,##0"),"|",Current!M7,"|",CONCATENATE(ROUND(Current!N7,2),"x"),"|",Current!N8,"|")</f>
-        <v>#DIV/0!</v>
+        <v>|Colorado Rockies righties (FD, DK)|Arenado, Story, Reynolds, Desmond|$12,000|0|0x||</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="e">
+      <c r="A4" t="str">
         <f>CONCATENATE("|",Current!A10,"|",Current!A12,", ",Current!A13,", ",Current!A14,", ",Current!A15,"|",TEXT(Current!B16,"$#,##0"),"|",Current!C16,"|",CONCATENATE(ROUND(Current!D16,2),"x"),"|",Current!D17,"|")</f>
-        <v>#DIV/0!</v>
+        <v>|Milwaukee Brewers lefties (FD, DK)|Yelich, Shaw, Moustakas, Thames|$14,100|0|0x||</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1063,10 +1129,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,15 +1198,15 @@
       </c>
       <c r="H2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Success")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Failure")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" s="14">
         <f>H2 / (H2+I2)</f>
-        <v>0.54545454545454541</v>
+        <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1163,15 +1230,15 @@
       </c>
       <c r="H3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Success")</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Failure")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J3" s="14">
         <f>H3 / (H3+I3)</f>
-        <v>0.52380952380952384</v>
+        <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1590,7 +1657,7 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D28">
         <v>1.75</v>
@@ -1641,7 +1708,7 @@
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D31">
         <v>7.38</v>
@@ -1660,6 +1727,9 @@
       <c r="C32" t="s">
         <v>42</v>
       </c>
+      <c r="D32">
+        <v>6.96</v>
+      </c>
       <c r="E32" t="s">
         <v>14</v>
       </c>
@@ -1672,7 +1742,7 @@
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D33">
         <v>1.25</v>
@@ -1688,6 +1758,15 @@
       <c r="B34" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34">
+        <v>2.85</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
@@ -1695,6 +1774,144 @@
       </c>
       <c r="B35" s="10" t="s">
         <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35">
+        <v>4.83</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>43568</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36">
+        <v>9.85</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>43568</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>1.58</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>43568</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38">
+        <v>0.22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>43568</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39">
+        <v>5.54</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>43569</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40">
+        <v>3.97</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>43570</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>43570</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>43570</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>43570</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="54">
   <si>
     <t>Player</t>
   </si>
@@ -133,21 +133,9 @@
     <t>Milwaukee Brewers lefties (FD, DK)</t>
   </si>
   <si>
-    <t>Yelich</t>
-  </si>
-  <si>
-    <t>Shaw</t>
-  </si>
-  <si>
-    <t>Moustakas</t>
-  </si>
-  <si>
     <t>Los Angeles Dodgers lefties (FD, DK)</t>
   </si>
   <si>
-    <t>Calhoun</t>
-  </si>
-  <si>
     <t>Washington Nationals lefties (FD, DK)</t>
   </si>
   <si>
@@ -163,15 +151,6 @@
     <t>Colorado Rockies righties (FD, DK)</t>
   </si>
   <si>
-    <t>Arenado</t>
-  </si>
-  <si>
-    <t>Story</t>
-  </si>
-  <si>
-    <t>Desmond</t>
-  </si>
-  <si>
     <t>Baltimore Orioles lefties (FD, DK)</t>
   </si>
   <si>
@@ -181,31 +160,34 @@
     <t>Atlanta Braves hitters (FD, DK)</t>
   </si>
   <si>
-    <t>McKinney</t>
-  </si>
-  <si>
     <t>Galvis</t>
   </si>
   <si>
-    <t>Grichuk</t>
-  </si>
-  <si>
-    <t>Hernandez</t>
-  </si>
-  <si>
-    <t>Trout</t>
-  </si>
-  <si>
-    <t>Simmons</t>
-  </si>
-  <si>
-    <t>Pujols</t>
-  </si>
-  <si>
-    <t>Reynolds</t>
-  </si>
-  <si>
-    <t>Thames</t>
+    <t>Tampa Bay Rays hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Meadows</t>
+  </si>
+  <si>
+    <t>Pham</t>
+  </si>
+  <si>
+    <t>Choi</t>
+  </si>
+  <si>
+    <t>Lowe</t>
+  </si>
+  <si>
+    <t>Toronto Blue Jays lefties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Smoak</t>
+  </si>
+  <si>
+    <t>Tellez</t>
+  </si>
+  <si>
+    <t>Hanson</t>
   </si>
 </sst>
 </file>
@@ -600,7 +582,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D10"/>
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,20 +598,18 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="F1" s="15" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
-      <c r="K1" s="15" t="s">
-        <v>44</v>
-      </c>
+      <c r="K1" s="15"/>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
@@ -674,130 +654,110 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B3" s="5">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G3" s="5">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
         <v>0</v>
       </c>
-      <c r="K3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="5">
-        <v>3700</v>
-      </c>
-      <c r="N3" s="7">
+      <c r="L3" s="5"/>
+      <c r="N3" s="7" t="e">
         <f>(M3 / L3) * 1000</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B4" s="5">
-        <v>3300</v>
+        <v>3800</v>
       </c>
       <c r="D4" s="7">
         <f>(C4 / B4) * 1000</f>
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G4" s="5">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="I4" s="7">
         <f>(H4 / G4) * 1000</f>
         <v>0</v>
       </c>
-      <c r="K4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="5">
-        <v>3500</v>
-      </c>
-      <c r="N4" s="7">
+      <c r="L4" s="5"/>
+      <c r="N4" s="7" t="e">
         <f>(M4 / L4) * 1000</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B5" s="5">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="D5" s="7">
         <f>(C5 / B5) * 1000</f>
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G5" s="5">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="I5" s="7">
         <f>(H5 / G5) * 1000</f>
         <v>0</v>
       </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="5">
-        <v>2500</v>
-      </c>
-      <c r="N5" s="7">
+      <c r="L5" s="5"/>
+      <c r="N5" s="7" t="e">
         <f>(M5 / L5) * 1000</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="D6" s="7">
         <f>(C6 / B6) * 1000</f>
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G6" s="5">
-        <v>3100</v>
+        <v>2100</v>
       </c>
       <c r="I6" s="7">
         <f>(H6 / G6) * 1000</f>
         <v>0</v>
       </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="5">
-        <v>2300</v>
-      </c>
-      <c r="N6" s="7">
+      <c r="L6" s="5"/>
+      <c r="N6" s="7" t="e">
         <f>(M6 / L6) * 1000</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -806,7 +766,7 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>10600</v>
+        <v>14300</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
@@ -821,7 +781,7 @@
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>13600</v>
+        <v>11400</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
@@ -836,15 +796,15 @@
       </c>
       <c r="L7" s="6">
         <f>SUM(L3:L6)</f>
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="3" t="e">
         <f>(M7 / L7) * 1000</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -858,9 +818,7 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>34</v>
-      </c>
+      <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -912,15 +870,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="5">
-        <v>4800</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="B12" s="5"/>
+      <c r="D12" s="7" t="e">
         <f>(C12 / B12) * 1000</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G12" s="5"/>
       <c r="I12" s="7" t="e">
@@ -934,15 +887,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="5">
-        <v>3000</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="B13" s="5"/>
+      <c r="D13" s="7" t="e">
         <f>(C13 / B13) * 1000</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G13" s="5"/>
       <c r="I13" s="7" t="e">
@@ -956,15 +904,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="5">
-        <v>3900</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="B14" s="5"/>
+      <c r="D14" s="7" t="e">
         <f>(C14 / B14) * 1000</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G14" s="5"/>
       <c r="I14" s="7" t="e">
@@ -978,15 +921,10 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2400</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="B15" s="5"/>
+      <c r="D15" s="7" t="e">
         <f>(C15 / B15) * 1000</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G15" s="5"/>
       <c r="I15" s="7" t="e">
@@ -1005,15 +943,15 @@
       </c>
       <c r="B16" s="6">
         <f>SUM(B12:B15)</f>
-        <v>14100</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
         <f>SUM(C12:C15)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="3" t="e">
         <f>(C16 / B16) * 1000</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>4</v>
@@ -1075,7 +1013,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,25 +1024,25 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Current!A1,"|",Current!A3,", ",Current!A4,", ",Current!A5,", ",Current!A6,"|",TEXT(Current!B7,"$#,##0"),"|",Current!C7,"|",CONCATENATE(ROUND(Current!D7,2),"x"),"|",Current!D8,"|")</f>
-        <v>|Toronto Blue Jays hitters (FD, DK)|McKinney, Galvis, Grichuk, Hernandez|$10,600|0|0x||</v>
+        <v>|Tampa Bay Rays hitters (FD, DK)|Meadows, Pham, Choi, Lowe|$14,300|0|0x||</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("|",Current!F1,"|",Current!F3,", ",Current!F4,", ",Current!F5,", ",Current!F6,"|",TEXT(Current!G7,"$#,##0"),"|",Current!H7,"|",CONCATENATE(ROUND(Current!I7,2),"x"),"|",Current!I8,"|")</f>
-        <v>|Los Angeles Angels hitters (FD, DK)|Calhoun, Trout, Simmons, Pujols|$13,600|0|0x||</v>
+        <v>|Toronto Blue Jays lefties (FD, DK)|Galvis, Smoak, Tellez, Hanson|$11,400|0|0x||</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+      <c r="A3" t="e">
         <f>CONCATENATE("|",Current!K1,"|",Current!K3,", ",Current!K4,", ",Current!K5,", ",Current!K6,"|",TEXT(Current!L7,"$#,##0"),"|",Current!M7,"|",CONCATENATE(ROUND(Current!N7,2),"x"),"|",Current!N8,"|")</f>
-        <v>|Colorado Rockies righties (FD, DK)|Arenado, Story, Reynolds, Desmond|$12,000|0|0x||</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+      <c r="A4" t="e">
         <f>CONCATENATE("|",Current!A10,"|",Current!A12,", ",Current!A13,", ",Current!A14,", ",Current!A15,"|",TEXT(Current!B16,"$#,##0"),"|",Current!C16,"|",CONCATENATE(ROUND(Current!D16,2),"x"),"|",Current!D17,"|")</f>
-        <v>|Milwaukee Brewers lefties (FD, DK)|Yelich, Shaw, Moustakas, Thames|$14,100|0|0x||</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1129,7 +1067,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
@@ -1230,15 +1168,15 @@
       </c>
       <c r="H3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Success")</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Failure")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" s="14">
         <f>H3 / (H3+I3)</f>
-        <v>0.53846153846153844</v>
+        <v>0.56666666666666665</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1657,7 +1595,7 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D28">
         <v>1.75</v>
@@ -1708,7 +1646,7 @@
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D31">
         <v>7.38</v>
@@ -1725,7 +1663,7 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D32">
         <v>6.96</v>
@@ -1742,7 +1680,7 @@
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D33">
         <v>1.25</v>
@@ -1759,7 +1697,7 @@
         <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D34">
         <v>2.85</v>
@@ -1776,7 +1714,7 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D35">
         <v>4.83</v>
@@ -1793,7 +1731,7 @@
         <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D36">
         <v>9.85</v>
@@ -1827,7 +1765,7 @@
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D38">
         <v>0.22</v>
@@ -1844,7 +1782,7 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D39">
         <v>5.54</v>
@@ -1880,6 +1818,12 @@
       <c r="C41" t="s">
         <v>22</v>
       </c>
+      <c r="D41">
+        <v>5.29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
@@ -1891,6 +1835,12 @@
       <c r="C42" t="s">
         <v>27</v>
       </c>
+      <c r="D42">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
@@ -1900,7 +1850,13 @@
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="D43">
+        <v>5.73</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1912,6 +1868,34 @@
       </c>
       <c r="C44" t="s">
         <v>34</v>
+      </c>
+      <c r="D44">
+        <v>8.23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>43571</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>43571</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="61">
   <si>
     <t>Player</t>
   </si>
@@ -160,34 +160,55 @@
     <t>Atlanta Braves hitters (FD, DK)</t>
   </si>
   <si>
-    <t>Galvis</t>
+    <t>Hernandez</t>
   </si>
   <si>
     <t>Tampa Bay Rays hitters (FD, DK)</t>
   </si>
   <si>
-    <t>Meadows</t>
-  </si>
-  <si>
-    <t>Pham</t>
-  </si>
-  <si>
-    <t>Choi</t>
-  </si>
-  <si>
-    <t>Lowe</t>
-  </si>
-  <si>
     <t>Toronto Blue Jays lefties (FD, DK)</t>
   </si>
   <si>
-    <t>Smoak</t>
-  </si>
-  <si>
-    <t>Tellez</t>
-  </si>
-  <si>
-    <t>Hanson</t>
+    <t>Boston Red Sox righties (FD)</t>
+  </si>
+  <si>
+    <t>Chicago White Sox hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>San Francisco Giants lefties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Baltimore Orioles hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Pittsburgh Pirates lefties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Moran</t>
+  </si>
+  <si>
+    <t>Pittsburgh Pirates hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Failure-XXX</t>
+  </si>
+  <si>
+    <t>Freese</t>
+  </si>
+  <si>
+    <t>Pollock</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Polanco</t>
+  </si>
+  <si>
+    <t>Kang</t>
+  </si>
+  <si>
+    <t>Diaz</t>
   </si>
 </sst>
 </file>
@@ -582,7 +603,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,13 +619,13 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="F1" s="15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -654,20 +675,26 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="5">
-        <v>4200</v>
+        <v>3400</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G3" s="5">
-        <v>3400</v>
+        <v>3500</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
@@ -681,24 +708,30 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5">
-        <v>3800</v>
+        <v>2400</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" s="7">
         <f>(C4 / B4) * 1000</f>
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" s="5">
-        <v>3300</v>
+        <v>2600</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
       </c>
       <c r="I4" s="7">
         <f>(H4 / G4) * 1000</f>
-        <v>0</v>
+        <v>1.153846153846154</v>
       </c>
       <c r="L4" s="5"/>
       <c r="N4" s="7" t="e">
@@ -708,24 +741,30 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B5" s="5">
-        <v>2700</v>
+        <v>3300</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
       </c>
       <c r="D5" s="7">
         <f>(C5 / B5) * 1000</f>
-        <v>0</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G5" s="5">
-        <v>2600</v>
+        <v>2300</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
       </c>
       <c r="I5" s="7">
         <f>(H5 / G5) * 1000</f>
-        <v>0</v>
+        <v>1.3043478260869565</v>
       </c>
       <c r="L5" s="5"/>
       <c r="N5" s="7" t="e">
@@ -735,20 +774,26 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B6" s="5">
-        <v>3600</v>
+        <v>2200</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f>(C6 / B6) * 1000</f>
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G6" s="5">
-        <v>2100</v>
+        <v>2000</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
       </c>
       <c r="I6" s="7">
         <f>(H6 / G6) * 1000</f>
@@ -766,30 +811,30 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>14300</v>
+        <v>11300</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3">
         <f>(C7 / B7) * 1000</f>
-        <v>0</v>
+        <v>0.26548672566371684</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>11400</v>
+        <v>10400</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="3">
         <f>(H7 / G7) * 1000</f>
-        <v>0</v>
+        <v>0.57692307692307698</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
@@ -808,8 +853,12 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1013,7 +1062,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,13 +1073,13 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Current!A1,"|",Current!A3,", ",Current!A4,", ",Current!A5,", ",Current!A6,"|",TEXT(Current!B7,"$#,##0"),"|",Current!C7,"|",CONCATENATE(ROUND(Current!D7,2),"x"),"|",Current!D8,"|")</f>
-        <v>|Tampa Bay Rays hitters (FD, DK)|Meadows, Pham, Choi, Lowe|$14,300|0|0x||</v>
+        <v>|Los Angeles Dodgers righties (FD, DK)|Hernandez, Freese, Pollock, Taylor|$11,300|3|0.27x|Failure|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("|",Current!F1,"|",Current!F3,", ",Current!F4,", ",Current!F5,", ",Current!F6,"|",TEXT(Current!G7,"$#,##0"),"|",Current!H7,"|",CONCATENATE(ROUND(Current!I7,2),"x"),"|",Current!I8,"|")</f>
-        <v>|Toronto Blue Jays lefties (FD, DK)|Galvis, Smoak, Tellez, Hanson|$11,400|0|0x||</v>
+        <v>|Pittsburgh Pirates hitters (FD, DK)|Polanco, Moran, Kang, Diaz|$10,400|6|0.58x|Failure|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1067,11 +1116,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,15 +1185,15 @@
       </c>
       <c r="H2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Success")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Failure")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2" s="14">
         <f>H2 / (H2+I2)</f>
-        <v>0.53846153846153844</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1168,15 +1217,15 @@
       </c>
       <c r="H3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Success")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Failure")</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J3" s="14">
         <f>H3 / (H3+I3)</f>
-        <v>0.56666666666666665</v>
+        <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1886,6 +1935,12 @@
       <c r="C45" t="s">
         <v>45</v>
       </c>
+      <c r="D45">
+        <v>2.13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
@@ -1895,7 +1950,216 @@
         <v>19</v>
       </c>
       <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46">
+        <v>3.09</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>43572</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47">
+        <v>2.15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>43572</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48">
+        <v>3.85</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>43573</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49">
+        <v>0.96</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>43573</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50">
+        <v>6.73</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>43578</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51">
+        <v>1.95</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>43578</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>43578</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53">
+        <v>4.66</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>43579</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
         <v>50</v>
+      </c>
+      <c r="D54">
+        <v>1.74</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>43579</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55">
+        <v>0.91</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>43580</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>0.27</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>43580</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>43580</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>43580</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="71">
   <si>
     <t>Player</t>
   </si>
@@ -142,6 +142,9 @@
     <t>Pittsburgh Pirates righties (FD, DK)</t>
   </si>
   <si>
+    <t>Cabrera</t>
+  </si>
+  <si>
     <t>Arizona Diamondbacks lefties (FD, DK)</t>
   </si>
   <si>
@@ -160,7 +163,10 @@
     <t>Atlanta Braves hitters (FD, DK)</t>
   </si>
   <si>
-    <t>Hernandez</t>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Ramirez</t>
   </si>
   <si>
     <t>Tampa Bay Rays hitters (FD, DK)</t>
@@ -184,31 +190,55 @@
     <t>Pittsburgh Pirates lefties (FD, DK)</t>
   </si>
   <si>
-    <t>Moran</t>
-  </si>
-  <si>
     <t>Pittsburgh Pirates hitters (FD, DK)</t>
   </si>
   <si>
     <t>Failure-XXX</t>
   </si>
   <si>
-    <t>Freese</t>
-  </si>
-  <si>
-    <t>Pollock</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Polanco</t>
-  </si>
-  <si>
-    <t>Kang</t>
-  </si>
-  <si>
-    <t>Diaz</t>
+    <t>Castellanos</t>
+  </si>
+  <si>
+    <t>Minnesota Twins hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Washington Nationals righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Cincinnati Reds lefties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Milwaukee Brewers righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Cincinnati Reds hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Milwaukee Brewers hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>San Diego Padres hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Tampa Bay Rays righties (DK)</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>Cleveland Indians righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Lindor</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>Hicks</t>
   </si>
 </sst>
 </file>
@@ -603,7 +633,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,13 +649,13 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="F1" s="15" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -675,30 +705,30 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B3" s="5">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>0</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G3" s="5">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>27.9</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="L3" s="5"/>
       <c r="N3" s="7" t="e">
@@ -708,30 +738,30 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
         <f>(C4 / B4) * 1000</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2900</v>
+      </c>
+      <c r="H4">
         <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="5">
-        <v>2600</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
       </c>
       <c r="I4" s="7">
         <f>(H4 / G4) * 1000</f>
-        <v>1.153846153846154</v>
+        <v>0</v>
       </c>
       <c r="L4" s="5"/>
       <c r="N4" s="7" t="e">
@@ -741,30 +771,30 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B5" s="5">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>21.7</v>
       </c>
       <c r="D5" s="7">
         <f>(C5 / B5) * 1000</f>
-        <v>0.90909090909090906</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G5" s="5">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
         <f>(H5 / G5) * 1000</f>
-        <v>1.3043478260869565</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="L5" s="5"/>
       <c r="N5" s="7" t="e">
@@ -774,23 +804,23 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B6" s="5">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
         <f>(C6 / B6) * 1000</f>
-        <v>0</v>
+        <v>1.3043478260869565</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6" s="5">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -811,30 +841,30 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>11300</v>
+        <v>11600</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>3</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="D7" s="3">
         <f>(C7 / B7) * 1000</f>
-        <v>0.26548672566371684</v>
+        <v>2.9051724137931036</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>10400</v>
+        <v>12500</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>6</v>
+        <v>33.9</v>
       </c>
       <c r="I7" s="3">
         <f>(H7 / G7) * 1000</f>
-        <v>0.57692307692307698</v>
+        <v>2.7120000000000002</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
@@ -1073,13 +1103,13 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Current!A1,"|",Current!A3,", ",Current!A4,", ",Current!A5,", ",Current!A6,"|",TEXT(Current!B7,"$#,##0"),"|",Current!C7,"|",CONCATENATE(ROUND(Current!D7,2),"x"),"|",Current!D8,"|")</f>
-        <v>|Los Angeles Dodgers righties (FD, DK)|Hernandez, Freese, Pollock, Taylor|$11,300|3|0.27x|Failure|</v>
+        <v>|Detroit Tigers hitters (FD, DK)|Castellanos, Cabrera, Rodriguez, Hicks|$11,600|33.7|2.91x|Failure|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("|",Current!F1,"|",Current!F3,", ",Current!F4,", ",Current!F5,", ",Current!F6,"|",TEXT(Current!G7,"$#,##0"),"|",Current!H7,"|",CONCATENATE(ROUND(Current!I7,2),"x"),"|",Current!I8,"|")</f>
-        <v>|Pittsburgh Pirates hitters (FD, DK)|Polanco, Moran, Kang, Diaz|$10,400|6|0.58x|Failure|</v>
+        <v>|Cleveland Indians hitters (FD, DK)|Lindor, Martin, Ramirez, Gonzalez|$12,500|33.9|2.71x|Failure|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1116,11 +1146,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1215,7 @@
       </c>
       <c r="H2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Success")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Failure")</f>
@@ -1193,7 +1223,7 @@
       </c>
       <c r="J2" s="14">
         <f>H2 / (H2+I2)</f>
-        <v>0.53333333333333333</v>
+        <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1217,15 +1247,15 @@
       </c>
       <c r="H3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Success")</f>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Failure")</f>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J3" s="14">
         <f>H3 / (H3+I3)</f>
-        <v>0.47499999999999998</v>
+        <v>0.47368421052631576</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1712,7 +1742,7 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32">
         <v>6.96</v>
@@ -1746,7 +1776,7 @@
         <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D34">
         <v>2.85</v>
@@ -1763,7 +1793,7 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D35">
         <v>4.83</v>
@@ -1780,7 +1810,7 @@
         <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D36">
         <v>9.85</v>
@@ -1814,7 +1844,7 @@
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38">
         <v>0.22</v>
@@ -1831,7 +1861,7 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D39">
         <v>5.54</v>
@@ -1899,7 +1929,7 @@
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D43">
         <v>5.73</v>
@@ -1933,7 +1963,7 @@
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D45">
         <v>2.13</v>
@@ -1950,7 +1980,7 @@
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D46">
         <v>3.09</v>
@@ -1967,7 +1997,7 @@
         <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D47">
         <v>2.15</v>
@@ -2052,7 +2082,7 @@
         <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D52">
         <v>1.1399999999999999</v>
@@ -2069,7 +2099,7 @@
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D53">
         <v>4.66</v>
@@ -2086,7 +2116,7 @@
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D54">
         <v>1.74</v>
@@ -2103,7 +2133,7 @@
         <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D55">
         <v>0.91</v>
@@ -2137,13 +2167,13 @@
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D57">
         <v>0.57999999999999996</v>
       </c>
       <c r="E57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2153,6 +2183,15 @@
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>4.54</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
@@ -2160,6 +2199,377 @@
       </c>
       <c r="B59" s="10" t="s">
         <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59">
+        <v>4.51</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>43581</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60">
+        <v>5.99</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>43582</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61">
+        <v>8.31</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <v>43582</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62">
+        <v>2.92</v>
+      </c>
+      <c r="E62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>43582</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63">
+        <v>2.81</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>43583</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64">
+        <v>4.51</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>43583</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>43583</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66">
+        <v>4.34</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>43584</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67">
+        <v>3.78</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
+        <v>43584</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68">
+        <v>1.88</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <v>43585</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69">
+        <v>4.21</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
+        <v>43585</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="11">
+        <v>43586</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71">
+        <v>1.45</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
+        <v>43586</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72">
+        <v>3.77</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
+        <v>43586</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73">
+        <v>2.06</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
+        <v>43587</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
+        <v>43587</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75">
+        <v>3.27</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
+        <v>43587</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="11">
+        <v>43588</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
+        <v>43588</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78">
+        <v>3.59</v>
+      </c>
+      <c r="E78" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="11">
+        <v>43589</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="11">
+        <v>43589</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>2.91</v>
+      </c>
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="11">
+        <v>43589</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D81">
+        <v>2.71</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="76">
   <si>
     <t>Player</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Pittsburgh Pirates righties (FD, DK)</t>
   </si>
   <si>
-    <t>Cabrera</t>
-  </si>
-  <si>
     <t>Arizona Diamondbacks lefties (FD, DK)</t>
   </si>
   <si>
@@ -163,12 +160,6 @@
     <t>Atlanta Braves hitters (FD, DK)</t>
   </si>
   <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Ramirez</t>
-  </si>
-  <si>
     <t>Tampa Bay Rays hitters (FD, DK)</t>
   </si>
   <si>
@@ -196,15 +187,9 @@
     <t>Failure-XXX</t>
   </si>
   <si>
-    <t>Castellanos</t>
-  </si>
-  <si>
     <t>Minnesota Twins hitters (FD, DK)</t>
   </si>
   <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
     <t>Washington Nationals righties (FD, DK)</t>
   </si>
   <si>
@@ -232,13 +217,43 @@
     <t>Cleveland Indians righties (FD, DK)</t>
   </si>
   <si>
-    <t>Lindor</t>
-  </si>
-  <si>
-    <t>Rodriguez</t>
-  </si>
-  <si>
-    <t>Hicks</t>
+    <t>Gamel</t>
+  </si>
+  <si>
+    <t>Grandal</t>
+  </si>
+  <si>
+    <t>Shaw</t>
+  </si>
+  <si>
+    <t>Thames</t>
+  </si>
+  <si>
+    <t>Villar</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Los Angeles Dodgers hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Pederson</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Muncy</t>
+  </si>
+  <si>
+    <t>Taylor</t>
   </si>
 </sst>
 </file>
@@ -632,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,18 +664,20 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="F1" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="K1" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
@@ -705,56 +722,64 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B3" s="5">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>21.9</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>1.7142857142857142</v>
+        <v>9.125</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="5">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="H3">
-        <v>27.9</v>
+        <v>29.2</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>7.75</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="N3" s="7" t="e">
+        <v>8.8484848484848477</v>
+      </c>
+      <c r="K3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="5">
+        <v>3200</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
         <f>(M3 / L3) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B4" s="5">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="D4" s="7">
         <f>(C4 / B4) * 1000</f>
-        <v>1.1111111111111112</v>
+        <v>3.2758620689655173</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="G4" s="5">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -763,76 +788,101 @@
         <f>(H4 / G4) * 1000</f>
         <v>0</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="N4" s="7" t="e">
+      <c r="K4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="5">
+        <v>3100</v>
+      </c>
+      <c r="M4">
+        <v>12.2</v>
+      </c>
+      <c r="N4" s="7">
         <f>(M4 / L4) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>3.9354838709677415</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B5" s="5">
-        <v>3100</v>
+        <v>2400</v>
       </c>
       <c r="C5">
-        <v>21.7</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
         <f>(C5 / B5) * 1000</f>
-        <v>7</v>
+        <v>1.25</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="G5" s="5">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I5" s="7">
         <f>(H5 / G5) * 1000</f>
-        <v>1.7142857142857142</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="N5" s="7" t="e">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5" s="7">
         <f>(M5 / L5) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" s="7">
         <f>(C6 / B6) * 1000</f>
-        <v>1.3043478260869565</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G6" s="5">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="I6" s="7">
         <f>(H6 / G6) * 1000</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="N6" s="7" t="e">
+        <v>5.083333333333333</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="5">
+        <v>2400</v>
+      </c>
+      <c r="M6">
+        <f>12.5+9.5</f>
+        <v>22</v>
+      </c>
+      <c r="N6" s="7">
         <f>(M6 / L6) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>9.1666666666666661</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -841,53 +891,53 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>11600</v>
+        <v>10400</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>33.700000000000003</v>
+        <v>37.4</v>
       </c>
       <c r="D7" s="3">
         <f>(C7 / B7) * 1000</f>
-        <v>2.9051724137931036</v>
+        <v>3.5961538461538463</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>12500</v>
+        <v>11600</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>33.9</v>
+        <v>50.599999999999994</v>
       </c>
       <c r="I7" s="3">
         <f>(H7 / G7) * 1000</f>
-        <v>2.7120000000000002</v>
+        <v>4.3620689655172411</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6">
         <f>SUM(L3:L6)</f>
-        <v>0</v>
+        <v>11700</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="e">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="N7" s="3">
         <f>(M7 / L7) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>3.4358974358974361</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N8" s="8"/>
     </row>
@@ -1103,19 +1153,19 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Current!A1,"|",Current!A3,", ",Current!A4,", ",Current!A5,", ",Current!A6,"|",TEXT(Current!B7,"$#,##0"),"|",Current!C7,"|",CONCATENATE(ROUND(Current!D7,2),"x"),"|",Current!D8,"|")</f>
-        <v>|Detroit Tigers hitters (FD, DK)|Castellanos, Cabrera, Rodriguez, Hicks|$11,600|33.7|2.91x|Failure|</v>
+        <v>|Milwaukee Brewers lefties (FD, DK)|Gamel, Grandal, Shaw, Thames|$10,400|37.4|3.6x|Success|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("|",Current!F1,"|",Current!F3,", ",Current!F4,", ",Current!F5,", ",Current!F6,"|",TEXT(Current!G7,"$#,##0"),"|",Current!H7,"|",CONCATENATE(ROUND(Current!I7,2),"x"),"|",Current!I8,"|")</f>
-        <v>|Cleveland Indians hitters (FD, DK)|Lindor, Martin, Ramirez, Gonzalez|$12,500|33.9|2.71x|Failure|</v>
+        <v>|Baltimore Orioles lefties (FD, DK)|Villar, Smith, Ruiz, Davis|$11,600|50.6|4.36x|Success|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="e">
+      <c r="A3" t="str">
         <f>CONCATENATE("|",Current!K1,"|",Current!K3,", ",Current!K4,", ",Current!K5,", ",Current!K6,"|",TEXT(Current!L7,"$#,##0"),"|",Current!M7,"|",CONCATENATE(ROUND(Current!N7,2),"x"),"|",Current!N8,"|")</f>
-        <v>#DIV/0!</v>
+        <v>|Los Angeles Dodgers hitters (FD, DK)|Pederson, Turner, Muncy, Taylor|$11,700|40.2|3.44x||</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1146,11 +1196,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,15 +1297,15 @@
       </c>
       <c r="H3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Success")</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Failure")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" s="14">
         <f>H3 / (H3+I3)</f>
-        <v>0.47368421052631576</v>
+        <v>0.49180327868852458</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1742,7 +1792,7 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32">
         <v>6.96</v>
@@ -1776,7 +1826,7 @@
         <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34">
         <v>2.85</v>
@@ -1793,7 +1843,7 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35">
         <v>4.83</v>
@@ -1810,7 +1860,7 @@
         <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36">
         <v>9.85</v>
@@ -1844,7 +1894,7 @@
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38">
         <v>0.22</v>
@@ -1861,7 +1911,7 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39">
         <v>5.54</v>
@@ -1929,7 +1979,7 @@
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43">
         <v>5.73</v>
@@ -1963,7 +2013,7 @@
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D45">
         <v>2.13</v>
@@ -1980,7 +2030,7 @@
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D46">
         <v>3.09</v>
@@ -1997,7 +2047,7 @@
         <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D47">
         <v>2.15</v>
@@ -2082,7 +2132,7 @@
         <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D52">
         <v>1.1399999999999999</v>
@@ -2099,7 +2149,7 @@
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D53">
         <v>4.66</v>
@@ -2116,7 +2166,7 @@
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D54">
         <v>1.74</v>
@@ -2133,7 +2183,7 @@
         <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D55">
         <v>0.91</v>
@@ -2167,13 +2217,13 @@
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D57">
         <v>0.57999999999999996</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2218,7 +2268,7 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D60">
         <v>5.99</v>
@@ -2235,7 +2285,7 @@
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D61">
         <v>8.31</v>
@@ -2252,13 +2302,13 @@
         <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D62">
         <v>2.92</v>
       </c>
       <c r="E62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2269,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D63">
         <v>2.81</v>
@@ -2286,7 +2336,7 @@
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D64">
         <v>4.51</v>
@@ -2303,7 +2353,7 @@
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2320,7 +2370,7 @@
         <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D66">
         <v>4.34</v>
@@ -2337,7 +2387,7 @@
         <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D67">
         <v>3.78</v>
@@ -2354,7 +2404,7 @@
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D68">
         <v>1.88</v>
@@ -2371,7 +2421,7 @@
         <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D69">
         <v>4.21</v>
@@ -2388,7 +2438,7 @@
         <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D70">
         <v>4.1500000000000004</v>
@@ -2422,7 +2472,7 @@
         <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D72">
         <v>3.77</v>
@@ -2439,7 +2489,7 @@
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D73">
         <v>2.06</v>
@@ -2490,10 +2540,10 @@
         <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E76" t="s">
         <v>6</v>
@@ -2507,10 +2557,10 @@
         <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E77" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2521,13 +2571,13 @@
         <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D78">
         <v>3.59</v>
       </c>
       <c r="E78" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2563,13 +2613,92 @@
         <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D81">
         <v>2.71</v>
       </c>
       <c r="E81" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="11">
+        <v>43590</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82">
+        <v>4.68</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="11">
+        <v>43590</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="11">
+        <v>43591</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84">
+        <v>3.6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="11">
+        <v>43591</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="11">
+        <v>43591</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="75">
   <si>
     <t>Player</t>
   </si>
@@ -217,43 +217,40 @@
     <t>Cleveland Indians righties (FD, DK)</t>
   </si>
   <si>
-    <t>Gamel</t>
-  </si>
-  <si>
-    <t>Grandal</t>
-  </si>
-  <si>
-    <t>Shaw</t>
-  </si>
-  <si>
-    <t>Thames</t>
-  </si>
-  <si>
-    <t>Villar</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Ruiz</t>
-  </si>
-  <si>
-    <t>Davis</t>
-  </si>
-  <si>
     <t>Los Angeles Dodgers hitters (FD, DK)</t>
   </si>
   <si>
-    <t>Pederson</t>
-  </si>
-  <si>
-    <t>Turner</t>
-  </si>
-  <si>
-    <t>Muncy</t>
-  </si>
-  <si>
-    <t>Taylor</t>
+    <t>Washington Nationals hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Lindor</t>
+  </si>
+  <si>
+    <t>Kipnis</t>
+  </si>
+  <si>
+    <t>Ramirez</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>St. Louis Cardinals righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Cleveland Indians lefties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Dyson</t>
+  </si>
+  <si>
+    <t>Escobar</t>
+  </si>
+  <si>
+    <t>Peralta</t>
+  </si>
+  <si>
+    <t>Avila</t>
   </si>
 </sst>
 </file>
@@ -647,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,20 +661,18 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="F1" s="15" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
-      <c r="K1" s="15" t="s">
-        <v>71</v>
-      </c>
+      <c r="K1" s="15"/>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
@@ -722,167 +717,134 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B3" s="5">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="C3">
-        <v>21.9</v>
+        <v>24.4</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>9.125</v>
+        <v>8.7142857142857135</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G3" s="5">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="H3">
-        <v>29.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>8.8484848484848477</v>
-      </c>
-      <c r="K3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="5">
-        <v>3200</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
+        <v>9.5000000000000018</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="N3" s="7" t="e">
         <f>(M3 / L3) * 1000</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B4" s="5">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="C4">
-        <v>9.5</v>
+        <v>37.9</v>
       </c>
       <c r="D4" s="7">
         <f>(C4 / B4) * 1000</f>
-        <v>3.2758620689655173</v>
+        <v>10.243243243243242</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G4" s="5">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
         <f>(H4 / G4) * 1000</f>
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" s="5">
-        <v>3100</v>
-      </c>
-      <c r="M4">
-        <v>12.2</v>
-      </c>
-      <c r="N4" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="N4" s="7" t="e">
         <f>(M4 / L4) * 1000</f>
-        <v>3.9354838709677415</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B5" s="5">
-        <v>2400</v>
+        <v>4200</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>22.2</v>
       </c>
       <c r="D5" s="7">
         <f>(C5 / B5) * 1000</f>
-        <v>1.25</v>
+        <v>5.2857142857142856</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G5" s="5">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="H5">
-        <v>9.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
         <f>(H5 / G5) * 1000</f>
-        <v>3.833333333333333</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="5">
-        <v>3000</v>
-      </c>
-      <c r="M5">
-        <v>6</v>
-      </c>
-      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="N5" s="7" t="e">
         <f>(M5 / L5) * 1000</f>
-        <v>2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B6" s="5">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>21.7</v>
       </c>
       <c r="D6" s="7">
         <f>(C6 / B6) * 1000</f>
-        <v>1.1111111111111112</v>
+        <v>7.75</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G6" s="5">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H6">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
         <f>(H6 / G6) * 1000</f>
-        <v>5.083333333333333</v>
-      </c>
-      <c r="K6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="5">
-        <v>2400</v>
-      </c>
-      <c r="M6">
-        <f>12.5+9.5</f>
-        <v>22</v>
-      </c>
-      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="N6" s="7" t="e">
         <f>(M6 / L6) * 1000</f>
-        <v>9.1666666666666661</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -891,45 +853,45 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>10400</v>
+        <v>13500</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>37.4</v>
+        <v>106.2</v>
       </c>
       <c r="D7" s="3">
         <f>(C7 / B7) * 1000</f>
-        <v>3.5961538461538463</v>
+        <v>7.866666666666668</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>11600</v>
+        <v>12100</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>50.599999999999994</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="I7" s="3">
         <f>(H7 / G7) * 1000</f>
-        <v>4.3620689655172411</v>
+        <v>3.0743801652892566</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6">
         <f>SUM(L3:L6)</f>
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
-        <v>40.200000000000003</v>
-      </c>
-      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="e">
         <f>(M7 / L7) * 1000</f>
-        <v>3.4358974358974361</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -937,7 +899,7 @@
         <v>14</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N8" s="8"/>
     </row>
@@ -1153,19 +1115,19 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Current!A1,"|",Current!A3,", ",Current!A4,", ",Current!A5,", ",Current!A6,"|",TEXT(Current!B7,"$#,##0"),"|",Current!C7,"|",CONCATENATE(ROUND(Current!D7,2),"x"),"|",Current!D8,"|")</f>
-        <v>|Milwaukee Brewers lefties (FD, DK)|Gamel, Grandal, Shaw, Thames|$10,400|37.4|3.6x|Success|</v>
+        <v>|Arizona Diamondbacks lefties (FD, DK)|Dyson, Escobar, Peralta, Avila|$13,500|106.2|7.87x|Success|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("|",Current!F1,"|",Current!F3,", ",Current!F4,", ",Current!F5,", ",Current!F6,"|",TEXT(Current!G7,"$#,##0"),"|",Current!H7,"|",CONCATENATE(ROUND(Current!I7,2),"x"),"|",Current!I8,"|")</f>
-        <v>|Baltimore Orioles lefties (FD, DK)|Villar, Smith, Ruiz, Davis|$11,600|50.6|4.36x|Success|</v>
+        <v>|Cleveland Indians lefties (FD, DK)|Lindor, Kipnis, Ramirez, Gonzalez|$12,100|37.2|3.07x|Failure|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+      <c r="A3" t="e">
         <f>CONCATENATE("|",Current!K1,"|",Current!K3,", ",Current!K4,", ",Current!K5,", ",Current!K6,"|",TEXT(Current!L7,"$#,##0"),"|",Current!M7,"|",CONCATENATE(ROUND(Current!N7,2),"x"),"|",Current!N8,"|")</f>
-        <v>|Los Angeles Dodgers hitters (FD, DK)|Pederson, Turner, Muncy, Taylor|$11,700|40.2|3.44x||</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1196,11 +1158,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,11 +1231,11 @@
       </c>
       <c r="I2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Failure")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J2" s="14">
         <f>H2 / (H2+I2)</f>
-        <v>0.61111111111111116</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1297,15 +1259,15 @@
       </c>
       <c r="H3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Success")</f>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Failure")</f>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J3" s="14">
         <f>H3 / (H3+I3)</f>
-        <v>0.49180327868852458</v>
+        <v>0.51315789473684215</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2587,6 +2549,15 @@
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="C79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79">
+        <v>0.46</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
@@ -2698,7 +2669,276 @@
         <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="D86">
+        <v>3.69</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="11">
+        <v>43592</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87">
+        <v>0.7</v>
+      </c>
+      <c r="E87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="11">
+        <v>43592</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <v>4.79</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="11">
+        <v>43593</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89">
+        <v>5.69</v>
+      </c>
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="11">
+        <v>43593</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90">
+        <v>3.65</v>
+      </c>
+      <c r="E90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="11">
+        <v>43593</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91">
+        <v>3.69</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="11">
+        <v>43594</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92">
+        <v>4.99</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="11">
+        <v>43594</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93">
+        <v>5.49</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="11">
+        <v>43594</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" t="s">
+        <v>29</v>
+      </c>
+      <c r="D94">
+        <v>1.89</v>
+      </c>
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="11">
+        <v>43595</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95">
+        <v>4.63</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="11">
+        <v>43595</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
+        <v>53</v>
+      </c>
+      <c r="D96">
+        <v>3.07</v>
+      </c>
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="11">
+        <v>43596</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="11">
+        <v>43597</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" t="s">
+        <v>50</v>
+      </c>
+      <c r="D98">
+        <v>9.24</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="11">
+        <v>43597</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" t="s">
+        <v>69</v>
+      </c>
+      <c r="D99">
+        <v>5.34</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="11">
+        <v>43597</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" t="s">
+        <v>53</v>
+      </c>
+      <c r="D100">
+        <v>1.53</v>
+      </c>
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="11">
+        <v>43598</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101">
+        <v>7.87</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="11">
+        <v>43598</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" t="s">
+        <v>70</v>
+      </c>
+      <c r="D102">
+        <v>3.07</v>
+      </c>
+      <c r="E102" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="80">
   <si>
     <t>Player</t>
   </si>
@@ -223,34 +223,49 @@
     <t>Washington Nationals hitters (FD, DK)</t>
   </si>
   <si>
-    <t>Lindor</t>
-  </si>
-  <si>
-    <t>Kipnis</t>
-  </si>
-  <si>
-    <t>Ramirez</t>
-  </si>
-  <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
     <t>St. Louis Cardinals righties (FD, DK)</t>
   </si>
   <si>
     <t>Cleveland Indians lefties (FD, DK)</t>
   </si>
   <si>
-    <t>Dyson</t>
-  </si>
-  <si>
-    <t>Escobar</t>
-  </si>
-  <si>
-    <t>Peralta</t>
-  </si>
-  <si>
-    <t>Avila</t>
+    <t>New York Mets lefties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Texas Rangers hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>St Louis Cardinals hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Pederson</t>
+  </si>
+  <si>
+    <t>Muncy</t>
+  </si>
+  <si>
+    <t>Seager</t>
+  </si>
+  <si>
+    <t>Houston Astros righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Atlanta Braves righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>San Diego Padres righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Colorado Rockies lefties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>New York Mets hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Arizona Diamondbacks righties (FD, DK)</t>
   </si>
 </sst>
 </file>
@@ -645,7 +660,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,14 +676,12 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-      <c r="F1" s="15" t="s">
-        <v>70</v>
-      </c>
+      <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -717,30 +730,22 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="5">
-        <v>2800</v>
+        <v>3700</v>
       </c>
       <c r="C3">
-        <v>24.4</v>
+        <v>28.2</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>8.7142857142857135</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="5">
-        <v>3600</v>
-      </c>
-      <c r="H3">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="I3" s="7">
+        <v>7.6216216216216219</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="I3" s="7" t="e">
         <f>(H3 / G3) * 1000</f>
-        <v>9.5000000000000018</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L3" s="5"/>
       <c r="N3" s="7" t="e">
@@ -750,30 +755,22 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="5">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="C4">
-        <v>37.9</v>
+        <v>6.2</v>
       </c>
       <c r="D4" s="7">
         <f>(C4 / B4) * 1000</f>
-        <v>10.243243243243242</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="5">
-        <v>2500</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
+        <v>1.8235294117647058</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="I4" s="7" t="e">
         <f>(H4 / G4) * 1000</f>
-        <v>1.2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L4" s="5"/>
       <c r="N4" s="7" t="e">
@@ -783,30 +780,22 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B5" s="5">
-        <v>4200</v>
+        <v>3000</v>
       </c>
       <c r="C5">
-        <v>22.2</v>
+        <v>27.6</v>
       </c>
       <c r="D5" s="7">
         <f>(C5 / B5) * 1000</f>
-        <v>5.2857142857142856</v>
-      </c>
-      <c r="F5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="5">
-        <v>3500</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="I5" s="7" t="e">
         <f>(H5 / G5) * 1000</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L5" s="5"/>
       <c r="N5" s="7" t="e">
@@ -816,30 +805,22 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="5">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="C6">
-        <v>21.7</v>
+        <v>28.4</v>
       </c>
       <c r="D6" s="7">
         <f>(C6 / B6) * 1000</f>
-        <v>7.75</v>
-      </c>
-      <c r="F6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="5">
-        <v>2500</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
+        <v>9.1612903225806459</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="I6" s="7" t="e">
         <f>(H6 / G6) * 1000</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L6" s="5"/>
       <c r="N6" s="7" t="e">
@@ -853,30 +834,30 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>13500</v>
+        <v>13200</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>106.2</v>
+        <v>90.4</v>
       </c>
       <c r="D7" s="3">
         <f>(C7 / B7) * 1000</f>
-        <v>7.866666666666668</v>
+        <v>6.8484848484848486</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>12100</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>37.200000000000003</v>
-      </c>
-      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="e">
         <f>(H7 / G7) * 1000</f>
-        <v>3.0743801652892566</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
@@ -898,9 +879,7 @@
       <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="I8" s="8"/>
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1115,13 +1094,13 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Current!A1,"|",Current!A3,", ",Current!A4,", ",Current!A5,", ",Current!A6,"|",TEXT(Current!B7,"$#,##0"),"|",Current!C7,"|",CONCATENATE(ROUND(Current!D7,2),"x"),"|",Current!D8,"|")</f>
-        <v>|Arizona Diamondbacks lefties (FD, DK)|Dyson, Escobar, Peralta, Avila|$13,500|106.2|7.87x|Success|</v>
+        <v>|Los Angeles Dodgers hitters (FD, DK)|Pederson, Muncy, Turner, Seager|$13,200|90.4|6.85x|Success|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2" t="e">
         <f>CONCATENATE("|",Current!F1,"|",Current!F3,", ",Current!F4,", ",Current!F5,", ",Current!F6,"|",TEXT(Current!G7,"$#,##0"),"|",Current!H7,"|",CONCATENATE(ROUND(Current!I7,2),"x"),"|",Current!I8,"|")</f>
-        <v>|Cleveland Indians lefties (FD, DK)|Lindor, Kipnis, Ramirez, Gonzalez|$12,100|37.2|3.07x|Failure|</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1158,11 +1137,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
+      <pane ySplit="3" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,15 +1206,15 @@
       </c>
       <c r="H2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Success")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Failure")</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J2" s="14">
         <f>H2 / (H2+I2)</f>
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1259,15 +1238,15 @@
       </c>
       <c r="H3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Success")</f>
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Failure")</f>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J3" s="14">
         <f>H3 / (H3+I3)</f>
-        <v>0.51315789473684215</v>
+        <v>0.53921568627450978</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2855,6 +2834,15 @@
       <c r="B97" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="C97" t="s">
+        <v>53</v>
+      </c>
+      <c r="D97">
+        <v>8.08</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
@@ -2881,7 +2869,7 @@
         <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D99">
         <v>5.34</v>
@@ -2932,13 +2920,554 @@
         <v>19</v>
       </c>
       <c r="C102" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D102">
         <v>3.07</v>
       </c>
       <c r="E102" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="11">
+        <v>43599</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103">
+        <v>5.72</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="11">
+        <v>43599</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" t="s">
+        <v>67</v>
+      </c>
+      <c r="D104">
+        <v>2.41</v>
+      </c>
+      <c r="E104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="11">
+        <v>43600</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105">
+        <v>1.5</v>
+      </c>
+      <c r="E105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="11">
+        <v>43600</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="11">
+        <v>43601</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="E107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="11">
+        <v>43601</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108">
+        <v>0.98</v>
+      </c>
+      <c r="E108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="11">
+        <v>43601</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" t="s">
+        <v>32</v>
+      </c>
+      <c r="D109">
+        <v>4.33</v>
+      </c>
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="11">
+        <v>43602</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" t="s">
+        <v>69</v>
+      </c>
+      <c r="D110">
+        <v>1.74</v>
+      </c>
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="11">
+        <v>43602</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" t="s">
+        <v>30</v>
+      </c>
+      <c r="D111">
+        <v>6.46</v>
+      </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="11">
+        <v>43603</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112">
+        <v>1.02</v>
+      </c>
+      <c r="E112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="11">
+        <v>43603</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113">
+        <v>0.49</v>
+      </c>
+      <c r="E113" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="11">
+        <v>43603</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" t="s">
+        <v>75</v>
+      </c>
+      <c r="D114">
+        <v>3.4</v>
+      </c>
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="11">
+        <v>43604</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" t="s">
+        <v>39</v>
+      </c>
+      <c r="D115">
+        <v>2.73</v>
+      </c>
+      <c r="E115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="11">
+        <v>43604</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" t="s">
+        <v>69</v>
+      </c>
+      <c r="D116">
+        <v>2.85</v>
+      </c>
+      <c r="E116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="11">
+        <v>43604</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" t="s">
+        <v>42</v>
+      </c>
+      <c r="D117">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="E117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="11">
+        <v>43605</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" t="s">
+        <v>73</v>
+      </c>
+      <c r="D118">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="11">
+        <v>43605</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119">
+        <v>7.13</v>
+      </c>
+      <c r="E119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="11">
+        <v>43605</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" t="s">
+        <v>74</v>
+      </c>
+      <c r="D120">
+        <v>6.06</v>
+      </c>
+      <c r="E120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="11">
+        <v>43606</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" t="s">
+        <v>29</v>
+      </c>
+      <c r="D121">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="11">
+        <v>43606</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" t="s">
+        <v>53</v>
+      </c>
+      <c r="D122">
+        <v>6</v>
+      </c>
+      <c r="E122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="11">
+        <v>43607</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" t="s">
+        <v>32</v>
+      </c>
+      <c r="D123">
+        <v>1.41</v>
+      </c>
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="11">
+        <v>43607</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" t="s">
+        <v>76</v>
+      </c>
+      <c r="D124">
+        <v>7.35</v>
+      </c>
+      <c r="E124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="11">
+        <v>43607</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" t="s">
+        <v>29</v>
+      </c>
+      <c r="D125">
+        <v>6.09</v>
+      </c>
+      <c r="E125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="11">
+        <v>43607</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126">
+        <v>2.78</v>
+      </c>
+      <c r="E126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="11">
+        <v>43608</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127">
+        <v>4.13</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="11">
+        <v>43608</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" t="s">
+        <v>29</v>
+      </c>
+      <c r="D128">
+        <v>2.37</v>
+      </c>
+      <c r="E128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="11">
+        <v>43608</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" t="s">
+        <v>62</v>
+      </c>
+      <c r="E129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="11">
+        <v>43609</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130">
+        <v>7.29</v>
+      </c>
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="11">
+        <v>43609</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" t="s">
+        <v>78</v>
+      </c>
+      <c r="D131">
+        <v>6.92</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="11">
+        <v>43610</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" t="s">
+        <v>79</v>
+      </c>
+      <c r="D132">
+        <v>7.67</v>
+      </c>
+      <c r="E132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="11">
+        <v>43610</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" t="s">
+        <v>78</v>
+      </c>
+      <c r="D133">
+        <v>6.43</v>
+      </c>
+      <c r="E133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="11">
+        <v>43611</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134">
+        <v>6.85</v>
+      </c>
+      <c r="E134" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="90">
   <si>
     <t>Player</t>
   </si>
@@ -238,13 +238,13 @@
     <t>St Louis Cardinals hitters (FD, DK)</t>
   </si>
   <si>
-    <t>Pederson</t>
-  </si>
-  <si>
-    <t>Muncy</t>
-  </si>
-  <si>
-    <t>Seager</t>
+    <t>Carpenter</t>
+  </si>
+  <si>
+    <t>Goldschmidt</t>
+  </si>
+  <si>
+    <t>DeJong</t>
   </si>
   <si>
     <t>Houston Astros righties (FD, DK)</t>
@@ -259,13 +259,43 @@
     <t>Colorado Rockies lefties (FD, DK)</t>
   </si>
   <si>
-    <t>Turner</t>
-  </si>
-  <si>
     <t>New York Mets hitters (FD, DK)</t>
   </si>
   <si>
     <t>Arizona Diamondbacks righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Fowler</t>
+  </si>
+  <si>
+    <t>Pittsburgh Pirates hitters (FD)</t>
+  </si>
+  <si>
+    <t>Polanco</t>
+  </si>
+  <si>
+    <t>Marte</t>
+  </si>
+  <si>
+    <t>Moran</t>
+  </si>
+  <si>
+    <t>Tampa Bay Rays righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Pham</t>
+  </si>
+  <si>
+    <t>Adames</t>
+  </si>
+  <si>
+    <t>Robertson</t>
+  </si>
+  <si>
+    <t>Newman</t>
   </si>
 </sst>
 </file>
@@ -660,7 +690,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="K10" sqref="K10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,16 +706,20 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="F1" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="K1" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
@@ -730,27 +764,43 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B3" s="5">
-        <v>3700</v>
+        <v>3000</v>
       </c>
       <c r="C3">
-        <v>28.2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>7.6216216216216219</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="I3" s="7" t="e">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3400</v>
+      </c>
+      <c r="H3">
+        <v>24.9</v>
+      </c>
+      <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="N3" s="7" t="e">
+        <v>7.3235294117647056</v>
+      </c>
+      <c r="K3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2400</v>
+      </c>
+      <c r="M3">
+        <v>29.2</v>
+      </c>
+      <c r="N3" s="7">
         <f>(M3 / L3) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -758,74 +808,122 @@
         <v>71</v>
       </c>
       <c r="B4" s="5">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="C4">
-        <v>6.2</v>
+        <v>21.7</v>
       </c>
       <c r="D4" s="7">
         <f>(C4 / B4) * 1000</f>
-        <v>1.8235294117647058</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="I4" s="7" t="e">
+        <v>5.8648648648648649</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3800</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
         <f>(H4 / G4) * 1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="N4" s="7" t="e">
+        <v>1.5789473684210527</v>
+      </c>
+      <c r="K4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="5">
+        <v>3600</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
         <f>(M4 / L4) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" s="5">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="C5">
-        <v>27.6</v>
+        <v>6.2</v>
       </c>
       <c r="D5" s="7">
         <f>(C5 / B5) * 1000</f>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="I5" s="7" t="e">
+        <v>1.7222222222222223</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2600</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
         <f>(H5 / G5) * 1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="N5" s="7" t="e">
+        <v>1.153846153846154</v>
+      </c>
+      <c r="K5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="5">
+        <v>3500</v>
+      </c>
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="N5" s="7">
         <f>(M5 / L5) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>2.5714285714285712</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="5">
-        <v>3100</v>
+        <v>3600</v>
       </c>
       <c r="C6">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f>(C6 / B6) * 1000</f>
-        <v>9.1612903225806459</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="I6" s="7" t="e">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2200</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6" s="7">
         <f>(H6 / G6) * 1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="N6" s="7" t="e">
+        <v>2.7272727272727275</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="5">
+        <v>2300</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
         <f>(M6 / L6) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -834,53 +932,57 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>13200</v>
+        <v>13900</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>90.4</v>
+        <v>27.9</v>
       </c>
       <c r="D7" s="3">
         <f>(C7 / B7) * 1000</f>
-        <v>6.8484848484848486</v>
+        <v>2.0071942446043165</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="e">
+        <v>39.9</v>
+      </c>
+      <c r="I7" s="3">
         <f>(H7 / G7) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>3.3249999999999997</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6">
         <f>SUM(L3:L6)</f>
-        <v>0</v>
+        <v>11800</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="e">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="N7" s="3">
         <f>(M7 / L7) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>3.2372881355932206</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="N8" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D9" s="9"/>
@@ -1083,7 +1185,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,19 +1196,19 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Current!A1,"|",Current!A3,", ",Current!A4,", ",Current!A5,", ",Current!A6,"|",TEXT(Current!B7,"$#,##0"),"|",Current!C7,"|",CONCATENATE(ROUND(Current!D7,2),"x"),"|",Current!D8,"|")</f>
-        <v>|Los Angeles Dodgers hitters (FD, DK)|Pederson, Muncy, Turner, Seager|$13,200|90.4|6.85x|Success|</v>
+        <v>|St Louis Cardinals hitters (FD, DK)|Fowler, Goldschmidt, DeJong, Carpenter|$13,900|27.9|2.01x|Failure|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="e">
+      <c r="A2" t="str">
         <f>CONCATENATE("|",Current!F1,"|",Current!F3,", ",Current!F4,", ",Current!F5,", ",Current!F6,"|",TEXT(Current!G7,"$#,##0"),"|",Current!H7,"|",CONCATENATE(ROUND(Current!I7,2),"x"),"|",Current!I8,"|")</f>
-        <v>#DIV/0!</v>
+        <v>|Tampa Bay Rays righties (FD, DK)|Garcia, Pham, Adames, Robertson|$12,000|39.9|3.33x|Failure|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="e">
+      <c r="A3" t="str">
         <f>CONCATENATE("|",Current!K1,"|",Current!K3,", ",Current!K4,", ",Current!K5,", ",Current!K6,"|",TEXT(Current!L7,"$#,##0"),"|",Current!M7,"|",CONCATENATE(ROUND(Current!N7,2),"x"),"|",Current!N8,"|")</f>
-        <v>#DIV/0!</v>
+        <v>|Pittsburgh Pirates hitters (FD)|Newman, Polanco, Marte, Moran|$11,800|38.2|3.24x|Failure|</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1137,11 +1239,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
+      <pane ySplit="3" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E122" activeCellId="2" sqref="E130:E134 E124:E128 E119:E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,11 +1344,11 @@
       </c>
       <c r="I3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Failure")</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J3" s="14">
         <f>H3 / (H3+I3)</f>
-        <v>0.53921568627450978</v>
+        <v>0.52380952380952384</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3410,7 +3512,7 @@
         <v>19</v>
       </c>
       <c r="C131" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D131">
         <v>6.92</v>
@@ -3427,7 +3529,7 @@
         <v>19</v>
       </c>
       <c r="C132" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D132">
         <v>7.67</v>
@@ -3444,7 +3546,7 @@
         <v>19</v>
       </c>
       <c r="C133" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D133">
         <v>6.43</v>
@@ -3468,6 +3570,74 @@
       </c>
       <c r="E134" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="11">
+        <v>43612</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" t="s">
+        <v>58</v>
+      </c>
+      <c r="D135">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="11">
+        <v>43613</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" t="s">
+        <v>69</v>
+      </c>
+      <c r="D136">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="11">
+        <v>43613</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" t="s">
+        <v>84</v>
+      </c>
+      <c r="D137">
+        <v>3.33</v>
+      </c>
+      <c r="E137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="11">
+        <v>43613</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" t="s">
+        <v>80</v>
+      </c>
+      <c r="D138">
+        <v>3.24</v>
+      </c>
+      <c r="E138" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="88">
   <si>
     <t>Player</t>
   </si>
@@ -238,15 +238,6 @@
     <t>St Louis Cardinals hitters (FD, DK)</t>
   </si>
   <si>
-    <t>Carpenter</t>
-  </si>
-  <si>
-    <t>Goldschmidt</t>
-  </si>
-  <si>
-    <t>DeJong</t>
-  </si>
-  <si>
     <t>Houston Astros righties (FD, DK)</t>
   </si>
   <si>
@@ -265,37 +256,40 @@
     <t>Arizona Diamondbacks righties (FD, DK)</t>
   </si>
   <si>
-    <t>Fowler</t>
-  </si>
-  <si>
     <t>Pittsburgh Pirates hitters (FD)</t>
   </si>
   <si>
-    <t>Polanco</t>
-  </si>
-  <si>
-    <t>Marte</t>
-  </si>
-  <si>
-    <t>Moran</t>
-  </si>
-  <si>
     <t>Tampa Bay Rays righties (FD, DK)</t>
   </si>
   <si>
-    <t>Garcia</t>
-  </si>
-  <si>
-    <t>Pham</t>
-  </si>
-  <si>
-    <t>Adames</t>
-  </si>
-  <si>
-    <t>Robertson</t>
-  </si>
-  <si>
-    <t>Newman</t>
+    <t>Baltimore Orioles righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Nunez</t>
+  </si>
+  <si>
+    <t>Broxton</t>
+  </si>
+  <si>
+    <t>Stewart</t>
+  </si>
+  <si>
+    <t>Arizona Diamondbacks hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Locastro</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Cron</t>
+  </si>
+  <si>
+    <t>Vargas</t>
   </si>
 </sst>
 </file>
@@ -690,7 +684,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:N10"/>
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,20 +700,18 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="F1" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
-      <c r="K1" s="15" t="s">
-        <v>80</v>
-      </c>
+      <c r="K1" s="15"/>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
@@ -767,163 +759,131 @@
         <v>79</v>
       </c>
       <c r="B3" s="5">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2500</v>
+      </c>
+      <c r="H3">
         <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="5">
-        <v>3400</v>
-      </c>
-      <c r="H3">
-        <v>24.9</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>7.3235294117647056</v>
-      </c>
-      <c r="K3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="5">
-        <v>2400</v>
-      </c>
-      <c r="M3">
-        <v>29.2</v>
-      </c>
-      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="N3" s="7" t="e">
         <f>(M3 / L3) * 1000</f>
-        <v>12.166666666666666</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B4" s="5">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="C4">
-        <v>21.7</v>
+        <v>15.5</v>
       </c>
       <c r="D4" s="7">
         <f>(C4 / B4) * 1000</f>
-        <v>5.8648648648648649</v>
+        <v>4.4285714285714288</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="5">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>18.7</v>
       </c>
       <c r="I4" s="7">
         <f>(H4 / G4) * 1000</f>
-        <v>1.5789473684210527</v>
-      </c>
-      <c r="K4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" s="5">
-        <v>3600</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
+        <v>4.6749999999999998</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="N4" s="7" t="e">
         <f>(M4 / L4) * 1000</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B5" s="5">
-        <v>3600</v>
+        <v>2300</v>
       </c>
       <c r="C5">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f>(C5 / B5) * 1000</f>
-        <v>1.7222222222222223</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5" s="5">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>15.2</v>
       </c>
       <c r="I5" s="7">
         <f>(H5 / G5) * 1000</f>
-        <v>1.153846153846154</v>
-      </c>
-      <c r="K5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="5">
-        <v>3500</v>
-      </c>
-      <c r="M5">
-        <v>9</v>
-      </c>
-      <c r="N5" s="7">
+        <v>5.4285714285714288</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="N5" s="7" t="e">
         <f>(M5 / L5) * 1000</f>
-        <v>2.5714285714285712</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B6" s="5">
-        <v>3600</v>
+        <v>2300</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>18.7</v>
       </c>
       <c r="D6" s="7">
         <f>(C6 / B6) * 1000</f>
-        <v>0</v>
+        <v>8.1304347826086953</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" s="5">
-        <v>2200</v>
+        <v>3100</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
         <f>(H6 / G6) * 1000</f>
-        <v>2.7272727272727275</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="5">
-        <v>2300</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
+        <v>4.838709677419355</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="N6" s="7" t="e">
         <f>(M6 / L6) * 1000</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -932,45 +892,45 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>13900</v>
+        <v>10800</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>27.9</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="D7" s="3">
         <f>(C7 / B7) * 1000</f>
-        <v>2.0071942446043165</v>
+        <v>3.4444444444444446</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>39.9</v>
+        <v>48.9</v>
       </c>
       <c r="I7" s="3">
         <f>(H7 / G7) * 1000</f>
-        <v>3.3249999999999997</v>
+        <v>3.9435483870967736</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6">
         <f>SUM(L3:L6)</f>
-        <v>11800</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
-        <v>38.200000000000003</v>
-      </c>
-      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="e">
         <f>(M7 / L7) * 1000</f>
-        <v>3.2372881355932206</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -978,11 +938,9 @@
         <v>6</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>6</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D9" s="9"/>
@@ -1185,7 +1143,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,19 +1154,19 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Current!A1,"|",Current!A3,", ",Current!A4,", ",Current!A5,", ",Current!A6,"|",TEXT(Current!B7,"$#,##0"),"|",Current!C7,"|",CONCATENATE(ROUND(Current!D7,2),"x"),"|",Current!D8,"|")</f>
-        <v>|St Louis Cardinals hitters (FD, DK)|Fowler, Goldschmidt, DeJong, Carpenter|$13,900|27.9|2.01x|Failure|</v>
+        <v>|Baltimore Orioles hitters (FD, DK)|Alberto, Nunez, Stewart, Broxton|$10,800|37.2|3.44x|Failure|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("|",Current!F1,"|",Current!F3,", ",Current!F4,", ",Current!F5,", ",Current!F6,"|",TEXT(Current!G7,"$#,##0"),"|",Current!H7,"|",CONCATENATE(ROUND(Current!I7,2),"x"),"|",Current!I8,"|")</f>
-        <v>|Tampa Bay Rays righties (FD, DK)|Garcia, Pham, Adames, Robertson|$12,000|39.9|3.33x|Failure|</v>
+        <v>|Arizona Diamondbacks hitters (FD, DK)|Locastro, Jones, Cron, Vargas|$12,400|48.9|3.94x|Success|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+      <c r="A3" t="e">
         <f>CONCATENATE("|",Current!K1,"|",Current!K3,", ",Current!K4,", ",Current!K5,", ",Current!K6,"|",TEXT(Current!L7,"$#,##0"),"|",Current!M7,"|",CONCATENATE(ROUND(Current!N7,2),"x"),"|",Current!N8,"|")</f>
-        <v>|Pittsburgh Pirates hitters (FD)|Newman, Polanco, Marte, Moran|$11,800|38.2|3.24x|Failure|</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1239,11 +1197,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J138"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E122" activeCellId="2" sqref="E130:E134 E124:E128 E119:E122"/>
+      <pane ySplit="3" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,7 +1266,7 @@
       </c>
       <c r="H2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Success")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Failure")</f>
@@ -1316,7 +1274,7 @@
       </c>
       <c r="J2" s="14">
         <f>H2 / (H2+I2)</f>
-        <v>0.5</v>
+        <v>0.51851851851851849</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1340,15 +1298,15 @@
       </c>
       <c r="H3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Success")</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Failure")</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J3" s="14">
         <f>H3 / (H3+I3)</f>
-        <v>0.52380952380952384</v>
+        <v>0.52336448598130836</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3226,7 +3184,7 @@
         <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D114">
         <v>3.4</v>
@@ -3294,7 +3252,7 @@
         <v>19</v>
       </c>
       <c r="C118" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D118">
         <v>2.0099999999999998</v>
@@ -3328,7 +3286,7 @@
         <v>19</v>
       </c>
       <c r="C120" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D120">
         <v>6.06</v>
@@ -3396,7 +3354,7 @@
         <v>19</v>
       </c>
       <c r="C124" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D124">
         <v>7.35</v>
@@ -3512,7 +3470,7 @@
         <v>19</v>
       </c>
       <c r="C131" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D131">
         <v>6.92</v>
@@ -3529,7 +3487,7 @@
         <v>19</v>
       </c>
       <c r="C132" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D132">
         <v>7.67</v>
@@ -3546,7 +3504,7 @@
         <v>19</v>
       </c>
       <c r="C133" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D133">
         <v>6.43</v>
@@ -3557,16 +3515,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="11">
-        <v>43611</v>
+        <v>43610</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D134">
-        <v>6.85</v>
+        <v>5.39</v>
       </c>
       <c r="E134" t="s">
         <v>14</v>
@@ -3574,33 +3532,33 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="11">
-        <v>43612</v>
+        <v>43611</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C135" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D135">
-        <v>0.57999999999999996</v>
+        <v>6.85</v>
       </c>
       <c r="E135" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="11">
-        <v>43613</v>
+        <v>43612</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C136" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D136">
-        <v>2.0099999999999998</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E136" t="s">
         <v>6</v>
@@ -3614,10 +3572,10 @@
         <v>19</v>
       </c>
       <c r="C137" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D137">
-        <v>3.33</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="E137" t="s">
         <v>6</v>
@@ -3631,13 +3589,72 @@
         <v>19</v>
       </c>
       <c r="C138" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D138">
+        <v>3.33</v>
+      </c>
+      <c r="E138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="11">
+        <v>43613</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" t="s">
+        <v>76</v>
+      </c>
+      <c r="D139">
         <v>3.24</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E139" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="11">
+        <v>43614</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" t="s">
+        <v>49</v>
+      </c>
+      <c r="D140">
+        <v>3.44</v>
+      </c>
+      <c r="E140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="11">
+        <v>43614</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" t="s">
+        <v>83</v>
+      </c>
+      <c r="D141">
+        <v>3.94</v>
+      </c>
+      <c r="E141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="11">
+        <v>43615</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="98">
   <si>
     <t>Player</t>
   </si>
@@ -271,25 +271,55 @@
     <t>Nunez</t>
   </si>
   <si>
+    <t>Severino</t>
+  </si>
+  <si>
     <t>Broxton</t>
   </si>
   <si>
-    <t>Stewart</t>
-  </si>
-  <si>
     <t>Arizona Diamondbacks hitters (FD, DK)</t>
   </si>
   <si>
-    <t>Locastro</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Cron</t>
-  </si>
-  <si>
-    <t>Vargas</t>
+    <t>Colorado Rockies hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Colorado Rockies hitters (DK)</t>
+  </si>
+  <si>
+    <t>Diaz</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Adames</t>
+  </si>
+  <si>
+    <t>Zunino</t>
+  </si>
+  <si>
+    <t>Choo</t>
+  </si>
+  <si>
+    <t>DeShields</t>
+  </si>
+  <si>
+    <t>Cabrera</t>
+  </si>
+  <si>
+    <t>Odor</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Eaton</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Dozier (INJ)</t>
   </si>
 </sst>
 </file>
@@ -684,7 +714,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,18 +730,20 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="F1" s="15" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="K1" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
@@ -756,134 +788,166 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B3" s="5">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6.2</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>1.1111111111111112</v>
+        <v>1.8235294117647058</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G3" s="5">
         <v>2500</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="N3" s="7" t="e">
+        <v>7.3599999999999994</v>
+      </c>
+      <c r="K3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="5">
+        <v>3900</v>
+      </c>
+      <c r="M3">
+        <v>31.4</v>
+      </c>
+      <c r="N3" s="7">
         <f>(M3 / L3) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>8.0512820512820511</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B4" s="5">
         <v>3500</v>
       </c>
       <c r="C4">
-        <v>15.5</v>
+        <v>22.2</v>
       </c>
       <c r="D4" s="7">
         <f>(C4 / B4) * 1000</f>
-        <v>4.4285714285714288</v>
+        <v>6.3428571428571425</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G4" s="5">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="H4">
-        <v>18.7</v>
+        <v>6.2</v>
       </c>
       <c r="I4" s="7">
         <f>(H4 / G4) * 1000</f>
-        <v>4.6749999999999998</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="N4" s="7" t="e">
+        <v>1.7222222222222223</v>
+      </c>
+      <c r="K4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="5">
+        <v>2400</v>
+      </c>
+      <c r="M4">
+        <v>18.2</v>
+      </c>
+      <c r="N4" s="7">
         <f>(M4 / L4) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>7.583333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B5" s="5">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="D5" s="7">
         <f>(C5 / B5) * 1000</f>
-        <v>0</v>
+        <v>12.88</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G5" s="5">
         <v>2800</v>
       </c>
       <c r="H5">
-        <v>15.2</v>
+        <v>59.6</v>
       </c>
       <c r="I5" s="7">
         <f>(H5 / G5) * 1000</f>
-        <v>5.4285714285714288</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="N5" s="7" t="e">
+        <v>21.285714285714285</v>
+      </c>
+      <c r="K5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="5">
+        <v>3200</v>
+      </c>
+      <c r="M5">
+        <v>22.2</v>
+      </c>
+      <c r="N5" s="7">
         <f>(M5 / L5) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>6.9375</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B6" s="5">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="C6">
-        <v>18.7</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f>(C6 / B6) * 1000</f>
-        <v>8.1304347826086953</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G6" s="5">
-        <v>3100</v>
+        <v>2400</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>30.9</v>
       </c>
       <c r="I6" s="7">
         <f>(H6 / G6) * 1000</f>
-        <v>4.838709677419355</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="N6" s="7" t="e">
+        <v>12.875</v>
+      </c>
+      <c r="K6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="5">
+        <v>2600</v>
+      </c>
+      <c r="M6">
+        <v>12.9</v>
+      </c>
+      <c r="N6" s="7">
         <f>(M6 / L6) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>4.9615384615384617</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -892,55 +956,57 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>10800</v>
+        <v>11900</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>37.200000000000003</v>
+        <v>60.6</v>
       </c>
       <c r="D7" s="3">
         <f>(C7 / B7) * 1000</f>
-        <v>3.4444444444444446</v>
+        <v>5.0924369747899156</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>12400</v>
+        <v>11300</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>48.9</v>
+        <v>115.1</v>
       </c>
       <c r="I7" s="3">
         <f>(H7 / G7) * 1000</f>
-        <v>3.9435483870967736</v>
+        <v>10.185840707964601</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6">
         <f>SUM(L3:L6)</f>
-        <v>0</v>
+        <v>12100</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="e">
+        <v>84.7</v>
+      </c>
+      <c r="N7" s="3">
         <f>(M7 / L7) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="8"/>
+      <c r="N8" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D9" s="9"/>
@@ -948,7 +1014,9 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -1000,10 +1068,18 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="D12" s="7" t="e">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3800</v>
+      </c>
+      <c r="C12">
+        <v>15.4</v>
+      </c>
+      <c r="D12" s="7">
         <f>(C12 / B12) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>4.0526315789473681</v>
       </c>
       <c r="G12" s="5"/>
       <c r="I12" s="7" t="e">
@@ -1017,10 +1093,18 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="D13" s="7" t="e">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3100</v>
+      </c>
+      <c r="C13">
+        <v>15.4</v>
+      </c>
+      <c r="D13" s="7">
         <f>(C13 / B13) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>4.967741935483871</v>
       </c>
       <c r="G13" s="5"/>
       <c r="I13" s="7" t="e">
@@ -1034,10 +1118,18 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="D14" s="7" t="e">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="5">
+        <v>3000</v>
+      </c>
+      <c r="C14">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D14" s="7">
         <f>(C14 / B14) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>3.0666666666666664</v>
       </c>
       <c r="G14" s="5"/>
       <c r="I14" s="7" t="e">
@@ -1051,10 +1143,18 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="D15" s="7" t="e">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2800</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7">
         <f>(C15 / B15) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>1.0714285714285714</v>
       </c>
       <c r="G15" s="5"/>
       <c r="I15" s="7" t="e">
@@ -1073,15 +1173,15 @@
       </c>
       <c r="B16" s="6">
         <f>SUM(B12:B15)</f>
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="C16" s="1">
         <f>SUM(C12:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="3" t="e">
+        <v>43</v>
+      </c>
+      <c r="D16" s="3">
         <f>(C16 / B16) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>3.3858267716535435</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>4</v>
@@ -1115,7 +1215,9 @@
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I17" s="8"/>
       <c r="N17" s="8"/>
     </row>
@@ -1143,7 +1245,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,25 +1256,25 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Current!A1,"|",Current!A3,", ",Current!A4,", ",Current!A5,", ",Current!A6,"|",TEXT(Current!B7,"$#,##0"),"|",Current!C7,"|",CONCATENATE(ROUND(Current!D7,2),"x"),"|",Current!D8,"|")</f>
-        <v>|Baltimore Orioles hitters (FD, DK)|Alberto, Nunez, Stewart, Broxton|$10,800|37.2|3.44x|Failure|</v>
+        <v>|Tampa Bay Rays hitters (FD, DK)|Diaz, Garcia, Adames, Zunino|$11,900|60.6|5.09x|Success|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("|",Current!F1,"|",Current!F3,", ",Current!F4,", ",Current!F5,", ",Current!F6,"|",TEXT(Current!G7,"$#,##0"),"|",Current!H7,"|",CONCATENATE(ROUND(Current!I7,2),"x"),"|",Current!I8,"|")</f>
-        <v>|Arizona Diamondbacks hitters (FD, DK)|Locastro, Jones, Cron, Vargas|$12,400|48.9|3.94x|Success|</v>
+        <v>|Baltimore Orioles hitters (FD, DK)|Alberto, Nunez, Severino, Broxton|$11,300|115.1|10.19x|Success|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="e">
+      <c r="A3" t="str">
         <f>CONCATENATE("|",Current!K1,"|",Current!K3,", ",Current!K4,", ",Current!K5,", ",Current!K6,"|",TEXT(Current!L7,"$#,##0"),"|",Current!M7,"|",CONCATENATE(ROUND(Current!N7,2),"x"),"|",Current!N8,"|")</f>
-        <v>#DIV/0!</v>
+        <v>|Texas Rangers hitters (FD, DK)|Choo, DeShields, Cabrera, Odor|$12,100|84.7|7x|Success|</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="e">
+      <c r="A4" t="str">
         <f>CONCATENATE("|",Current!A10,"|",Current!A12,", ",Current!A13,", ",Current!A14,", ",Current!A15,"|",TEXT(Current!B16,"$#,##0"),"|",Current!C16,"|",CONCATENATE(ROUND(Current!D16,2),"x"),"|",Current!D17,"|")</f>
-        <v>#DIV/0!</v>
+        <v>|Washington Nationals hitters (FD, DK)|Turner, Eaton, Adams, Dozier (INJ)|$12,700|43|3.39x|Failure|</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1197,11 +1299,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J142"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
+      <pane ySplit="3" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,11 +1372,11 @@
       </c>
       <c r="I2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Failure")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="14">
         <f>H2 / (H2+I2)</f>
-        <v>0.51851851851851849</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1298,15 +1400,15 @@
       </c>
       <c r="H3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Success")</f>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Failure")</f>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J3" s="14">
         <f>H3 / (H3+I3)</f>
-        <v>0.52336448598130836</v>
+        <v>0.52542372881355937</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3655,6 +3757,210 @@
       </c>
       <c r="B142" s="10" t="s">
         <v>16</v>
+      </c>
+      <c r="C142" t="s">
+        <v>42</v>
+      </c>
+      <c r="D142">
+        <v>3.34</v>
+      </c>
+      <c r="E142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="11">
+        <v>43616</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" t="s">
+        <v>42</v>
+      </c>
+      <c r="D143">
+        <v>3.07</v>
+      </c>
+      <c r="E143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="11">
+        <v>43616</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144">
+        <v>0.46</v>
+      </c>
+      <c r="E144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="11">
+        <v>43616</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" t="s">
+        <v>27</v>
+      </c>
+      <c r="D145">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="11">
+        <v>43616</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" t="s">
+        <v>84</v>
+      </c>
+      <c r="D146">
+        <v>9.08</v>
+      </c>
+      <c r="E146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="11">
+        <v>43617</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="11">
+        <v>43618</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" t="s">
+        <v>85</v>
+      </c>
+      <c r="D148">
+        <v>2.46</v>
+      </c>
+      <c r="E148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="11">
+        <v>43618</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149">
+        <v>0.27</v>
+      </c>
+      <c r="E149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="11">
+        <v>43619</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" t="s">
+        <v>21</v>
+      </c>
+      <c r="D150">
+        <v>3.74</v>
+      </c>
+      <c r="E150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="11">
+        <v>43620</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" t="s">
+        <v>44</v>
+      </c>
+      <c r="D151">
+        <v>5.09</v>
+      </c>
+      <c r="E151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="11">
+        <v>43620</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" t="s">
+        <v>49</v>
+      </c>
+      <c r="D152">
+        <v>10.19</v>
+      </c>
+      <c r="E152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="11">
+        <v>43620</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153">
+        <v>7</v>
+      </c>
+      <c r="E153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="11">
+        <v>43620</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" t="s">
+        <v>64</v>
+      </c>
+      <c r="D154">
+        <v>3.39</v>
+      </c>
+      <c r="E154" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="90">
   <si>
     <t>Player</t>
   </si>
@@ -265,61 +265,37 @@
     <t>Baltimore Orioles righties (FD, DK)</t>
   </si>
   <si>
-    <t>Alberto</t>
+    <t>Arizona Diamondbacks hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Colorado Rockies hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Colorado Rockies hitters (DK)</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>Guerrero</t>
+  </si>
+  <si>
+    <t>Gurriel</t>
+  </si>
+  <si>
+    <t>Grichuk</t>
+  </si>
+  <si>
+    <t>Santander</t>
+  </si>
+  <si>
+    <t>Villar</t>
+  </si>
+  <si>
+    <t>Mancini</t>
   </si>
   <si>
     <t>Nunez</t>
-  </si>
-  <si>
-    <t>Severino</t>
-  </si>
-  <si>
-    <t>Broxton</t>
-  </si>
-  <si>
-    <t>Arizona Diamondbacks hitters (FD, DK)</t>
-  </si>
-  <si>
-    <t>Colorado Rockies hitters (FD, DK)</t>
-  </si>
-  <si>
-    <t>Colorado Rockies hitters (DK)</t>
-  </si>
-  <si>
-    <t>Diaz</t>
-  </si>
-  <si>
-    <t>Garcia</t>
-  </si>
-  <si>
-    <t>Adames</t>
-  </si>
-  <si>
-    <t>Zunino</t>
-  </si>
-  <si>
-    <t>Choo</t>
-  </si>
-  <si>
-    <t>DeShields</t>
-  </si>
-  <si>
-    <t>Cabrera</t>
-  </si>
-  <si>
-    <t>Odor</t>
-  </si>
-  <si>
-    <t>Turner</t>
-  </si>
-  <si>
-    <t>Eaton</t>
-  </si>
-  <si>
-    <t>Adams</t>
-  </si>
-  <si>
-    <t>Dozier (INJ)</t>
   </si>
 </sst>
 </file>
@@ -714,7 +690,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +706,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -741,9 +717,7 @@
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
-      <c r="K1" s="15" t="s">
-        <v>68</v>
-      </c>
+      <c r="K1" s="15"/>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
@@ -788,166 +762,134 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" s="5">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="C3">
-        <v>6.2</v>
+        <v>21.9</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>1.8235294117647058</v>
+        <v>7.064516129032258</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G3" s="5">
-        <v>2500</v>
+        <v>3100</v>
       </c>
       <c r="H3">
-        <v>18.399999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>7.3599999999999994</v>
-      </c>
-      <c r="K3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L3" s="5">
-        <v>3900</v>
-      </c>
-      <c r="M3">
-        <v>31.4</v>
-      </c>
-      <c r="N3" s="7">
+        <v>3.9354838709677415</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="N3" s="7" t="e">
         <f>(M3 / L3) * 1000</f>
-        <v>8.0512820512820511</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="5">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="C4">
-        <v>22.2</v>
+        <v>19.2</v>
       </c>
       <c r="D4" s="7">
         <f>(C4 / B4) * 1000</f>
-        <v>6.3428571428571425</v>
+        <v>6.8571428571428568</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G4" s="5">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="H4">
         <v>6.2</v>
       </c>
       <c r="I4" s="7">
         <f>(H4 / G4) * 1000</f>
-        <v>1.7222222222222223</v>
-      </c>
-      <c r="K4" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="5">
-        <v>2400</v>
-      </c>
-      <c r="M4">
-        <v>18.2</v>
-      </c>
-      <c r="N4" s="7">
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="N4" s="7" t="e">
         <f>(M4 / L4) * 1000</f>
-        <v>7.583333333333333</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="5">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="C5">
-        <v>32.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f>(C5 / B5) * 1000</f>
-        <v>12.88</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G5" s="5">
-        <v>2800</v>
+        <v>3700</v>
       </c>
       <c r="H5">
-        <v>59.6</v>
+        <v>33.9</v>
       </c>
       <c r="I5" s="7">
         <f>(H5 / G5) * 1000</f>
-        <v>21.285714285714285</v>
-      </c>
-      <c r="K5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="5">
-        <v>3200</v>
-      </c>
-      <c r="M5">
-        <v>22.2</v>
-      </c>
-      <c r="N5" s="7">
+        <v>9.1621621621621614</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="N5" s="7" t="e">
         <f>(M5 / L5) * 1000</f>
-        <v>6.9375</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B6" s="5">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
         <f>(C6 / B6) * 1000</f>
-        <v>0</v>
+        <v>3.4615384615384617</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G6" s="5">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="H6">
-        <v>30.9</v>
+        <v>3.5</v>
       </c>
       <c r="I6" s="7">
         <f>(H6 / G6) * 1000</f>
-        <v>12.875</v>
-      </c>
-      <c r="K6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L6" s="5">
-        <v>2600</v>
-      </c>
-      <c r="M6">
-        <v>12.9</v>
-      </c>
-      <c r="N6" s="7">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="N6" s="7" t="e">
         <f>(M6 / L6) * 1000</f>
-        <v>4.9615384615384617</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -956,45 +898,45 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>11900</v>
+        <v>11400</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>60.6</v>
+        <v>50.099999999999994</v>
       </c>
       <c r="D7" s="3">
         <f>(C7 / B7) * 1000</f>
-        <v>5.0924369747899156</v>
+        <v>4.3947368421052628</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>11300</v>
+        <v>12200</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>115.1</v>
+        <v>55.8</v>
       </c>
       <c r="I7" s="3">
         <f>(H7 / G7) * 1000</f>
-        <v>10.185840707964601</v>
+        <v>4.5737704918032787</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6">
         <f>SUM(L3:L6)</f>
-        <v>12100</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(M3:M6)</f>
-        <v>84.7</v>
-      </c>
-      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="e">
         <f>(M7 / L7) * 1000</f>
-        <v>7</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1004,9 +946,7 @@
       <c r="I8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D9" s="9"/>
@@ -1014,9 +954,7 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -1068,18 +1006,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="5">
-        <v>3800</v>
-      </c>
-      <c r="C12">
-        <v>15.4</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="B12" s="5"/>
+      <c r="D12" s="7" t="e">
         <f>(C12 / B12) * 1000</f>
-        <v>4.0526315789473681</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G12" s="5"/>
       <c r="I12" s="7" t="e">
@@ -1093,18 +1023,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="5">
-        <v>3100</v>
-      </c>
-      <c r="C13">
-        <v>15.4</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="B13" s="5"/>
+      <c r="D13" s="7" t="e">
         <f>(C13 / B13) * 1000</f>
-        <v>4.967741935483871</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G13" s="5"/>
       <c r="I13" s="7" t="e">
@@ -1118,18 +1040,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="5">
-        <v>3000</v>
-      </c>
-      <c r="C14">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="B14" s="5"/>
+      <c r="D14" s="7" t="e">
         <f>(C14 / B14) * 1000</f>
-        <v>3.0666666666666664</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G14" s="5"/>
       <c r="I14" s="7" t="e">
@@ -1143,18 +1057,10 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2800</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="B15" s="5"/>
+      <c r="D15" s="7" t="e">
         <f>(C15 / B15) * 1000</f>
-        <v>1.0714285714285714</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G15" s="5"/>
       <c r="I15" s="7" t="e">
@@ -1173,15 +1079,15 @@
       </c>
       <c r="B16" s="6">
         <f>SUM(B12:B15)</f>
-        <v>12700</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
         <f>SUM(C12:C15)</f>
-        <v>43</v>
-      </c>
-      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="e">
         <f>(C16 / B16) * 1000</f>
-        <v>3.3858267716535435</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>4</v>
@@ -1215,9 +1121,7 @@
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="D17" s="8"/>
       <c r="I17" s="8"/>
       <c r="N17" s="8"/>
     </row>
@@ -1245,7 +1149,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,25 +1160,25 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Current!A1,"|",Current!A3,", ",Current!A4,", ",Current!A5,", ",Current!A6,"|",TEXT(Current!B7,"$#,##0"),"|",Current!C7,"|",CONCATENATE(ROUND(Current!D7,2),"x"),"|",Current!D8,"|")</f>
-        <v>|Tampa Bay Rays hitters (FD, DK)|Diaz, Garcia, Adames, Zunino|$11,900|60.6|5.09x|Success|</v>
+        <v>|Toronto Blue Jays hitters (FD, DK)|Guerrero, Gurriel, Grichuk, Hernandez|$11,400|50.1|4.39x|Success|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("|",Current!F1,"|",Current!F3,", ",Current!F4,", ",Current!F5,", ",Current!F6,"|",TEXT(Current!G7,"$#,##0"),"|",Current!H7,"|",CONCATENATE(ROUND(Current!I7,2),"x"),"|",Current!I8,"|")</f>
-        <v>|Baltimore Orioles hitters (FD, DK)|Alberto, Nunez, Severino, Broxton|$11,300|115.1|10.19x|Success|</v>
+        <v>|Baltimore Orioles hitters (FD, DK)|Villar, Santander, Mancini, Nunez|$12,200|55.8|4.57x|Success|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+      <c r="A3" t="e">
         <f>CONCATENATE("|",Current!K1,"|",Current!K3,", ",Current!K4,", ",Current!K5,", ",Current!K6,"|",TEXT(Current!L7,"$#,##0"),"|",Current!M7,"|",CONCATENATE(ROUND(Current!N7,2),"x"),"|",Current!N8,"|")</f>
-        <v>|Texas Rangers hitters (FD, DK)|Choo, DeShields, Cabrera, Odor|$12,100|84.7|7x|Success|</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+      <c r="A4" t="e">
         <f>CONCATENATE("|",Current!A10,"|",Current!A12,", ",Current!A13,", ",Current!A14,", ",Current!A15,"|",TEXT(Current!B16,"$#,##0"),"|",Current!C16,"|",CONCATENATE(ROUND(Current!D16,2),"x"),"|",Current!D17,"|")</f>
-        <v>|Washington Nationals hitters (FD, DK)|Turner, Eaton, Adams, Dozier (INJ)|$12,700|43|3.39x|Failure|</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1299,11 +1203,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J154"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G146" sqref="G146"/>
+      <pane ySplit="3" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1272,7 @@
       </c>
       <c r="H2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Success")</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Failure")</f>
@@ -1376,7 +1280,7 @@
       </c>
       <c r="J2" s="14">
         <f>H2 / (H2+I2)</f>
-        <v>0.5</v>
+        <v>0.54838709677419351</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1400,15 +1304,15 @@
       </c>
       <c r="H3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Success")</f>
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Failure")</f>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J3" s="14">
         <f>H3 / (H3+I3)</f>
-        <v>0.52542372881355937</v>
+        <v>0.54263565891472865</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3742,7 +3646,7 @@
         <v>19</v>
       </c>
       <c r="C141" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D141">
         <v>3.94</v>
@@ -3827,7 +3731,7 @@
         <v>19</v>
       </c>
       <c r="C146" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D146">
         <v>9.08</v>
@@ -3843,6 +3747,15 @@
       <c r="B147" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="C147" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147">
+        <v>5.94</v>
+      </c>
+      <c r="E147" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="11">
@@ -3852,7 +3765,7 @@
         <v>19</v>
       </c>
       <c r="C148" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D148">
         <v>2.46</v>
@@ -3961,6 +3874,227 @@
       </c>
       <c r="E154" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="11">
+        <v>43621</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" t="s">
+        <v>74</v>
+      </c>
+      <c r="D155">
+        <v>4.58</v>
+      </c>
+      <c r="E155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="11">
+        <v>43622</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156" t="s">
+        <v>29</v>
+      </c>
+      <c r="D156">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="E156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="11">
+        <v>43623</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" t="s">
+        <v>58</v>
+      </c>
+      <c r="D157">
+        <v>6.16</v>
+      </c>
+      <c r="E157" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="11">
+        <v>43623</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158">
+        <v>1.9</v>
+      </c>
+      <c r="E158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="11">
+        <v>43624</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" t="s">
+        <v>32</v>
+      </c>
+      <c r="D159">
+        <v>4.54</v>
+      </c>
+      <c r="E159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="11">
+        <v>43625</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" t="s">
+        <v>53</v>
+      </c>
+      <c r="D160">
+        <v>7.1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="11">
+        <v>43625</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" t="s">
+        <v>56</v>
+      </c>
+      <c r="D161">
+        <v>3.28</v>
+      </c>
+      <c r="E161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="11">
+        <v>43626</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" t="s">
+        <v>44</v>
+      </c>
+      <c r="D162">
+        <v>4.54</v>
+      </c>
+      <c r="E162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="11">
+        <v>43626</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" t="s">
+        <v>64</v>
+      </c>
+      <c r="D163">
+        <v>6.35</v>
+      </c>
+      <c r="E163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="11">
+        <v>43627</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" t="s">
+        <v>64</v>
+      </c>
+      <c r="D164">
+        <v>5.5</v>
+      </c>
+      <c r="E164" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="11">
+        <v>43627</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" t="s">
+        <v>59</v>
+      </c>
+      <c r="D165">
+        <v>2.82</v>
+      </c>
+      <c r="E165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="11">
+        <v>43628</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D166">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="E166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="11">
+        <v>43628</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" t="s">
+        <v>49</v>
+      </c>
+      <c r="D167">
+        <v>4.57</v>
+      </c>
+      <c r="E167" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="91">
   <si>
     <t>Player</t>
   </si>
@@ -274,28 +274,31 @@
     <t>Colorado Rockies hitters (DK)</t>
   </si>
   <si>
-    <t>Hernandez</t>
-  </si>
-  <si>
-    <t>Guerrero</t>
-  </si>
-  <si>
-    <t>Gurriel</t>
-  </si>
-  <si>
-    <t>Grichuk</t>
-  </si>
-  <si>
-    <t>Santander</t>
-  </si>
-  <si>
-    <t>Villar</t>
-  </si>
-  <si>
-    <t>Mancini</t>
-  </si>
-  <si>
-    <t>Nunez</t>
+    <t>Choo</t>
+  </si>
+  <si>
+    <t>Mazara</t>
+  </si>
+  <si>
+    <t>Cabrera</t>
+  </si>
+  <si>
+    <t>Santana</t>
+  </si>
+  <si>
+    <t>San Francisco Giants hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Panik</t>
+  </si>
+  <si>
+    <t>Yastrzemski</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>Vogt</t>
   </si>
 </sst>
 </file>
@@ -690,7 +693,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,13 +709,13 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="F1" s="15" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -762,30 +765,30 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="5">
-        <v>3100</v>
+        <v>3700</v>
       </c>
       <c r="C3">
-        <v>21.9</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>7.064516129032258</v>
+        <v>5.6756756756756754</v>
       </c>
       <c r="F3" t="s">
         <v>87</v>
       </c>
       <c r="G3" s="5">
-        <v>3100</v>
+        <v>2500</v>
       </c>
       <c r="H3">
-        <v>12.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>3.9354838709677415</v>
+        <v>3.6799999999999997</v>
       </c>
       <c r="L3" s="5"/>
       <c r="N3" s="7" t="e">
@@ -795,30 +798,30 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" s="5">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="C4">
-        <v>19.2</v>
+        <v>6.5</v>
       </c>
       <c r="D4" s="7">
         <f>(C4 / B4) * 1000</f>
-        <v>6.8571428571428568</v>
+        <v>2.2413793103448274</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G4" s="5">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="H4">
         <v>6.2</v>
       </c>
       <c r="I4" s="7">
         <f>(H4 / G4) * 1000</f>
-        <v>2.5833333333333335</v>
+        <v>2.2962962962962963</v>
       </c>
       <c r="L4" s="5"/>
       <c r="N4" s="7" t="e">
@@ -828,30 +831,30 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="5">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="D5" s="7">
         <f>(C5 / B5) * 1000</f>
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G5" s="5">
-        <v>3700</v>
+        <v>2800</v>
       </c>
       <c r="H5">
-        <v>33.9</v>
+        <v>15.6</v>
       </c>
       <c r="I5" s="7">
         <f>(H5 / G5) * 1000</f>
-        <v>9.1621621621621614</v>
+        <v>5.5714285714285712</v>
       </c>
       <c r="L5" s="5"/>
       <c r="N5" s="7" t="e">
@@ -861,30 +864,30 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B6" s="5">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f>(C6 / B6) * 1000</f>
-        <v>3.4615384615384617</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G6" s="5">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="H6">
-        <v>3.5</v>
+        <v>18.7</v>
       </c>
       <c r="I6" s="7">
         <f>(H6 / G6) * 1000</f>
-        <v>1.1666666666666667</v>
+        <v>8.1304347826086953</v>
       </c>
       <c r="L6" s="5"/>
       <c r="N6" s="7" t="e">
@@ -898,30 +901,30 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>11400</v>
+        <v>12500</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>50.099999999999994</v>
+        <v>52.7</v>
       </c>
       <c r="D7" s="3">
         <f>(C7 / B7) * 1000</f>
-        <v>4.3947368421052628</v>
+        <v>4.2160000000000002</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>12200</v>
+        <v>10300</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>55.8</v>
+        <v>49.7</v>
       </c>
       <c r="I7" s="3">
         <f>(H7 / G7) * 1000</f>
-        <v>4.5737704918032787</v>
+        <v>4.825242718446602</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
@@ -1148,9 +1151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1160,13 +1161,13 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Current!A1,"|",Current!A3,", ",Current!A4,", ",Current!A5,", ",Current!A6,"|",TEXT(Current!B7,"$#,##0"),"|",Current!C7,"|",CONCATENATE(ROUND(Current!D7,2),"x"),"|",Current!D8,"|")</f>
-        <v>|Toronto Blue Jays hitters (FD, DK)|Guerrero, Gurriel, Grichuk, Hernandez|$11,400|50.1|4.39x|Success|</v>
+        <v>|Texas Rangers hitters (FD, DK)|Choo, Santana, Mazara, Cabrera|$12,500|52.7|4.22x|Success|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("|",Current!F1,"|",Current!F3,", ",Current!F4,", ",Current!F5,", ",Current!F6,"|",TEXT(Current!G7,"$#,##0"),"|",Current!H7,"|",CONCATENATE(ROUND(Current!I7,2),"x"),"|",Current!I8,"|")</f>
-        <v>|Baltimore Orioles hitters (FD, DK)|Villar, Santander, Mancini, Nunez|$12,200|55.8|4.57x|Success|</v>
+        <v>|San Francisco Giants hitters (FD, DK)|Panik, Yastrzemski, Belt, Vogt|$10,300|49.7|4.83x|Success|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1203,11 +1204,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J167"/>
+  <dimension ref="A1:J182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F167" sqref="F167"/>
+      <pane ySplit="3" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F182" sqref="F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,11 +1277,11 @@
       </c>
       <c r="I2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Failure")</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J2" s="14">
         <f>H2 / (H2+I2)</f>
-        <v>0.54838709677419351</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1304,15 +1305,15 @@
       </c>
       <c r="H3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Success")</f>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Failure")</f>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J3" s="14">
         <f>H3 / (H3+I3)</f>
-        <v>0.54263565891472865</v>
+        <v>0.56028368794326244</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4094,6 +4095,261 @@
         <v>4.57</v>
       </c>
       <c r="E167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="11">
+        <v>43629</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C168" t="s">
+        <v>29</v>
+      </c>
+      <c r="D168">
+        <v>1.3</v>
+      </c>
+      <c r="E168" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="11">
+        <v>43630</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" t="s">
+        <v>72</v>
+      </c>
+      <c r="D169">
+        <v>7.83</v>
+      </c>
+      <c r="E169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="11">
+        <v>43630</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170">
+        <v>9.41</v>
+      </c>
+      <c r="E170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="11">
+        <v>43631</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C171" t="s">
+        <v>30</v>
+      </c>
+      <c r="D171">
+        <v>3.22</v>
+      </c>
+      <c r="E171" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="11">
+        <v>43633</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C172" t="s">
+        <v>27</v>
+      </c>
+      <c r="D172">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="11">
+        <v>43633</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C173" t="s">
+        <v>35</v>
+      </c>
+      <c r="D173">
+        <v>2.83</v>
+      </c>
+      <c r="E173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="11">
+        <v>43634</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C174" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174">
+        <v>2.25</v>
+      </c>
+      <c r="E174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="11">
+        <v>43634</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175" t="s">
+        <v>30</v>
+      </c>
+      <c r="D175">
+        <v>8.02</v>
+      </c>
+      <c r="E175" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="11">
+        <v>43635</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C176" t="s">
+        <v>27</v>
+      </c>
+      <c r="D176">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="E176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="11">
+        <v>43635</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177">
+        <v>3.95</v>
+      </c>
+      <c r="E177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="11">
+        <v>43635</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C178" t="s">
+        <v>51</v>
+      </c>
+      <c r="D178">
+        <v>5.41</v>
+      </c>
+      <c r="E178" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="11">
+        <v>43635</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C179" t="s">
+        <v>20</v>
+      </c>
+      <c r="D179">
+        <v>6</v>
+      </c>
+      <c r="E179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="11">
+        <v>43636</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C180" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180">
+        <v>3.01</v>
+      </c>
+      <c r="E180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="11">
+        <v>43637</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181">
+        <v>4.22</v>
+      </c>
+      <c r="E181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="11">
+        <v>43637</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C182" t="s">
+        <v>86</v>
+      </c>
+      <c r="D182">
+        <v>4.83</v>
+      </c>
+      <c r="E182" t="s">
         <v>14</v>
       </c>
     </row>

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="86">
   <si>
     <t>Player</t>
   </si>
@@ -274,31 +274,16 @@
     <t>Colorado Rockies hitters (DK)</t>
   </si>
   <si>
-    <t>Choo</t>
-  </si>
-  <si>
-    <t>Mazara</t>
-  </si>
-  <si>
-    <t>Cabrera</t>
-  </si>
-  <si>
-    <t>Santana</t>
-  </si>
-  <si>
     <t>San Francisco Giants hitters (FD, DK)</t>
   </si>
   <si>
-    <t>Panik</t>
-  </si>
-  <si>
-    <t>Yastrzemski</t>
-  </si>
-  <si>
-    <t>Belt</t>
-  </si>
-  <si>
-    <t>Vogt</t>
+    <t>Toronto Blue Jays righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Philadelphia Phillies hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Minnesota Twins righties (FD, DK)</t>
   </si>
 </sst>
 </file>
@@ -692,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,14 +694,12 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-      <c r="F1" s="15" t="s">
-        <v>86</v>
-      </c>
+      <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -764,31 +747,15 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="5">
-        <v>3700</v>
-      </c>
-      <c r="C3">
-        <v>21</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="5"/>
+      <c r="D3" s="7" t="e">
         <f>(C3 / B3) * 1000</f>
-        <v>5.6756756756756754</v>
-      </c>
-      <c r="F3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2500</v>
-      </c>
-      <c r="H3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I3" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="I3" s="7" t="e">
         <f>(H3 / G3) * 1000</f>
-        <v>3.6799999999999997</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L3" s="5"/>
       <c r="N3" s="7" t="e">
@@ -797,31 +764,15 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2900</v>
-      </c>
-      <c r="C4">
-        <v>6.5</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="B4" s="5"/>
+      <c r="D4" s="7" t="e">
         <f>(C4 / B4) * 1000</f>
-        <v>2.2413793103448274</v>
-      </c>
-      <c r="F4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="5">
-        <v>2700</v>
-      </c>
-      <c r="H4">
-        <v>6.2</v>
-      </c>
-      <c r="I4" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="I4" s="7" t="e">
         <f>(H4 / G4) * 1000</f>
-        <v>2.2962962962962963</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L4" s="5"/>
       <c r="N4" s="7" t="e">
@@ -830,31 +781,15 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="5">
-        <v>3000</v>
-      </c>
-      <c r="C5">
-        <v>25.2</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B5" s="5"/>
+      <c r="D5" s="7" t="e">
         <f>(C5 / B5) * 1000</f>
-        <v>8.4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="5">
-        <v>2800</v>
-      </c>
-      <c r="H5">
-        <v>15.6</v>
-      </c>
-      <c r="I5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="I5" s="7" t="e">
         <f>(H5 / G5) * 1000</f>
-        <v>5.5714285714285712</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L5" s="5"/>
       <c r="N5" s="7" t="e">
@@ -863,31 +798,15 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2900</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="B6" s="5"/>
+      <c r="D6" s="7" t="e">
         <f>(C6 / B6) * 1000</f>
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="5">
-        <v>2300</v>
-      </c>
-      <c r="H6">
-        <v>18.7</v>
-      </c>
-      <c r="I6" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="I6" s="7" t="e">
         <f>(H6 / G6) * 1000</f>
-        <v>8.1304347826086953</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L6" s="5"/>
       <c r="N6" s="7" t="e">
@@ -901,30 +820,30 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>52.7</v>
-      </c>
-      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="e">
         <f>(C7 / B7) * 1000</f>
-        <v>4.2160000000000002</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>10300</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>49.7</v>
-      </c>
-      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="e">
         <f>(H7 / G7) * 1000</f>
-        <v>4.825242718446602</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
@@ -943,12 +862,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="D8" s="8"/>
+      <c r="I8" s="8"/>
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1159,15 +1074,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
+      <c r="A1" t="e">
         <f>CONCATENATE("|",Current!A1,"|",Current!A3,", ",Current!A4,", ",Current!A5,", ",Current!A6,"|",TEXT(Current!B7,"$#,##0"),"|",Current!C7,"|",CONCATENATE(ROUND(Current!D7,2),"x"),"|",Current!D8,"|")</f>
-        <v>|Texas Rangers hitters (FD, DK)|Choo, Santana, Mazara, Cabrera|$12,500|52.7|4.22x|Success|</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2" t="e">
         <f>CONCATENATE("|",Current!F1,"|",Current!F3,", ",Current!F4,", ",Current!F5,", ",Current!F6,"|",TEXT(Current!G7,"$#,##0"),"|",Current!H7,"|",CONCATENATE(ROUND(Current!I7,2),"x"),"|",Current!I8,"|")</f>
-        <v>|San Francisco Giants hitters (FD, DK)|Panik, Yastrzemski, Belt, Vogt|$10,300|49.7|4.83x|Success|</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1204,11 +1119,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J182"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F182" sqref="F182"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F200" sqref="F200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,11 +1188,11 @@
       </c>
       <c r="H2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Success")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Failure")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="14">
         <f>H2 / (H2+I2)</f>
@@ -1305,15 +1220,15 @@
       </c>
       <c r="H3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Success")</f>
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Failure")</f>
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J3" s="14">
         <f>H3 / (H3+I3)</f>
-        <v>0.56028368794326244</v>
+        <v>0.55128205128205132</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4344,13 +4259,310 @@
         <v>19</v>
       </c>
       <c r="C182" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D182">
         <v>4.83</v>
       </c>
       <c r="E182" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="11">
+        <v>43638</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" t="s">
+        <v>83</v>
+      </c>
+      <c r="D183">
+        <v>2.69</v>
+      </c>
+      <c r="E183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="11">
+        <v>43638</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184">
+        <v>5.88</v>
+      </c>
+      <c r="E184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="11">
+        <v>43639</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C185" t="s">
+        <v>34</v>
+      </c>
+      <c r="D185">
+        <v>4.18</v>
+      </c>
+      <c r="E185" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="11">
+        <v>43639</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C186" t="s">
+        <v>43</v>
+      </c>
+      <c r="D186">
+        <v>2.48</v>
+      </c>
+      <c r="E186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="11">
+        <v>43640</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C187" t="s">
+        <v>29</v>
+      </c>
+      <c r="D187">
+        <v>6.54</v>
+      </c>
+      <c r="E187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="11">
+        <v>43640</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C188" t="s">
+        <v>84</v>
+      </c>
+      <c r="D188">
+        <v>8.19</v>
+      </c>
+      <c r="E188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="11">
+        <v>43641</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C189" t="s">
+        <v>72</v>
+      </c>
+      <c r="D189">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E189" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="11">
+        <v>43641</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C190" t="s">
+        <v>84</v>
+      </c>
+      <c r="D190">
+        <v>3.07</v>
+      </c>
+      <c r="E190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="11">
+        <v>43642</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C191" t="s">
+        <v>74</v>
+      </c>
+      <c r="D191">
+        <v>6.25</v>
+      </c>
+      <c r="E191" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="11">
+        <v>43642</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C192" t="s">
+        <v>84</v>
+      </c>
+      <c r="D192">
+        <v>4.13</v>
+      </c>
+      <c r="E192" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="11">
+        <v>43643</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C193" t="s">
+        <v>77</v>
+      </c>
+      <c r="D193">
+        <v>1.33</v>
+      </c>
+      <c r="E193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="11">
+        <v>43643</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194" t="s">
+        <v>82</v>
+      </c>
+      <c r="D194">
+        <v>0.61</v>
+      </c>
+      <c r="E194" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="11">
+        <v>43644</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" t="s">
+        <v>85</v>
+      </c>
+      <c r="D195">
+        <v>6.28</v>
+      </c>
+      <c r="E195" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="11">
+        <v>43644</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C196" t="s">
+        <v>64</v>
+      </c>
+      <c r="D196">
+        <v>2.21</v>
+      </c>
+      <c r="E196" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="11">
+        <v>43644</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C197" t="s">
+        <v>58</v>
+      </c>
+      <c r="D197">
+        <v>1.45</v>
+      </c>
+      <c r="E197" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="11">
+        <v>43645</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="11">
+        <v>43646</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C199" t="s">
+        <v>64</v>
+      </c>
+      <c r="D199">
+        <v>2.02</v>
+      </c>
+      <c r="E199" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="11">
+        <v>43647</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200" t="s">
+        <v>34</v>
+      </c>
+      <c r="D200">
+        <v>4.04</v>
+      </c>
+      <c r="E200" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="94">
   <si>
     <t>Player</t>
   </si>
@@ -284,6 +284,30 @@
   </si>
   <si>
     <t>Minnesota Twins righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Tampa Bay Rays lefties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Betts</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Vazquez</t>
+  </si>
+  <si>
+    <t>St Louis Cardinals righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Edman</t>
+  </si>
+  <si>
+    <t>Goldschmidt</t>
+  </si>
+  <si>
+    <t>O'Neill</t>
   </si>
 </sst>
 </file>
@@ -677,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,12 +718,14 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="F1" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -747,15 +773,31 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="D3" s="7" t="e">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4300</v>
+      </c>
+      <c r="C3">
+        <v>25.1</v>
+      </c>
+      <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="I3" s="7" t="e">
+        <v>5.837209302325582</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2800</v>
+      </c>
+      <c r="H3">
+        <v>15.5</v>
+      </c>
+      <c r="I3" s="7">
         <f>(H3 / G3) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>5.5357142857142856</v>
       </c>
       <c r="L3" s="5"/>
       <c r="N3" s="7" t="e">
@@ -764,15 +806,31 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="D4" s="7" t="e">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4400</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
         <f>(C4 / B4) * 1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="I4" s="7" t="e">
+        <v>0.68181818181818188</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2700</v>
+      </c>
+      <c r="H4">
+        <v>18.7</v>
+      </c>
+      <c r="I4" s="7">
         <f>(H4 / G4) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>6.9259259259259256</v>
       </c>
       <c r="L4" s="5"/>
       <c r="N4" s="7" t="e">
@@ -781,15 +839,31 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="D5" s="7" t="e">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="C5">
+        <v>12.2</v>
+      </c>
+      <c r="D5" s="7">
         <f>(C5 / B5) * 1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="I5" s="7" t="e">
+        <v>4.0666666666666664</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3100</v>
+      </c>
+      <c r="H5">
+        <v>28.2</v>
+      </c>
+      <c r="I5" s="7">
         <f>(H5 / G5) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>9.0967741935483879</v>
       </c>
       <c r="L5" s="5"/>
       <c r="N5" s="7" t="e">
@@ -803,10 +877,18 @@
         <f>(C6 / B6) * 1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="I6" s="7" t="e">
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2300</v>
+      </c>
+      <c r="H6">
+        <v>12.2</v>
+      </c>
+      <c r="I6" s="7">
         <f>(H6 / G6) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>5.3043478260869561</v>
       </c>
       <c r="L6" s="5"/>
       <c r="N6" s="7" t="e">
@@ -820,30 +902,30 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>0</v>
+        <v>11700</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="e">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="D7" s="3">
         <f>(C7 / B7) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>3.4444444444444442</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>0</v>
+        <v>10900</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="e">
+        <v>74.600000000000009</v>
+      </c>
+      <c r="I7" s="3">
         <f>(H7 / G7) * 1000</f>
-        <v>#DIV/0!</v>
+        <v>6.8440366972477067</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
@@ -862,8 +944,12 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1066,7 +1152,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1074,15 +1162,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="e">
+      <c r="A1" t="str">
         <f>CONCATENATE("|",Current!A1,"|",Current!A3,", ",Current!A4,", ",Current!A5,", ",Current!A6,"|",TEXT(Current!B7,"$#,##0"),"|",Current!C7,"|",CONCATENATE(ROUND(Current!D7,2),"x"),"|",Current!D8,"|")</f>
-        <v>#DIV/0!</v>
+        <v>|Boston Red Sox hitters (FD, DK)|Betts, Martinez, Vazquez, |$11,700|40.3|3.44x|Failure|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="e">
+      <c r="A2" t="str">
         <f>CONCATENATE("|",Current!F1,"|",Current!F3,", ",Current!F4,", ",Current!F5,", ",Current!F6,"|",TEXT(Current!G7,"$#,##0"),"|",Current!H7,"|",CONCATENATE(ROUND(Current!I7,2),"x"),"|",Current!I8,"|")</f>
-        <v>#DIV/0!</v>
+        <v>|St Louis Cardinals righties (FD, DK)|Edman, Martinez, Goldschmidt, O'Neill|$10,900|74.6|6.84x|Success|</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1119,11 +1207,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J200"/>
+  <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F200" sqref="F200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F209" sqref="F209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,11 +1276,11 @@
       </c>
       <c r="H2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Success")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Failure")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="14">
         <f>H2 / (H2+I2)</f>
@@ -1220,15 +1308,15 @@
       </c>
       <c r="H3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Success")</f>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Failure")</f>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J3" s="14">
         <f>H3 / (H3+I3)</f>
-        <v>0.55128205128205132</v>
+        <v>0.53658536585365857</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4530,6 +4618,15 @@
       <c r="B198" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="C198" t="s">
+        <v>58</v>
+      </c>
+      <c r="D198">
+        <v>4.37</v>
+      </c>
+      <c r="E198" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="11">
@@ -4563,6 +4660,159 @@
       </c>
       <c r="E200" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="11">
+        <v>43648</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201" t="s">
+        <v>86</v>
+      </c>
+      <c r="D201">
+        <v>3.02</v>
+      </c>
+      <c r="E201" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="11">
+        <v>43648</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C202" t="s">
+        <v>80</v>
+      </c>
+      <c r="D202">
+        <v>3.22</v>
+      </c>
+      <c r="E202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="11">
+        <v>43648</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203">
+        <v>2.09</v>
+      </c>
+      <c r="E203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="11">
+        <v>43649</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" t="s">
+        <v>55</v>
+      </c>
+      <c r="D204">
+        <v>1.27</v>
+      </c>
+      <c r="E204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="11">
+        <v>43649</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C205" t="s">
+        <v>40</v>
+      </c>
+      <c r="D205">
+        <v>0.84</v>
+      </c>
+      <c r="E205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="11">
+        <v>43649</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C206" t="s">
+        <v>27</v>
+      </c>
+      <c r="D206">
+        <v>5.16</v>
+      </c>
+      <c r="E206" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="11">
+        <v>43650</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C207" t="s">
+        <v>35</v>
+      </c>
+      <c r="D207">
+        <v>3.6</v>
+      </c>
+      <c r="E207" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="11">
+        <v>43651</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208">
+        <v>3.44</v>
+      </c>
+      <c r="E208" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="11">
+        <v>43651</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C209" t="s">
+        <v>90</v>
+      </c>
+      <c r="D209">
+        <v>6.84</v>
+      </c>
+      <c r="E209" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -9,13 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
     <sheet name="RG table" sheetId="2" r:id="rId2"/>
-    <sheet name="Season Log" sheetId="3" r:id="rId3"/>
+    <sheet name="Season Log (2019)" sheetId="3" r:id="rId3"/>
+    <sheet name="Histogram" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Season Log (2019)'!$A$1:$E$246</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="113">
   <si>
     <t>Player</t>
   </si>
@@ -289,25 +293,82 @@
     <t>Tampa Bay Rays lefties (FD, DK)</t>
   </si>
   <si>
-    <t>Betts</t>
-  </si>
-  <si>
-    <t>Martinez</t>
-  </si>
-  <si>
-    <t>Vazquez</t>
-  </si>
-  <si>
     <t>St Louis Cardinals righties (FD, DK)</t>
   </si>
   <si>
-    <t>Edman</t>
-  </si>
-  <si>
-    <t>Goldschmidt</t>
-  </si>
-  <si>
-    <t>O'Neill</t>
+    <t>Kansas City Royals hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>Miami Marlins hitters (FD, DK)</t>
+  </si>
+  <si>
+    <t>San Francisco Giants righties (FD, DK)</t>
+  </si>
+  <si>
+    <t>Villar</t>
+  </si>
+  <si>
+    <t>Mancini</t>
+  </si>
+  <si>
+    <t>Santander</t>
+  </si>
+  <si>
+    <t>Nunez</t>
+  </si>
+  <si>
+    <t>Min Value</t>
+  </si>
+  <si>
+    <t>Max Value</t>
+  </si>
+  <si>
+    <t># of Stacks</t>
+  </si>
+  <si>
+    <t>Value Range</t>
+  </si>
+  <si>
+    <t>0-1x</t>
+  </si>
+  <si>
+    <t>1-2x</t>
+  </si>
+  <si>
+    <t>2-3x</t>
+  </si>
+  <si>
+    <t>3-4x</t>
+  </si>
+  <si>
+    <t>4-5x</t>
+  </si>
+  <si>
+    <t>5-6x</t>
+  </si>
+  <si>
+    <t>6-7x</t>
+  </si>
+  <si>
+    <t>7-8x</t>
+  </si>
+  <si>
+    <t>8-9x</t>
+  </si>
+  <si>
+    <t>9-10x</t>
+  </si>
+  <si>
+    <t>10-11x</t>
+  </si>
+  <si>
+    <t>% of  Stacks</t>
+  </si>
+  <si>
+    <t>Total Stack Count:</t>
+  </si>
+  <si>
+    <t>Blog Site:</t>
   </si>
 </sst>
 </file>
@@ -387,7 +448,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -412,6 +473,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -434,6 +500,1122 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Histogram!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># of Stacks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="84000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="20000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.0370135052831988E-16"/>
+                  <c:y val="6.5041921843102951E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Histogram!$C$2:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0-1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1-2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2-3x</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3-4x</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4-5x</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5-6x</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6-7x</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7-8x</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8-9x</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9-10x</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10-11x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Histogram!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.0606060606060608E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16161616161616163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17676767676767677</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18686868686868688</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5858585858585856E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0808080808080815E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0202020202020204E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5252525252525252E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0101010101010102E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="41"/>
+        <c:axId val="242736480"/>
+        <c:axId val="242742752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="242736480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Stack Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="242742752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="242742752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>%</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>of Stacks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="242736480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="68000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="68000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="84000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -702,7 +1884,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,14 +1900,12 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-      <c r="F1" s="15" t="s">
-        <v>90</v>
-      </c>
+      <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -774,30 +1954,22 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B3" s="5">
-        <v>4300</v>
+        <v>3000</v>
       </c>
       <c r="C3">
-        <v>25.1</v>
+        <v>3.5</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>5.837209302325582</v>
-      </c>
-      <c r="F3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2800</v>
-      </c>
-      <c r="H3">
-        <v>15.5</v>
-      </c>
-      <c r="I3" s="7">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="I3" s="7" t="e">
         <f>(H3 / G3) * 1000</f>
-        <v>5.5357142857142856</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L3" s="5"/>
       <c r="N3" s="7" t="e">
@@ -807,30 +1979,22 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B4" s="5">
-        <v>4400</v>
+        <v>3800</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>18.7</v>
       </c>
       <c r="D4" s="7">
         <f>(C4 / B4) * 1000</f>
-        <v>0.68181818181818188</v>
-      </c>
-      <c r="F4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="5">
-        <v>2700</v>
-      </c>
-      <c r="H4">
-        <v>18.7</v>
-      </c>
-      <c r="I4" s="7">
+        <v>4.9210526315789478</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="I4" s="7" t="e">
         <f>(H4 / G4) * 1000</f>
-        <v>6.9259259259259256</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L4" s="5"/>
       <c r="N4" s="7" t="e">
@@ -840,30 +2004,22 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B5" s="5">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="C5">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f>(C5 / B5) * 1000</f>
-        <v>4.0666666666666664</v>
-      </c>
-      <c r="F5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="5">
-        <v>3100</v>
-      </c>
-      <c r="H5">
-        <v>28.2</v>
-      </c>
-      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="I5" s="7" t="e">
         <f>(H5 / G5) * 1000</f>
-        <v>9.0967741935483879</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L5" s="5"/>
       <c r="N5" s="7" t="e">
@@ -872,23 +2028,23 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="D6" s="7" t="e">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3400</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
         <f>(C6 / B6) * 1000</f>
+        <v>0.88235294117647067</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="I6" s="7" t="e">
+        <f>(H6 / G6) * 1000</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="F6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="5">
-        <v>2300</v>
-      </c>
-      <c r="H6">
-        <v>12.2</v>
-      </c>
-      <c r="I6" s="7">
-        <f>(H6 / G6) * 1000</f>
-        <v>5.3043478260869561</v>
       </c>
       <c r="L6" s="5"/>
       <c r="N6" s="7" t="e">
@@ -902,30 +2058,30 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>11700</v>
+        <v>13600</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>40.299999999999997</v>
+        <v>25.2</v>
       </c>
       <c r="D7" s="3">
         <f>(C7 / B7) * 1000</f>
-        <v>3.4444444444444442</v>
+        <v>1.8529411764705883</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUM(G3:G6)</f>
-        <v>10900</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(H3:H6)</f>
-        <v>74.600000000000009</v>
-      </c>
-      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="e">
         <f>(H7 / G7) * 1000</f>
-        <v>6.8440366972477067</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
@@ -947,9 +2103,7 @@
       <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="I8" s="8"/>
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1152,9 +2306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1164,13 +2316,13 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Current!A1,"|",Current!A3,", ",Current!A4,", ",Current!A5,", ",Current!A6,"|",TEXT(Current!B7,"$#,##0"),"|",Current!C7,"|",CONCATENATE(ROUND(Current!D7,2),"x"),"|",Current!D8,"|")</f>
-        <v>|Boston Red Sox hitters (FD, DK)|Betts, Martinez, Vazquez, |$11,700|40.3|3.44x|Failure|</v>
+        <v>|Baltimore Orioles hitters (FD, DK)|Villar, Mancini, Santander, Nunez|$13,600|25.2|1.85x|Failure|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2" t="e">
         <f>CONCATENATE("|",Current!F1,"|",Current!F3,", ",Current!F4,", ",Current!F5,", ",Current!F6,"|",TEXT(Current!G7,"$#,##0"),"|",Current!H7,"|",CONCATENATE(ROUND(Current!I7,2),"x"),"|",Current!I8,"|")</f>
-        <v>|St Louis Cardinals righties (FD, DK)|Edman, Martinez, Goldschmidt, O'Neill|$10,900|74.6|6.84x|Success|</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1207,11 +2359,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J209"/>
+  <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F209" sqref="F209"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,15 +2428,15 @@
       </c>
       <c r="H2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Success")</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Failure")</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J2" s="14">
         <f>H2 / (H2+I2)</f>
-        <v>0.5</v>
+        <v>0.51111111111111107</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1308,15 +2460,15 @@
       </c>
       <c r="H3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Success")</f>
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="I3" s="13">
         <f>COUNTIFS(B:B,"RG",E:E,"Failure")</f>
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="J3" s="14">
         <f>H3 / (H3+I3)</f>
-        <v>0.53658536585365857</v>
+        <v>0.52604166666666663</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4806,17 +5958,911 @@
         <v>19</v>
       </c>
       <c r="C209" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D209">
         <v>6.84</v>
       </c>
       <c r="E209" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="11">
+        <v>43652</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C210" t="s">
+        <v>67</v>
+      </c>
+      <c r="D210">
+        <v>2.78</v>
+      </c>
+      <c r="E210" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="11">
+        <v>43653</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C211" t="s">
+        <v>53</v>
+      </c>
+      <c r="D211">
+        <v>1.03</v>
+      </c>
+      <c r="E211" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="11">
+        <v>43653</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C212" t="s">
+        <v>45</v>
+      </c>
+      <c r="D212">
+        <v>1.93</v>
+      </c>
+      <c r="E212" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="11">
+        <v>43658</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C213" t="s">
+        <v>86</v>
+      </c>
+      <c r="D213">
+        <v>9.02</v>
+      </c>
+      <c r="E213" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="11">
+        <v>43658</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C214" t="s">
+        <v>30</v>
+      </c>
+      <c r="D214">
+        <v>4.57</v>
+      </c>
+      <c r="E214" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="11">
+        <v>43658</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C215" t="s">
+        <v>29</v>
+      </c>
+      <c r="D215">
+        <v>2.71</v>
+      </c>
+      <c r="E215" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="11">
+        <v>43659</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C216" t="s">
+        <v>73</v>
+      </c>
+      <c r="D216">
+        <v>5.86</v>
+      </c>
+      <c r="E216" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="11">
+        <v>43660</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C217" t="s">
+        <v>88</v>
+      </c>
+      <c r="D217">
+        <v>5.42</v>
+      </c>
+      <c r="E217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="11">
+        <v>43660</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C218" t="s">
+        <v>58</v>
+      </c>
+      <c r="D218">
+        <v>3.65</v>
+      </c>
+      <c r="E218" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="11">
+        <v>43661</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C219" t="s">
+        <v>42</v>
+      </c>
+      <c r="D219">
+        <v>6.35</v>
+      </c>
+      <c r="E219" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="11">
+        <v>43661</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C220" t="s">
+        <v>80</v>
+      </c>
+      <c r="D220">
+        <v>0.8</v>
+      </c>
+      <c r="E220" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="11">
+        <v>43661</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C221" t="s">
+        <v>82</v>
+      </c>
+      <c r="D221">
+        <v>2.61</v>
+      </c>
+      <c r="E221" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="11">
+        <v>43662</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C222" t="s">
+        <v>64</v>
+      </c>
+      <c r="D222">
+        <v>5.65</v>
+      </c>
+      <c r="E222" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="11">
+        <v>43662</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C223" t="s">
+        <v>42</v>
+      </c>
+      <c r="D223">
+        <v>5.22</v>
+      </c>
+      <c r="E223" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="11">
+        <v>43662</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C224" t="s">
+        <v>82</v>
+      </c>
+      <c r="D224">
+        <v>1.78</v>
+      </c>
+      <c r="E224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="11">
+        <v>43663</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C225" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="11">
+        <v>43663</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226">
+        <v>3.95</v>
+      </c>
+      <c r="E226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="11">
+        <v>43664</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C227" t="s">
+        <v>69</v>
+      </c>
+      <c r="D227">
+        <v>5.2</v>
+      </c>
+      <c r="E227" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="11">
+        <v>43665</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C228" t="s">
+        <v>58</v>
+      </c>
+      <c r="D228">
+        <v>4.7</v>
+      </c>
+      <c r="E228" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="11">
+        <v>43665</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C229" t="s">
+        <v>69</v>
+      </c>
+      <c r="D229">
+        <v>3.57</v>
+      </c>
+      <c r="E229" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="11">
+        <v>43666</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C230" t="s">
+        <v>88</v>
+      </c>
+      <c r="D230">
+        <v>0.76</v>
+      </c>
+      <c r="E230" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="11">
+        <v>43669</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C231" t="s">
+        <v>89</v>
+      </c>
+      <c r="D231">
+        <v>4.91</v>
+      </c>
+      <c r="E231" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="11">
+        <v>43669</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C232" t="s">
+        <v>42</v>
+      </c>
+      <c r="D232">
+        <v>2.68</v>
+      </c>
+      <c r="E232" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="11">
+        <v>43670</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C233" t="s">
+        <v>69</v>
+      </c>
+      <c r="D233">
+        <v>5.73</v>
+      </c>
+      <c r="E233" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="11">
+        <v>43670</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C234" t="s">
+        <v>54</v>
+      </c>
+      <c r="D234">
+        <v>2.08</v>
+      </c>
+      <c r="E234" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="11">
+        <v>43671</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C235" t="s">
+        <v>78</v>
+      </c>
+      <c r="D235">
+        <v>9.07</v>
+      </c>
+      <c r="E235" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="11">
+        <v>43672</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C236" t="s">
+        <v>53</v>
+      </c>
+      <c r="D236">
+        <v>3.41</v>
+      </c>
+      <c r="E236" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="11">
+        <v>43672</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C237" t="s">
+        <v>44</v>
+      </c>
+      <c r="D237">
+        <v>3.2</v>
+      </c>
+      <c r="E237" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="11">
+        <v>43672</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C238" t="s">
+        <v>32</v>
+      </c>
+      <c r="D238">
+        <v>4.21</v>
+      </c>
+      <c r="E238" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="11">
+        <v>43673</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C239" t="s">
+        <v>30</v>
+      </c>
+      <c r="D239">
+        <v>8.02</v>
+      </c>
+      <c r="E239" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="11">
+        <v>43674</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C240" t="s">
+        <v>53</v>
+      </c>
+      <c r="D240">
+        <v>5.26</v>
+      </c>
+      <c r="E240" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="11">
+        <v>43674</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C241" t="s">
+        <v>57</v>
+      </c>
+      <c r="D241">
+        <v>2.62</v>
+      </c>
+      <c r="E241" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="11">
+        <v>43675</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C242" t="s">
+        <v>57</v>
+      </c>
+      <c r="D242">
+        <v>4.75</v>
+      </c>
+      <c r="E242" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="11">
+        <v>43675</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C243" t="s">
+        <v>27</v>
+      </c>
+      <c r="D243">
+        <v>2.34</v>
+      </c>
+      <c r="E243" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="11">
+        <v>43676</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C244" t="s">
+        <v>27</v>
+      </c>
+      <c r="D244">
+        <v>3.63</v>
+      </c>
+      <c r="E244" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="11">
+        <v>43676</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C245" t="s">
+        <v>90</v>
+      </c>
+      <c r="D245">
+        <v>1.19</v>
+      </c>
+      <c r="E245" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="11">
+        <v>43678</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C246" t="s">
+        <v>49</v>
+      </c>
+      <c r="D246">
+        <v>1.85</v>
+      </c>
+      <c r="E246" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E246"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A2,'Season Log (2019)'!D:D,"&lt;"&amp;B2,'Season Log (2019)'!B:B,I$1)</f>
+        <v>12</v>
+      </c>
+      <c r="E2" s="18">
+        <f>D2/I$2</f>
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="17">
+        <f>SUM(D:D)</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A3,'Season Log (2019)'!D:D,"&lt;"&amp;B3,'Season Log (2019)'!B:B,I$1)</f>
+        <v>27</v>
+      </c>
+      <c r="E3" s="18">
+        <f t="shared" ref="E3:E12" si="0">D3/I$2</f>
+        <v>0.13636363636363635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A4,'Season Log (2019)'!D:D,"&lt;"&amp;B4,'Season Log (2019)'!B:B,I$1)</f>
+        <v>32</v>
+      </c>
+      <c r="E4" s="18">
+        <f t="shared" si="0"/>
+        <v>0.16161616161616163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A5,'Season Log (2019)'!D:D,"&lt;"&amp;B5,'Season Log (2019)'!B:B,I$1)</f>
+        <v>35</v>
+      </c>
+      <c r="E5" s="18">
+        <f t="shared" si="0"/>
+        <v>0.17676767676767677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A6,'Season Log (2019)'!D:D,"&lt;"&amp;B6,'Season Log (2019)'!B:B,I$1)</f>
+        <v>37</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" si="0"/>
+        <v>0.18686868686868688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A7,'Season Log (2019)'!D:D,"&lt;"&amp;B7,'Season Log (2019)'!B:B,I$1)</f>
+        <v>17</v>
+      </c>
+      <c r="E7" s="18">
+        <f t="shared" si="0"/>
+        <v>8.5858585858585856E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8">
+        <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A8,'Season Log (2019)'!D:D,"&lt;"&amp;B8,'Season Log (2019)'!B:B,I$1)</f>
+        <v>16</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" si="0"/>
+        <v>8.0808080808080815E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9">
+        <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A9,'Season Log (2019)'!D:D,"&lt;"&amp;B9,'Season Log (2019)'!B:B,I$1)</f>
+        <v>11</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10">
+        <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A10,'Season Log (2019)'!D:D,"&lt;"&amp;B10,'Season Log (2019)'!B:B,I$1)</f>
+        <v>4</v>
+      </c>
+      <c r="E10" s="18">
+        <f t="shared" si="0"/>
+        <v>2.0202020202020204E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11">
+        <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A11,'Season Log (2019)'!D:D,"&lt;"&amp;B11,'Season Log (2019)'!B:B,I$1)</f>
+        <v>5</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" si="0"/>
+        <v>2.5252525252525252E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12">
+        <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A12,'Season Log (2019)'!D:D,"&lt;"&amp;B12,'Season Log (2019)'!B:B,I$1)</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="18">
+        <f t="shared" si="0"/>
+        <v>1.0101010101010102E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dfs-tools/build/Blog_stack_value_results.xlsx
+++ b/dfs-tools/build/Blog_stack_value_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="112">
   <si>
     <t>Player</t>
   </si>
@@ -305,18 +305,6 @@
     <t>San Francisco Giants righties (FD, DK)</t>
   </si>
   <si>
-    <t>Villar</t>
-  </si>
-  <si>
-    <t>Mancini</t>
-  </si>
-  <si>
-    <t>Santander</t>
-  </si>
-  <si>
-    <t>Nunez</t>
-  </si>
-  <si>
     <t>Min Value</t>
   </si>
   <si>
@@ -369,6 +357,15 @@
   </si>
   <si>
     <t>Blog Site:</t>
+  </si>
+  <si>
+    <t>Bichette</t>
+  </si>
+  <si>
+    <t>Galvis</t>
+  </si>
+  <si>
+    <t>Guerrero</t>
   </si>
 </sst>
 </file>
@@ -470,14 +467,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -733,11 +730,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="242736480"/>
-        <c:axId val="242742752"/>
+        <c:axId val="32704968"/>
+        <c:axId val="32706144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="242736480"/>
+        <c:axId val="32704968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,7 +828,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242742752"/>
+        <c:crossAx val="32706144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -839,7 +836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242742752"/>
+        <c:axId val="32706144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,7 +910,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242736480"/>
+        <c:crossAx val="32704968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1884,7 +1881,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1899,20 +1896,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="A1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1954,17 +1951,17 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B3" s="5">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
+        <v>12.2</v>
       </c>
       <c r="D3" s="7">
         <f>(C3 / B3) * 1000</f>
-        <v>1.1666666666666667</v>
+        <v>3.6969696969696968</v>
       </c>
       <c r="G3" s="5"/>
       <c r="I3" s="7" t="e">
@@ -1979,17 +1976,17 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B4" s="5">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="C4">
-        <v>18.7</v>
+        <v>24.7</v>
       </c>
       <c r="D4" s="7">
         <f>(C4 / B4) * 1000</f>
-        <v>4.9210526315789478</v>
+        <v>8.8214285714285712</v>
       </c>
       <c r="G4" s="5"/>
       <c r="I4" s="7" t="e">
@@ -2004,17 +2001,17 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B5" s="5">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="D5" s="7">
         <f>(C5 / B5) * 1000</f>
-        <v>0</v>
+        <v>4.3055555555555554</v>
       </c>
       <c r="G5" s="5"/>
       <c r="I5" s="7" t="e">
@@ -2028,18 +2025,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="5">
-        <v>3400</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="B6" s="5"/>
+      <c r="D6" s="7" t="e">
         <f>(C6 / B6) * 1000</f>
-        <v>0.88235294117647067</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G6" s="5"/>
       <c r="I6" s="7" t="e">
@@ -2058,15 +2047,15 @@
       </c>
       <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
-        <v>13600</v>
+        <v>9700</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
-        <v>25.2</v>
+        <v>52.4</v>
       </c>
       <c r="D7" s="3">
         <f>(C7 / B7) * 1000</f>
-        <v>1.8529411764705883</v>
+        <v>5.4020618556701034</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
@@ -2101,7 +2090,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I8" s="8"/>
       <c r="N8" s="8"/>
@@ -2112,18 +2101,18 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2316,7 +2305,7 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>CONCATENATE("|",Current!A1,"|",Current!A3,", ",Current!A4,", ",Current!A5,", ",Current!A6,"|",TEXT(Current!B7,"$#,##0"),"|",Current!C7,"|",CONCATENATE(ROUND(Current!D7,2),"x"),"|",Current!D8,"|")</f>
-        <v>|Baltimore Orioles hitters (FD, DK)|Villar, Mancini, Santander, Nunez|$13,600|25.2|1.85x|Failure|</v>
+        <v>|Toronto Blue Jays hitters (FD, DK)|Bichette, Galvis, Guerrero, |$9,700|52.4|5.4x|Success|</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -2359,11 +2348,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J246"/>
+  <dimension ref="A1:J247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F247" sqref="F247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,7 +2417,7 @@
       </c>
       <c r="H2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Success")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="13">
         <f>COUNTIFS(B:B,"Draftshot",E:E,"Failure")</f>
@@ -2436,7 +2425,7 @@
       </c>
       <c r="J2" s="14">
         <f>H2 / (H2+I2)</f>
-        <v>0.51111111111111107</v>
+        <v>0.52173913043478259</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -6594,6 +6583,23 @@
       </c>
       <c r="E246" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="11">
+        <v>43680</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C247" t="s">
+        <v>22</v>
+      </c>
+      <c r="D247">
+        <v>5.4</v>
+      </c>
+      <c r="E247" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -6607,7 +6613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -6622,24 +6628,24 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6651,21 +6657,21 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D2">
         <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A2,'Season Log (2019)'!D:D,"&lt;"&amp;B2,'Season Log (2019)'!B:B,I$1)</f>
         <v>12</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <f>D2/I$2</f>
         <v>6.0606060606060608E-2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <f>SUM(D:D)</f>
         <v>198</v>
       </c>
@@ -6678,13 +6684,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D3">
         <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A3,'Season Log (2019)'!D:D,"&lt;"&amp;B3,'Season Log (2019)'!B:B,I$1)</f>
         <v>27</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <f t="shared" ref="E3:E12" si="0">D3/I$2</f>
         <v>0.13636363636363635</v>
       </c>
@@ -6697,13 +6703,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D4">
         <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A4,'Season Log (2019)'!D:D,"&lt;"&amp;B4,'Season Log (2019)'!B:B,I$1)</f>
         <v>32</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <f t="shared" si="0"/>
         <v>0.16161616161616163</v>
       </c>
@@ -6716,13 +6722,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D5">
         <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A5,'Season Log (2019)'!D:D,"&lt;"&amp;B5,'Season Log (2019)'!B:B,I$1)</f>
         <v>35</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <f t="shared" si="0"/>
         <v>0.17676767676767677</v>
       </c>
@@ -6735,13 +6741,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D6">
         <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A6,'Season Log (2019)'!D:D,"&lt;"&amp;B6,'Season Log (2019)'!B:B,I$1)</f>
         <v>37</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <f t="shared" si="0"/>
         <v>0.18686868686868688</v>
       </c>
@@ -6754,13 +6760,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A7,'Season Log (2019)'!D:D,"&lt;"&amp;B7,'Season Log (2019)'!B:B,I$1)</f>
         <v>17</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <f t="shared" si="0"/>
         <v>8.5858585858585856E-2</v>
       </c>
@@ -6773,13 +6779,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D8">
         <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A8,'Season Log (2019)'!D:D,"&lt;"&amp;B8,'Season Log (2019)'!B:B,I$1)</f>
         <v>16</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <f t="shared" si="0"/>
         <v>8.0808080808080815E-2</v>
       </c>
@@ -6792,13 +6798,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D9">
         <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A9,'Season Log (2019)'!D:D,"&lt;"&amp;B9,'Season Log (2019)'!B:B,I$1)</f>
         <v>11</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
@@ -6811,13 +6817,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10">
         <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A10,'Season Log (2019)'!D:D,"&lt;"&amp;B10,'Season Log (2019)'!B:B,I$1)</f>
         <v>4</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <f t="shared" si="0"/>
         <v>2.0202020202020204E-2</v>
       </c>
@@ -6830,13 +6836,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D11">
         <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A11,'Season Log (2019)'!D:D,"&lt;"&amp;B11,'Season Log (2019)'!B:B,I$1)</f>
         <v>5</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <f t="shared" si="0"/>
         <v>2.5252525252525252E-2</v>
       </c>
@@ -6849,13 +6855,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D12">
         <f>COUNTIFS('Season Log (2019)'!D:D,"&gt;="&amp;A12,'Season Log (2019)'!D:D,"&lt;"&amp;B12,'Season Log (2019)'!B:B,I$1)</f>
         <v>2</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <f t="shared" si="0"/>
         <v>1.0101010101010102E-2</v>
       </c>
